--- a/output/Bids.xlsx
+++ b/output/Bids.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e6431dddeb4959f/Documents/UiPath/Diamond/Project1/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\UiPath\SCT9_Diamond_Project1\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17379" documentId="11_F25DC773A252ABDACC104822E91F7E145ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19F26091-51B1-42F3-A7DB-95AB32C8BFA1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Awarded" sheetId="3" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OpenBids!$A$1:$P$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Top5'!$A$1:$P$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="331">
   <si>
     <t>Quote</t>
   </si>
@@ -119,229 +118,28 @@
     <t>Contact's Address</t>
   </si>
   <si>
-    <t>MOESCHETQ22001620</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001620 / 158/2022</t>
-  </si>
-  <si>
     <t>Quotation</t>
   </si>
   <si>
-    <t>Leadership Workshops for Secondary 1 and Secondary 2 Cohorts in Springfield Secondary School</t>
-  </si>
-  <si>
     <t>Ministry of Education - Schools</t>
   </si>
   <si>
-    <t>06 Apr 2022 09:34AM</t>
-  </si>
-  <si>
     <t>14 Apr 2022 01:00PM</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>MS SHAMALA</t>
-  </si>
-  <si>
-    <t>Shamala_balakrishnan@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>30 Tampines Ave 8 S529593</t>
-  </si>
-  <si>
-    <t>INDACIETQ22000039</t>
-  </si>
-  <si>
-    <t>INDACIETQ22000039 / Grace</t>
-  </si>
-  <si>
-    <t>Provision of Baby Grand Piano for the Music Performing Examination Purposes</t>
-  </si>
-  <si>
-    <t>Anglo-Chinese School (Independent)</t>
-  </si>
-  <si>
-    <t>05 Apr 2022 05:35PM</t>
-  </si>
-  <si>
     <t>13 Apr 2022 01:00PM</t>
   </si>
   <si>
-    <t>FOO AI LIAN</t>
-  </si>
-  <si>
-    <t>annfooailian@acsindep.edu.sg</t>
-  </si>
-  <si>
-    <t>121 Dover Road</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001615</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001615 / TK 5/22</t>
-  </si>
-  <si>
-    <t>Provision of Instructors to execute S3 and S1 Values-In-Action Cohort programme</t>
-  </si>
-  <si>
-    <t>05 Apr 2022 05:04PM</t>
-  </si>
-  <si>
-    <t>NOR HAZELIN IDAYU</t>
-  </si>
-  <si>
-    <t>nor_hazelin_idayu@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>130 HAIG ROAD SINGAPORE 438796</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001612</t>
-  </si>
-  <si>
-    <t>EL Journalism and Broadcasting Workshop 2022 for Sec 2 Cohort</t>
-  </si>
-  <si>
-    <t>05 Apr 2022 02:19PM</t>
-  </si>
-  <si>
-    <t>MDM SUHAILAH BINTE JASNI</t>
-  </si>
-  <si>
-    <t>suhailah_jasni@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Mayflower Secondary School
-2 Ang Mo Kio Street 21
-Singapore 569384</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001585</t>
-  </si>
-  <si>
-    <t>Supply of Instructors to design, organise and conduct a developmentally appropriate 3-Day Non-Residential Cohort OAL Experience</t>
-  </si>
-  <si>
-    <t>05 Apr 2022 02:04PM</t>
-  </si>
-  <si>
-    <t>08 Apr 2022 02:00PM</t>
-  </si>
-  <si>
-    <t>WEE TIEN SING DANIEL</t>
-  </si>
-  <si>
-    <t>wee_tien_sing_daniel@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>21 Serangoon North Ave 1 S555889</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001596</t>
-  </si>
-  <si>
-    <t>Sec 1 Non-Residential Outdoor Adventure Learning Camp</t>
-  </si>
-  <si>
-    <t>05 Apr 2022 01:50PM</t>
-  </si>
-  <si>
-    <t>RON LOW YAO MING</t>
-  </si>
-  <si>
-    <t>low_yao_ming@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>13 Serangoon Ave 3</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001607</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Primary 3 to 5 Oracy Programme in St. Gabriel's Primary school (SGPS) in 2022.</t>
-  </si>
-  <si>
-    <t>05 Apr 2022 12:50PM</t>
-  </si>
-  <si>
-    <t>MRS ISABELLA TAN</t>
-  </si>
-  <si>
-    <t>isabella_sim@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>220 Lorong Chuan, Singapore 556742.</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001597</t>
-  </si>
-  <si>
-    <t>Supply of Learning Journey for Sec 1 Students to Places of Worship for West Spring Secondary School</t>
-  </si>
-  <si>
     <t>05 Apr 2022 11:05AM</t>
   </si>
   <si>
-    <t>MS KOH HUI LI</t>
-  </si>
-  <si>
-    <t>Koh_hui_li@moe.edu.sg</t>
-  </si>
-  <si>
     <t>West Spring Secondary School, 61 Senja Road, Singapore 677737</t>
   </si>
   <si>
-    <t>FOR000ETQ22000017</t>
-  </si>
-  <si>
-    <t>To engage a suitable Training Agency to design and conduct a five-day online course on "Entrepreneurship and Start-Up Ecosystems" for up to four runs</t>
-  </si>
-  <si>
-    <t>NIGEL JERAD RAJOO</t>
-  </si>
-  <si>
-    <t>nigel_jerad_rajoo@mfa.gov.sg</t>
-  </si>
-  <si>
     <t>Tanglin, Singapore 248163</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001598</t>
-  </si>
-  <si>
-    <t>Provision of 3-Day Primary 5 Non-Residential Outdoor Adventure Camp 2022</t>
-  </si>
-  <si>
-    <t>Add to Cale ndar</t>
-  </si>
-  <si>
-    <t>MR FAHMY</t>
-  </si>
-  <si>
-    <t>muhammad_fahmy_abdul_rahman@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>31 Anchorvale Drive
-Singapore 544969</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001593</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Cohort Leadership Training for Secondary 1, 2 and 3 Students in Tampines Secondary School</t>
-  </si>
-  <si>
-    <t>MR JOHN NG</t>
-  </si>
-  <si>
-    <t>ng_lee_wei_john@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>252 Tampines Street 12 Singapore 529427</t>
   </si>
   <si>
     <t>MOESCHETQ22001587</t>
@@ -1067,12 +865,217 @@
   </si>
   <si>
     <t>june_ng_goh_suat_hong@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001729</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Provision of 3-Day Secondary 1 Outdoor Adventure Camp (Non-Residential) for West Spring Secondary School</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 02:35PM</t>
+  </si>
+  <si>
+    <t>21 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>MR FAURONI SUKHAIMI</t>
+  </si>
+  <si>
+    <t>nai_wee_beng@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001745</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001745 / AOR2022/161(DesignThinking_P4)</t>
+  </si>
+  <si>
+    <t>Instructors for Design Thinking Workshop for P4 Students in Yangzheng Pri School</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 02:19PM</t>
+  </si>
+  <si>
+    <t>MDM LASIME KUMARI</t>
+  </si>
+  <si>
+    <t>lasime_kumari@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>15 Serangoon Avenue 3, Singapore 556108</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001740</t>
+  </si>
+  <si>
+    <t>2 DAYS STUDENTS LEADERS' TRAINING PROGRAMME</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 09:20AM</t>
+  </si>
+  <si>
+    <t>MS LIAW HSIAO-MEIN</t>
+  </si>
+  <si>
+    <t>liaw_hsiao_mein@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>3 Yishun Ring Road
+S(768675)</t>
+  </si>
+  <si>
+    <t>HPB000ETQ22000010</t>
+  </si>
+  <si>
+    <t>INVITATION TO QUOTE (ITQ) FOR THE PROVISION OF SERVICES TO PROPOSE, DEVELOP AND DELIVER MENTAL HEALTH EXPERIENTIAL CRAFT WORKSHOPS</t>
+  </si>
+  <si>
+    <t>Health Promotion Board</t>
+  </si>
+  <si>
+    <t>KANG LEE LIN</t>
+  </si>
+  <si>
+    <t>KANG_Lee_Lin@hpb.gov.sg</t>
+  </si>
+  <si>
+    <t>Health Promotion Board 3 Second Hospital Avenue Singapore 168937</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001735</t>
+  </si>
+  <si>
+    <t>SUPPLY OF INSTRUCTORS FOR BAND INSTRUMENTAL PROGRAMME IN CRESCENT GIRLS SCHOOL  2022</t>
+  </si>
+  <si>
+    <t>11 Apr 2022 05:04PM</t>
+  </si>
+  <si>
+    <t>20 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>NORZAIDAH BINTE SUPARMAN</t>
+  </si>
+  <si>
+    <t>NORZAIDAH_SUPARMAN@CRESCENT.EDU.SG</t>
+  </si>
+  <si>
+    <t>CRESCENT GIRLS' SCHOOL</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001734</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001734 / MOESCHEAR22015582</t>
+  </si>
+  <si>
+    <t>Stamford Pri Sch - Supply of instructors for Design Thinking Project Coaching for Student Teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINCOLN SHEN </t>
+  </si>
+  <si>
+    <t>shen_pinhong@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>1 Victoria Lane
+Singapore 198423</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001722</t>
+  </si>
+  <si>
+    <t>Supply of Instructor for Student Leadership Challenge Programme for Student Leaders (2022)</t>
+  </si>
+  <si>
+    <t>11 Apr 2022 04:34PM</t>
+  </si>
+  <si>
+    <t>ALVIN LOH</t>
+  </si>
+  <si>
+    <t>loh_yongjie@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>St. Margaret's Secondary School
+111 Farrer Road
+Singapore 259240</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001716</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001716 / RIV_ITQ220024</t>
+  </si>
+  <si>
+    <t>RIVPS: SUPPLY OF INSTRUCTORS FOR P1AND P2 CHINESE SPEECH &amp; DRAMA ENRICHMENT PROGRAMME IN RIVERVALE PRIMARY SCHOOL</t>
+  </si>
+  <si>
+    <t>11 Apr 2022 04:04PM</t>
+  </si>
+  <si>
+    <t>RAN YIJUN</t>
+  </si>
+  <si>
+    <t>ran_yijun@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>80 RIVERVALE DRIVE
+SINGAPORE 545092</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001724</t>
+  </si>
+  <si>
+    <t>2 Days FALCONS Leadership Day Camp for Nan Chiau High School from 20-21 May 2022 (Non-residential)</t>
+  </si>
+  <si>
+    <t>MR AW SI KUAN</t>
+  </si>
+  <si>
+    <t>aw_si_kuan@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>20 Anchorvale Link, S(545079)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001720</t>
+  </si>
+  <si>
+    <t>The Provision of Blended/Face-To-Face Workshop on Standard First Aid (SFA) Course and Automated External Defibrillator (AED) Module</t>
+  </si>
+  <si>
+    <t>MR NEO ENG YEOW</t>
+  </si>
+  <si>
+    <t>neo_eng_yeow@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>Nan Hua Primary School
+30 Jalan Lempeng
+Singapore 128806</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001703</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Career Design Simulation Programme for Secondary 3 Students in Presbyterian High School</t>
+  </si>
+  <si>
+    <t>MRS FAITH CHEN</t>
+  </si>
+  <si>
+    <t>mai_xueling@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>Presbyterian High School, 5209 Ang Mo Kio Ave 6 Singapore 569845</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1304,7 +1307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1427,6 +1430,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1707,21 +1713,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A7BC6-4E87-4806-AC09-A14CCBAD7662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="35.7265625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="35.77734375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1735,210 +1741,210 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>313</v>
+        <v>247</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>315</v>
+        <v>249</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>317</v>
+        <v>251</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>319</v>
+        <v>253</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>321</v>
+        <v>255</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>323</v>
+        <v>257</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>325</v>
+        <v>259</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -1947,21 +1953,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39582A0F-F993-4278-A272-EAB12E1434D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="8.7265625" style="1"/>
-    <col min="14" max="14" width="14.81640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="13" width="8.77734375" style="1"/>
+    <col min="14" max="14" width="14.77734375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2005,586 +2011,589 @@
         <v>20</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>327</v>
+        <v>261</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L2" s="1">
+        <v>68920369</v>
+      </c>
+      <c r="M2" s="1">
+        <v>68929468</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1">
-        <v>63183053</v>
-      </c>
-      <c r="M2" s="1">
-        <v>63183050</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" s="29">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="L3" s="1">
-        <v>68700439</v>
+        <v>62846298</v>
       </c>
       <c r="M3" s="1">
-        <v>67731433</v>
+        <v>62879778</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="O3" s="29">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>279</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="L4" s="1">
-        <v>63443471</v>
+        <v>62579873</v>
       </c>
       <c r="M4" s="1">
-        <v>64409624</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>47</v>
+        <v>62574373</v>
+      </c>
+      <c r="N4" s="55" t="s">
+        <v>283</v>
       </c>
       <c r="O4" s="29">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>285</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="L5" s="1">
-        <v>64577783</v>
-      </c>
-      <c r="M5" s="1">
-        <v>64583284</v>
+        <v>64353273</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>53</v>
+        <v>289</v>
       </c>
       <c r="O5" s="29">
-        <v>368</v>
+        <v>57</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>291</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>56</v>
+        <v>292</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>59</v>
+        <v>295</v>
       </c>
       <c r="L6" s="1">
-        <v>93660591</v>
+        <v>64758711</v>
+      </c>
+      <c r="M6" s="1">
+        <v>64741248</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>60</v>
+        <v>296</v>
       </c>
       <c r="O6" s="29">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>297</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>292</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="L7" s="1">
-        <v>62824339</v>
+        <v>62945074</v>
       </c>
       <c r="M7" s="1">
-        <v>62823472</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>66</v>
+        <v>62919262</v>
+      </c>
+      <c r="N7" s="55" t="s">
+        <v>302</v>
       </c>
       <c r="O7" s="29">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>303</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>303</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>304</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>69</v>
+        <v>305</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>306</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>71</v>
+        <v>307</v>
       </c>
       <c r="L8" s="1">
-        <v>62803628</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>72</v>
+        <v>64664525</v>
+      </c>
+      <c r="M8" s="1">
+        <v>64666709</v>
+      </c>
+      <c r="N8" s="55" t="s">
+        <v>308</v>
       </c>
       <c r="O8" s="29">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>309</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>310</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>74</v>
+        <v>311</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="L9" s="1">
-        <v>68920369</v>
+        <v>63887450</v>
       </c>
       <c r="M9" s="1">
-        <v>68929468</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>78</v>
+        <v>63887449</v>
+      </c>
+      <c r="N9" s="55" t="s">
+        <v>315</v>
       </c>
       <c r="O9" s="29">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="L10" s="1">
-        <v>63798473</v>
+        <v>64897971</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="O10" s="29">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>321</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>321</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>322</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>86</v>
+        <v>293</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>87</v>
+        <v>323</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>88</v>
+        <v>324</v>
       </c>
       <c r="L11" s="1">
-        <v>68861356</v>
+        <v>67788050</v>
       </c>
       <c r="M11" s="1">
-        <v>63159825</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>89</v>
+        <v>67784127</v>
+      </c>
+      <c r="N11" s="55" t="s">
+        <v>325</v>
       </c>
       <c r="O11" s="29">
-        <v>244</v>
+        <v>70</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>326</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>326</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>91</v>
+        <v>327</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="L12" s="1">
-        <v>67835423</v>
+        <v>64543722</v>
       </c>
       <c r="M12" s="1">
-        <v>67843059</v>
+        <v>64543430</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>94</v>
+        <v>330</v>
       </c>
       <c r="O12" s="29">
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="L13" s="1">
         <v>65637173</v>
@@ -2593,95 +2602,95 @@
         <v>65693028</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="O13" s="29">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="O14" s="29">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="L15" s="1">
         <v>64897851</v>
@@ -2689,49 +2698,49 @@
       <c r="M15" s="1">
         <v>64897859</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>111</v>
+      <c r="N15" s="55" t="s">
+        <v>45</v>
       </c>
       <c r="O15" s="29">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="L16" s="1">
         <v>62885633</v>
@@ -2740,48 +2749,48 @@
         <v>62830113</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="O16" s="29">
-        <v>102</v>
+        <v>345</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="L17" s="1">
         <v>67819002</v>
@@ -2790,48 +2799,48 @@
         <v>67845054</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="O17" s="29">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="L18" s="1">
         <v>65827864</v>
@@ -2840,48 +2849,48 @@
         <v>65822543</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="O18" s="29">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="L19" s="1">
         <v>68767129</v>
@@ -2889,49 +2898,49 @@
       <c r="M19" s="1">
         <v>67557748</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>132</v>
+      <c r="N19" s="55" t="s">
+        <v>66</v>
       </c>
       <c r="O19" s="29">
-        <v>236</v>
+        <v>318</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="L20" s="1">
         <v>63440929</v>
@@ -2939,96 +2948,96 @@
       <c r="M20" s="1">
         <v>63445152</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>138</v>
+      <c r="N20" s="55" t="s">
+        <v>72</v>
       </c>
       <c r="O20" s="29">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="L21" s="1">
         <v>67788431</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="O21" s="29">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="L22" s="1">
         <v>67566760</v>
@@ -3036,237 +3045,237 @@
       <c r="M22" s="1">
         <v>67585380</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>148</v>
+      <c r="N22" s="55" t="s">
+        <v>82</v>
       </c>
       <c r="O22" s="29">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="L23" s="1">
         <v>65936851</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>153</v>
+      <c r="N23" s="55" t="s">
+        <v>87</v>
       </c>
       <c r="O23" s="29">
-        <v>310</v>
+        <v>111</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="L24" s="1">
         <v>69089136</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="O24" s="29">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="L25" s="1">
         <v>63450533</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>153</v>
+      <c r="N25" s="55" t="s">
+        <v>87</v>
       </c>
       <c r="O25" s="29">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="L26" s="1">
         <v>62593811</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="O26" s="29">
-        <v>136</v>
+        <v>369</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="L27" s="1">
         <v>62410417</v>
@@ -3274,96 +3283,96 @@
       <c r="M27" s="1">
         <v>64493042</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>169</v>
+      <c r="N27" s="55" t="s">
+        <v>103</v>
       </c>
       <c r="O27" s="29">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="O28" s="29">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="L29" s="1">
         <v>65701588</v>
@@ -3372,48 +3381,48 @@
         <v>65703680</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="O29" s="29">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="L30" s="1">
         <v>64775777</v>
@@ -3422,48 +3431,48 @@
         <v>64775700</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="O30" s="29">
-        <v>149</v>
+        <v>318</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="L31" s="1">
         <v>65661980</v>
@@ -3471,190 +3480,190 @@
       <c r="M31" s="1">
         <v>65635015</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>189</v>
+      <c r="N31" s="55" t="s">
+        <v>123</v>
       </c>
       <c r="O31" s="29">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="L32" s="1">
         <v>64485011</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O32" s="29">
         <v>194</v>
       </c>
-      <c r="O32" s="29">
-        <v>191</v>
-      </c>
       <c r="P32" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="L33" s="1">
         <v>67697176</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="O33" s="29">
-        <v>175</v>
+        <v>279</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="L34" s="1">
         <v>63441393</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>206</v>
+      <c r="N34" s="55" t="s">
+        <v>140</v>
       </c>
       <c r="O34" s="29">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="L35" s="1">
         <v>67676750</v>
@@ -3663,48 +3672,48 @@
         <v>67676751</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="O35" s="29">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="L36" s="1">
         <v>62816606</v>
@@ -3712,49 +3721,49 @@
       <c r="M36" s="1">
         <v>63820558</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>216</v>
+      <c r="N36" s="55" t="s">
+        <v>150</v>
       </c>
       <c r="O36" s="29">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="L37" s="1">
         <v>65634568</v>
@@ -3763,48 +3772,48 @@
         <v>65634505</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="O37" s="29">
-        <v>169</v>
+        <v>368</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="L38" s="1">
         <v>67639455</v>
@@ -3813,48 +3822,48 @@
         <v>67633577</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="O38" s="29">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="L39" s="1">
         <v>62698832</v>
@@ -3862,49 +3871,49 @@
       <c r="M39" s="1">
         <v>63575516</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>232</v>
+      <c r="N39" s="55" t="s">
+        <v>166</v>
       </c>
       <c r="O39" s="29">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="L40" s="1">
         <v>62889470</v>
@@ -3912,96 +3921,96 @@
       <c r="M40" s="1">
         <v>62898615</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>237</v>
+      <c r="N40" s="55" t="s">
+        <v>171</v>
       </c>
       <c r="O40" s="29">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="L41" s="1">
         <v>67932039</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="O41" s="29">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="L42" s="1">
         <v>65729100</v>
@@ -4010,48 +4019,48 @@
         <v>67636560</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="O42" s="29">
-        <v>395</v>
+        <v>127</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="L43" s="1">
         <v>64741421</v>
@@ -4060,48 +4069,48 @@
         <v>64741302</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="O43" s="29">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J44" s="28" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="L44" s="1">
         <v>64741421</v>
@@ -4110,95 +4119,95 @@
         <v>64741302</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="O44" s="29">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="L45" s="1">
         <v>67697176</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="O45" s="29">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="L46" s="1">
         <v>63683925</v>
@@ -4207,48 +4216,48 @@
         <v>63670117</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="O46" s="29">
-        <v>396</v>
+        <v>107</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="L47" s="1">
         <v>62835413</v>
@@ -4257,95 +4266,95 @@
         <v>62823882</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="O47" s="29">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="L48" s="1">
         <v>68319636</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="O48" s="29">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="L49" s="1">
         <v>64428307</v>
@@ -4354,13 +4363,13 @@
         <v>64435973</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="O49" s="29">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>329</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4369,21 +4378,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5E9977-255A-404F-9037-914CC69CEAF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="8.7265625" style="1"/>
-    <col min="14" max="14" width="14.81640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="13" width="8.77734375" style="1"/>
+    <col min="14" max="14" width="14.77734375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -4427,1037 +4436,2383 @@
         <v>20</v>
       </c>
       <c r="O1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L2">
+        <v>68920369</v>
+      </c>
+      <c r="M2">
+        <v>68929468</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L3">
+        <v>62846298</v>
+      </c>
+      <c r="M3">
+        <v>62879778</v>
+      </c>
+      <c r="N3" t="s">
+        <v>277</v>
+      </c>
+      <c r="O3">
+        <v>105</v>
+      </c>
+      <c r="P3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>281</v>
+      </c>
+      <c r="K4" t="s">
+        <v>282</v>
+      </c>
+      <c r="L4">
+        <v>62579873</v>
+      </c>
+      <c r="M4">
+        <v>62574373</v>
+      </c>
+      <c r="N4" t="s">
+        <v>283</v>
+      </c>
+      <c r="O4">
+        <v>132</v>
+      </c>
+      <c r="P4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K5" t="s">
+        <v>288</v>
+      </c>
+      <c r="L5">
+        <v>64353273</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>289</v>
+      </c>
+      <c r="O5">
+        <v>57</v>
+      </c>
+      <c r="P5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>294</v>
+      </c>
+      <c r="K6" t="s">
+        <v>295</v>
+      </c>
+      <c r="L6">
+        <v>64758711</v>
+      </c>
+      <c r="M6">
+        <v>64741248</v>
+      </c>
+      <c r="N6" t="s">
+        <v>296</v>
+      </c>
+      <c r="O6">
+        <v>284</v>
+      </c>
+      <c r="P6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" t="s">
+        <v>293</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L7">
+        <v>62945074</v>
+      </c>
+      <c r="M7">
+        <v>62919262</v>
+      </c>
+      <c r="N7" t="s">
+        <v>302</v>
+      </c>
+      <c r="O7">
+        <v>390</v>
+      </c>
+      <c r="P7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>306</v>
+      </c>
+      <c r="K8" t="s">
+        <v>307</v>
+      </c>
+      <c r="L8">
+        <v>64664525</v>
+      </c>
+      <c r="M8">
+        <v>64666709</v>
+      </c>
+      <c r="N8" t="s">
+        <v>308</v>
+      </c>
+      <c r="O8">
+        <v>36</v>
+      </c>
+      <c r="P8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>312</v>
+      </c>
+      <c r="H9" t="s">
+        <v>293</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>313</v>
+      </c>
+      <c r="K9" t="s">
+        <v>314</v>
+      </c>
+      <c r="L9">
+        <v>63887450</v>
+      </c>
+      <c r="M9">
+        <v>63887449</v>
+      </c>
+      <c r="N9" t="s">
+        <v>315</v>
+      </c>
+      <c r="O9">
+        <v>295</v>
+      </c>
+      <c r="P9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H10" t="s">
+        <v>293</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>318</v>
+      </c>
+      <c r="K10" t="s">
+        <v>319</v>
+      </c>
+      <c r="L10">
+        <v>64897971</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10" t="s">
+        <v>320</v>
+      </c>
+      <c r="O10">
+        <v>305</v>
+      </c>
+      <c r="P10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>312</v>
+      </c>
+      <c r="H11" t="s">
+        <v>293</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K11" t="s">
+        <v>324</v>
+      </c>
+      <c r="L11">
+        <v>67788050</v>
+      </c>
+      <c r="M11">
+        <v>67784127</v>
+      </c>
+      <c r="N11" t="s">
+        <v>325</v>
+      </c>
+      <c r="O11">
+        <v>70</v>
+      </c>
+      <c r="P11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
         <v>327</v>
       </c>
-      <c r="P1" t="s">
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H12" t="s">
+        <v>293</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="K12" t="s">
+        <v>329</v>
+      </c>
+      <c r="L12">
+        <v>64543722</v>
+      </c>
+      <c r="M12">
+        <v>64543430</v>
+      </c>
+      <c r="N12" t="s">
+        <v>330</v>
+      </c>
+      <c r="O12">
+        <v>161</v>
+      </c>
+      <c r="P12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13">
+        <v>65637173</v>
+      </c>
+      <c r="M13">
+        <v>65693028</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13">
+        <v>354</v>
+      </c>
+      <c r="P13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14">
+        <v>72</v>
+      </c>
+      <c r="P14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15">
+        <v>64897851</v>
+      </c>
+      <c r="M15">
+        <v>64897859</v>
+      </c>
+      <c r="N15" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="O15">
+        <v>222</v>
+      </c>
+      <c r="P15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <v>62885633</v>
+      </c>
+      <c r="M16">
+        <v>62830113</v>
+      </c>
+      <c r="N16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16">
+        <v>345</v>
+      </c>
+      <c r="P16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17">
+        <v>67819002</v>
+      </c>
+      <c r="M17">
+        <v>67845054</v>
+      </c>
+      <c r="N17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17">
+        <v>197</v>
+      </c>
+      <c r="P17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
+        <v>264</v>
+      </c>
+      <c r="L18">
+        <v>65827864</v>
+      </c>
+      <c r="M18">
+        <v>65822543</v>
+      </c>
+      <c r="N18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18">
+        <v>151</v>
+      </c>
+      <c r="P18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19">
+        <v>68767129</v>
+      </c>
+      <c r="M19">
+        <v>67557748</v>
+      </c>
+      <c r="N19" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19">
+        <v>318</v>
+      </c>
+      <c r="P19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20">
+        <v>63440929</v>
+      </c>
+      <c r="M20">
+        <v>63445152</v>
+      </c>
+      <c r="N20" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20">
+        <v>131</v>
+      </c>
+      <c r="P20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21">
+        <v>67788431</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21">
+        <v>257</v>
+      </c>
+      <c r="P21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22">
+        <v>67566760</v>
+      </c>
+      <c r="M22">
+        <v>67585380</v>
+      </c>
+      <c r="N22" t="s">
+        <v>82</v>
+      </c>
+      <c r="O22">
+        <v>224</v>
+      </c>
+      <c r="P22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23">
+        <v>65936851</v>
+      </c>
+      <c r="M23"/>
+      <c r="N23" t="s">
+        <v>87</v>
+      </c>
+      <c r="O23">
+        <v>111</v>
+      </c>
+      <c r="P23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24">
+        <v>69089136</v>
+      </c>
+      <c r="M24"/>
+      <c r="N24" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24">
+        <v>161</v>
+      </c>
+      <c r="P24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25">
+        <v>63450533</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25" t="s">
+        <v>87</v>
+      </c>
+      <c r="O25">
+        <v>39</v>
+      </c>
+      <c r="P25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26">
+        <v>62593811</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26" t="s">
+        <v>98</v>
+      </c>
+      <c r="O26">
+        <v>369</v>
+      </c>
+      <c r="P26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" t="s">
+        <v>102</v>
+      </c>
+      <c r="L27">
+        <v>62410417</v>
+      </c>
+      <c r="M27">
+        <v>64493042</v>
+      </c>
+      <c r="N27" t="s">
+        <v>103</v>
+      </c>
+      <c r="O27">
+        <v>154</v>
+      </c>
+      <c r="P27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K2" t="s">
-        <v>264</v>
-      </c>
-      <c r="L2">
+      <c r="O28">
+        <v>79</v>
+      </c>
+      <c r="P28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29">
+        <v>65701588</v>
+      </c>
+      <c r="M29">
+        <v>65703680</v>
+      </c>
+      <c r="N29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O29">
+        <v>300</v>
+      </c>
+      <c r="P29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30">
+        <v>64775777</v>
+      </c>
+      <c r="M30">
+        <v>64775700</v>
+      </c>
+      <c r="N30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O30">
+        <v>318</v>
+      </c>
+      <c r="P30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>121</v>
+      </c>
+      <c r="K31" t="s">
+        <v>122</v>
+      </c>
+      <c r="L31">
+        <v>65661980</v>
+      </c>
+      <c r="M31">
+        <v>65635015</v>
+      </c>
+      <c r="N31" t="s">
+        <v>123</v>
+      </c>
+      <c r="O31">
+        <v>394</v>
+      </c>
+      <c r="P31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" t="s">
+        <v>127</v>
+      </c>
+      <c r="L32">
+        <v>64485011</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32" t="s">
+        <v>128</v>
+      </c>
+      <c r="O32">
+        <v>194</v>
+      </c>
+      <c r="P32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" t="s">
+        <v>132</v>
+      </c>
+      <c r="L33">
+        <v>67697176</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33" t="s">
+        <v>133</v>
+      </c>
+      <c r="O33">
+        <v>279</v>
+      </c>
+      <c r="P33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" t="s">
+        <v>139</v>
+      </c>
+      <c r="L34">
+        <v>63441393</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34" t="s">
+        <v>140</v>
+      </c>
+      <c r="O34">
+        <v>252</v>
+      </c>
+      <c r="P34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>137</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" t="s">
+        <v>144</v>
+      </c>
+      <c r="L35">
+        <v>67676750</v>
+      </c>
+      <c r="M35">
+        <v>67676751</v>
+      </c>
+      <c r="N35" t="s">
+        <v>145</v>
+      </c>
+      <c r="O35">
+        <v>267</v>
+      </c>
+      <c r="P35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>137</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>148</v>
+      </c>
+      <c r="K36" t="s">
+        <v>149</v>
+      </c>
+      <c r="L36">
+        <v>62816606</v>
+      </c>
+      <c r="M36">
+        <v>63820558</v>
+      </c>
+      <c r="N36" t="s">
+        <v>150</v>
+      </c>
+      <c r="O36">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>137</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>153</v>
+      </c>
+      <c r="K37" t="s">
+        <v>154</v>
+      </c>
+      <c r="L37">
+        <v>65634568</v>
+      </c>
+      <c r="M37">
+        <v>65634505</v>
+      </c>
+      <c r="N37" t="s">
+        <v>155</v>
+      </c>
+      <c r="O37">
+        <v>368</v>
+      </c>
+      <c r="P37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
+        <v>158</v>
+      </c>
+      <c r="K38" t="s">
+        <v>159</v>
+      </c>
+      <c r="L38">
+        <v>67639455</v>
+      </c>
+      <c r="M38">
+        <v>67633577</v>
+      </c>
+      <c r="N38" t="s">
+        <v>160</v>
+      </c>
+      <c r="O38">
+        <v>259</v>
+      </c>
+      <c r="P38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>164</v>
+      </c>
+      <c r="K39" t="s">
+        <v>165</v>
+      </c>
+      <c r="L39">
+        <v>62698832</v>
+      </c>
+      <c r="M39">
+        <v>63575516</v>
+      </c>
+      <c r="N39" t="s">
+        <v>166</v>
+      </c>
+      <c r="O39">
+        <v>297</v>
+      </c>
+      <c r="P39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>137</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" t="s">
+        <v>169</v>
+      </c>
+      <c r="K40" t="s">
+        <v>170</v>
+      </c>
+      <c r="L40">
+        <v>62889470</v>
+      </c>
+      <c r="M40">
+        <v>62898615</v>
+      </c>
+      <c r="N40" t="s">
+        <v>171</v>
+      </c>
+      <c r="O40">
+        <v>366</v>
+      </c>
+      <c r="P40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>175</v>
+      </c>
+      <c r="K41" t="s">
+        <v>176</v>
+      </c>
+      <c r="L41">
+        <v>67932039</v>
+      </c>
+      <c r="M41"/>
+      <c r="N41" t="s">
+        <v>177</v>
+      </c>
+      <c r="O41">
+        <v>82</v>
+      </c>
+      <c r="P41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>180</v>
+      </c>
+      <c r="K42" t="s">
+        <v>181</v>
+      </c>
+      <c r="L42">
+        <v>65729100</v>
+      </c>
+      <c r="M42">
+        <v>67636560</v>
+      </c>
+      <c r="N42" t="s">
+        <v>182</v>
+      </c>
+      <c r="O42">
+        <v>127</v>
+      </c>
+      <c r="P42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>174</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>185</v>
+      </c>
+      <c r="K43" t="s">
+        <v>186</v>
+      </c>
+      <c r="L43">
+        <v>64741421</v>
+      </c>
+      <c r="M43">
+        <v>64741302</v>
+      </c>
+      <c r="N43" t="s">
+        <v>187</v>
+      </c>
+      <c r="O43">
+        <v>34</v>
+      </c>
+      <c r="P43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
+        <v>185</v>
+      </c>
+      <c r="K44" t="s">
+        <v>186</v>
+      </c>
+      <c r="L44">
+        <v>64741421</v>
+      </c>
+      <c r="M44">
+        <v>64741302</v>
+      </c>
+      <c r="N44" t="s">
+        <v>190</v>
+      </c>
+      <c r="O44">
+        <v>305</v>
+      </c>
+      <c r="P44" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>174</v>
+      </c>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>193</v>
+      </c>
+      <c r="K45" t="s">
+        <v>194</v>
+      </c>
+      <c r="L45">
+        <v>67697176</v>
+      </c>
+      <c r="M45"/>
+      <c r="N45" t="s">
+        <v>133</v>
+      </c>
+      <c r="O45">
+        <v>77</v>
+      </c>
+      <c r="P45" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>174</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>197</v>
+      </c>
+      <c r="K46" t="s">
+        <v>198</v>
+      </c>
+      <c r="L46">
         <v>63683925</v>
       </c>
-      <c r="M2">
+      <c r="M46">
         <v>63670117</v>
       </c>
-      <c r="N2" t="s">
-        <v>265</v>
-      </c>
-      <c r="O2">
-        <v>396</v>
-      </c>
-      <c r="P2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K3" t="s">
-        <v>247</v>
-      </c>
-      <c r="L3">
-        <v>65729100</v>
-      </c>
-      <c r="M3">
-        <v>67636560</v>
-      </c>
-      <c r="N3" t="s">
-        <v>248</v>
-      </c>
-      <c r="O3">
-        <v>395</v>
-      </c>
-      <c r="P3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>230</v>
-      </c>
-      <c r="K4" t="s">
-        <v>231</v>
-      </c>
-      <c r="L4">
-        <v>62698832</v>
-      </c>
-      <c r="M4">
-        <v>63575516</v>
-      </c>
-      <c r="N4" t="s">
-        <v>232</v>
-      </c>
-      <c r="O4">
-        <v>370</v>
-      </c>
-      <c r="P4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5">
-        <v>62824339</v>
-      </c>
-      <c r="M5">
-        <v>62823472</v>
-      </c>
-      <c r="N5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5">
-        <v>369</v>
-      </c>
-      <c r="P5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="N46" t="s">
+        <v>199</v>
+      </c>
+      <c r="O46">
+        <v>107</v>
+      </c>
+      <c r="P46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>174</v>
+      </c>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
+        <v>202</v>
+      </c>
+      <c r="K47" t="s">
+        <v>203</v>
+      </c>
+      <c r="L47">
+        <v>62835413</v>
+      </c>
+      <c r="M47">
+        <v>62823882</v>
+      </c>
+      <c r="N47" t="s">
+        <v>204</v>
+      </c>
+      <c r="O47">
+        <v>212</v>
+      </c>
+      <c r="P47" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>209</v>
+      </c>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" t="s">
+        <v>210</v>
+      </c>
+      <c r="K48" t="s">
+        <v>211</v>
+      </c>
+      <c r="L48">
+        <v>68319636</v>
+      </c>
+      <c r="M48"/>
+      <c r="N48" t="s">
+        <v>212</v>
+      </c>
+      <c r="O48">
+        <v>219</v>
+      </c>
+      <c r="P48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6">
-        <v>64577783</v>
-      </c>
-      <c r="M6">
-        <v>64583284</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6">
-        <v>368</v>
-      </c>
-      <c r="P6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>214</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>215</v>
+      </c>
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" t="s">
+        <v>216</v>
+      </c>
+      <c r="K49" t="s">
+        <v>217</v>
+      </c>
+      <c r="L49">
+        <v>64428307</v>
+      </c>
+      <c r="M49">
+        <v>64435973</v>
+      </c>
+      <c r="N49" t="s">
+        <v>218</v>
+      </c>
+      <c r="O49">
+        <v>290</v>
+      </c>
+      <c r="P49" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -5475,7 +6830,7 @@
       <c r="O50"/>
       <c r="P50"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -5493,7 +6848,7 @@
       <c r="O51"/>
       <c r="P51"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -5511,7 +6866,7 @@
       <c r="O52"/>
       <c r="P52"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -5529,7 +6884,7 @@
       <c r="O53"/>
       <c r="P53"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -5547,7 +6902,7 @@
       <c r="O54"/>
       <c r="P54"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -5565,7 +6920,7 @@
       <c r="O55"/>
       <c r="P55"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -5583,7 +6938,7 @@
       <c r="O56"/>
       <c r="P56"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -5601,7 +6956,7 @@
       <c r="O57"/>
       <c r="P57"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -5619,7 +6974,7 @@
       <c r="O58"/>
       <c r="P58"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -5637,7 +6992,7 @@
       <c r="O59"/>
       <c r="P59"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -5655,7 +7010,7 @@
       <c r="O60"/>
       <c r="P60"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -5673,7 +7028,7 @@
       <c r="O61"/>
       <c r="P61"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -5691,7 +7046,7 @@
       <c r="O62"/>
       <c r="P62"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -5709,7 +7064,7 @@
       <c r="O63"/>
       <c r="P63"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -5727,7 +7082,7 @@
       <c r="O64"/>
       <c r="P64"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -5745,7 +7100,7 @@
       <c r="O65"/>
       <c r="P65"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -5763,7 +7118,7 @@
       <c r="O66"/>
       <c r="P66"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -5781,7 +7136,7 @@
       <c r="O67"/>
       <c r="P67"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -5799,7 +7154,7 @@
       <c r="O68"/>
       <c r="P68"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -5817,7 +7172,7 @@
       <c r="O69"/>
       <c r="P69"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -5835,7 +7190,7 @@
       <c r="O70"/>
       <c r="P70"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -5853,7 +7208,7 @@
       <c r="O71"/>
       <c r="P71"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -5871,7 +7226,7 @@
       <c r="O72"/>
       <c r="P72"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -5889,7 +7244,7 @@
       <c r="O73"/>
       <c r="P73"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -5907,7 +7262,7 @@
       <c r="O74"/>
       <c r="P74"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -5925,7 +7280,7 @@
       <c r="O75"/>
       <c r="P75"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -5943,7 +7298,7 @@
       <c r="O76"/>
       <c r="P76"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -5961,7 +7316,7 @@
       <c r="O77"/>
       <c r="P77"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -5979,7 +7334,7 @@
       <c r="O78"/>
       <c r="P78"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -5997,7 +7352,7 @@
       <c r="O79"/>
       <c r="P79"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -6015,7 +7370,7 @@
       <c r="O80"/>
       <c r="P80"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -6033,7 +7388,7 @@
       <c r="O81"/>
       <c r="P81"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -6051,7 +7406,7 @@
       <c r="O82"/>
       <c r="P82"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -6069,7 +7424,7 @@
       <c r="O83"/>
       <c r="P83"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -6087,7 +7442,7 @@
       <c r="O84"/>
       <c r="P84"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -6105,7 +7460,7 @@
       <c r="O85"/>
       <c r="P85"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -6123,7 +7478,7 @@
       <c r="O86"/>
       <c r="P86"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -6141,7 +7496,7 @@
       <c r="O87"/>
       <c r="P87"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -6159,7 +7514,7 @@
       <c r="O88"/>
       <c r="P88"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -6177,7 +7532,7 @@
       <c r="O89"/>
       <c r="P89"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -6195,7 +7550,7 @@
       <c r="O90"/>
       <c r="P90"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -6213,7 +7568,7 @@
       <c r="O91"/>
       <c r="P91"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -6231,7 +7586,7 @@
       <c r="O92"/>
       <c r="P92"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -6249,7 +7604,7 @@
       <c r="O93"/>
       <c r="P93"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -6267,7 +7622,7 @@
       <c r="O94"/>
       <c r="P94"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -6285,7 +7640,7 @@
       <c r="O95"/>
       <c r="P95"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -6303,7 +7658,7 @@
       <c r="O96"/>
       <c r="P96"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -6321,7 +7676,7 @@
       <c r="O97"/>
       <c r="P97"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -6339,7 +7694,7 @@
       <c r="O98"/>
       <c r="P98"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -6357,7 +7712,7 @@
       <c r="O99"/>
       <c r="P99"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -6375,7 +7730,7 @@
       <c r="O100"/>
       <c r="P100"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -6393,7 +7748,7 @@
       <c r="O101"/>
       <c r="P101"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -6411,7 +7766,7 @@
       <c r="O102"/>
       <c r="P102"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -6429,7 +7784,7 @@
       <c r="O103"/>
       <c r="P103"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -6447,7 +7802,7 @@
       <c r="O104"/>
       <c r="P104"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -6465,7 +7820,7 @@
       <c r="O105"/>
       <c r="P105"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -6483,7 +7838,7 @@
       <c r="O106"/>
       <c r="P106"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -6501,7 +7856,7 @@
       <c r="O107"/>
       <c r="P107"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -6519,7 +7874,7 @@
       <c r="O108"/>
       <c r="P108"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -6537,7 +7892,7 @@
       <c r="O109"/>
       <c r="P109"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -6555,7 +7910,7 @@
       <c r="O110"/>
       <c r="P110"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -6573,7 +7928,7 @@
       <c r="O111"/>
       <c r="P111"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -6591,7 +7946,7 @@
       <c r="O112"/>
       <c r="P112"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -6609,7 +7964,7 @@
       <c r="O113"/>
       <c r="P113"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -6627,7 +7982,7 @@
       <c r="O114"/>
       <c r="P114"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -6645,7 +8000,7 @@
       <c r="O115"/>
       <c r="P115"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -6663,7 +8018,7 @@
       <c r="O116"/>
       <c r="P116"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -6681,7 +8036,7 @@
       <c r="O117"/>
       <c r="P117"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -6699,7 +8054,7 @@
       <c r="O118"/>
       <c r="P118"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -6717,7 +8072,7 @@
       <c r="O119"/>
       <c r="P119"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -6735,7 +8090,7 @@
       <c r="O120"/>
       <c r="P120"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -6753,7 +8108,7 @@
       <c r="O121"/>
       <c r="P121"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -6771,7 +8126,7 @@
       <c r="O122"/>
       <c r="P122"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -6789,7 +8144,7 @@
       <c r="O123"/>
       <c r="P123"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -6807,7 +8162,7 @@
       <c r="O124"/>
       <c r="P124"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -6825,7 +8180,7 @@
       <c r="O125"/>
       <c r="P125"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -6843,7 +8198,7 @@
       <c r="O126"/>
       <c r="P126"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -6861,7 +8216,7 @@
       <c r="O127"/>
       <c r="P127"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -6879,7 +8234,7 @@
       <c r="O128"/>
       <c r="P128"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -6897,7 +8252,7 @@
       <c r="O129"/>
       <c r="P129"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -6915,7 +8270,7 @@
       <c r="O130"/>
       <c r="P130"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -6933,7 +8288,7 @@
       <c r="O131"/>
       <c r="P131"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -6941,7 +8296,7 @@
       <c r="E132"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P132">
+  <sortState ref="A2:P132">
     <sortCondition descending="1" ref="O1:O132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6949,19 +8304,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.08984375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="46" x14ac:dyDescent="1">
+    <row r="2" spans="2:15" ht="46.2" x14ac:dyDescent="0.85">
       <c r="B2" s="41" t="s">
         <v>4</v>
       </c>
@@ -6979,7 +8334,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="4" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="46" t="s">
         <v>3</v>
       </c>
@@ -6996,7 +8351,7 @@
       <c r="K4" s="53"/>
       <c r="L4" s="54"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -7007,7 +8362,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
@@ -7018,7 +8373,7 @@
       <c r="K7" s="20"/>
       <c r="L7" s="21"/>
     </row>
-    <row r="8" spans="2:15" ht="46" x14ac:dyDescent="1">
+    <row r="8" spans="2:15" ht="46.2" x14ac:dyDescent="0.85">
       <c r="B8" s="6"/>
       <c r="C8" s="9">
         <f>COUNT(OpenBids!A:A)</f>
@@ -7038,7 +8393,7 @@
       </c>
       <c r="L8" s="21"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -7049,7 +8404,7 @@
       <c r="K9" s="20"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
@@ -7060,14 +8415,14 @@
       <c r="K10" s="24"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B13" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="51"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
         <v>6</v>
       </c>
@@ -7088,19 +8443,19 @@
       </c>
       <c r="L14" s="44"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="30">
         <f>'Top5'!A2</f>
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C15" s="31" t="str">
         <f>'Top5'!C2</f>
-        <v>MOESCHETQ22001492</v>
+        <v>MOESCHETQ22001729</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="38" t="str">
         <f>'Top5'!E2</f>
-        <v>Supply of Instructors for Malay Language (ML) Speech and Drama Programme</v>
+        <v>Supply of Instructors for Provision of 3-Day Secondary 1 Outdoor Adventure Camp (Non-Residential) for West Spring Secondary School</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -7109,23 +8464,23 @@
       <c r="J15" s="40"/>
       <c r="K15" s="34" t="str">
         <f>'Top5'!H2</f>
-        <v>07 Apr 2022 01:00PM</v>
+        <v>21 Apr 2022 01:00PM</v>
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="30">
         <f>'Top5'!A3</f>
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C16" s="31" t="str">
         <f>'Top5'!C3</f>
-        <v>MOESCHETQ22001514</v>
+        <v>MOESCHETQ22001745 / AOR2022/161(DesignThinking_P4)</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="38" t="str">
         <f>'Top5'!E3</f>
-        <v>Leadership Development Programme for Education Officers (EOs)</v>
+        <v>Instructors for Design Thinking Workshop for P4 Students in Yangzheng Pri School</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -7134,23 +8489,23 @@
       <c r="J16" s="40"/>
       <c r="K16" s="34" t="str">
         <f>'Top5'!H3</f>
-        <v>12 Apr 2022 01:00PM</v>
+        <v>21 Apr 2022 01:00PM</v>
       </c>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="30">
         <f>'Top5'!A4</f>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C17" s="31" t="str">
         <f>'Top5'!C4</f>
-        <v>MOESCHETQ22001511 / 1161/PE/22/003</v>
+        <v>MOESCHETQ22001740</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="38" t="str">
         <f>'Top5'!E4</f>
-        <v>Supply of Instructors for 1-day Primary 3 Friendship Camp 2022</v>
+        <v>2 DAYS STUDENTS LEADERS' TRAINING PROGRAMME</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -7159,23 +8514,23 @@
       <c r="J17" s="40"/>
       <c r="K17" s="34" t="str">
         <f>'Top5'!H4</f>
-        <v>12 Apr 2022 01:00PM</v>
+        <v>21 Apr 2022 01:00PM</v>
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="30">
         <f>'Top5'!A5</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" s="31" t="str">
         <f>'Top5'!C5</f>
-        <v>MOESCHETQ22001596</v>
+        <v>HPB000ETQ22000010</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="38" t="str">
         <f>'Top5'!E5</f>
-        <v>Sec 1 Non-Residential Outdoor Adventure Learning Camp</v>
+        <v>INVITATION TO QUOTE (ITQ) FOR THE PROVISION OF SERVICES TO PROPOSE, DEVELOP AND DELIVER MENTAL HEALTH EXPERIENTIAL CRAFT WORKSHOPS</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
@@ -7184,23 +8539,23 @@
       <c r="J18" s="40"/>
       <c r="K18" s="34" t="str">
         <f>'Top5'!H5</f>
-        <v>13 Apr 2022 01:00PM</v>
+        <v>21 Apr 2022 01:00PM</v>
       </c>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="30">
         <f>'Top5'!A6</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="31" t="str">
         <f>'Top5'!C6</f>
-        <v>MOESCHETQ22001612</v>
+        <v>MOESCHETQ22001735</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="35" t="str">
         <f>'Top5'!E6</f>
-        <v>EL Journalism and Broadcasting Workshop 2022 for Sec 2 Cohort</v>
+        <v>SUPPLY OF INSTRUCTORS FOR BAND INSTRUMENTAL PROGRAMME IN CRESCENT GIRLS SCHOOL  2022</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
@@ -7209,11 +8564,11 @@
       <c r="J19" s="37"/>
       <c r="K19" s="34" t="str">
         <f>'Top5'!H6</f>
-        <v>13 Apr 2022 01:00PM</v>
+        <v>20 Apr 2022 01:00PM</v>
       </c>
       <c r="L19" s="32"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>

--- a/output/Bids.xlsx
+++ b/output/Bids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\UiPath\sct9-diamond-proj1\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FF38B7-214C-4BC1-9DBC-AF5B7415EF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF774D2B-6844-4A5A-BFD2-C9E41EAB976E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="331">
   <si>
     <t>Quote</t>
   </si>
@@ -2060,7 +2060,7 @@
         <v>27</v>
       </c>
       <c r="O2" s="29">
-        <v>394</v>
+        <v>271</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>255</v>
@@ -2110,7 +2110,7 @@
         <v>269</v>
       </c>
       <c r="O3" s="29">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>255</v>
@@ -2160,7 +2160,7 @@
         <v>275</v>
       </c>
       <c r="O4" s="29">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>255</v>
@@ -2207,7 +2207,7 @@
         <v>281</v>
       </c>
       <c r="O5" s="29">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>255</v>
@@ -2257,7 +2257,7 @@
         <v>288</v>
       </c>
       <c r="O6" s="29">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>255</v>
@@ -2307,7 +2307,7 @@
         <v>294</v>
       </c>
       <c r="O7" s="29">
-        <v>213</v>
+        <v>365</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>255</v>
@@ -2357,7 +2357,7 @@
         <v>300</v>
       </c>
       <c r="O8" s="29">
-        <v>344</v>
+        <v>89</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>255</v>
@@ -2407,7 +2407,7 @@
         <v>307</v>
       </c>
       <c r="O9" s="29">
-        <v>160</v>
+        <v>368</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>255</v>
@@ -2454,7 +2454,7 @@
         <v>312</v>
       </c>
       <c r="O10" s="29">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>255</v>
@@ -2504,7 +2504,7 @@
         <v>317</v>
       </c>
       <c r="O11" s="29">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>255</v>
@@ -2554,7 +2554,7 @@
         <v>322</v>
       </c>
       <c r="O12" s="29">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>255</v>
@@ -2604,7 +2604,7 @@
         <v>34</v>
       </c>
       <c r="O13" s="29">
-        <v>399</v>
+        <v>139</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>255</v>
@@ -2651,7 +2651,7 @@
         <v>40</v>
       </c>
       <c r="O14" s="29">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>255</v>
@@ -2701,7 +2701,7 @@
         <v>45</v>
       </c>
       <c r="O15" s="29">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>255</v>
@@ -2751,7 +2751,7 @@
         <v>51</v>
       </c>
       <c r="O16" s="29">
-        <v>389</v>
+        <v>98</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>255</v>
@@ -2801,7 +2801,7 @@
         <v>56</v>
       </c>
       <c r="O17" s="29">
-        <v>186</v>
+        <v>320</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>255</v>
@@ -2851,7 +2851,7 @@
         <v>60</v>
       </c>
       <c r="O18" s="29">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>255</v>
@@ -2901,7 +2901,7 @@
         <v>66</v>
       </c>
       <c r="O19" s="29">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>255</v>
@@ -2951,7 +2951,7 @@
         <v>72</v>
       </c>
       <c r="O20" s="29">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>255</v>
@@ -2998,7 +2998,7 @@
         <v>77</v>
       </c>
       <c r="O21" s="29">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>255</v>
@@ -3048,7 +3048,7 @@
         <v>82</v>
       </c>
       <c r="O22" s="29">
-        <v>102</v>
+        <v>397</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>255</v>
@@ -3095,7 +3095,7 @@
         <v>87</v>
       </c>
       <c r="O23" s="29">
-        <v>227</v>
+        <v>395</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>255</v>
@@ -3142,7 +3142,7 @@
         <v>40</v>
       </c>
       <c r="O24" s="29">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>255</v>
@@ -3189,7 +3189,7 @@
         <v>87</v>
       </c>
       <c r="O25" s="29">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>255</v>
@@ -3236,7 +3236,7 @@
         <v>98</v>
       </c>
       <c r="O26" s="29">
-        <v>345</v>
+        <v>179</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>255</v>
@@ -3286,7 +3286,7 @@
         <v>103</v>
       </c>
       <c r="O27" s="29">
-        <v>306</v>
+        <v>144</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>255</v>
@@ -3333,7 +3333,7 @@
         <v>28</v>
       </c>
       <c r="O28" s="29">
-        <v>380</v>
+        <v>96</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>255</v>
@@ -3383,7 +3383,7 @@
         <v>113</v>
       </c>
       <c r="O29" s="29">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>255</v>
@@ -3433,7 +3433,7 @@
         <v>118</v>
       </c>
       <c r="O30" s="29">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>255</v>
@@ -3483,7 +3483,7 @@
         <v>123</v>
       </c>
       <c r="O31" s="29">
-        <v>54</v>
+        <v>367</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>255</v>
@@ -3530,7 +3530,7 @@
         <v>128</v>
       </c>
       <c r="O32" s="29">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>255</v>
@@ -3577,7 +3577,7 @@
         <v>133</v>
       </c>
       <c r="O33" s="29">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>255</v>
@@ -3624,7 +3624,7 @@
         <v>140</v>
       </c>
       <c r="O34" s="29">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>255</v>
@@ -3674,7 +3674,7 @@
         <v>145</v>
       </c>
       <c r="O35" s="29">
-        <v>301</v>
+        <v>105</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>255</v>
@@ -3724,7 +3724,7 @@
         <v>150</v>
       </c>
       <c r="O36" s="29">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>255</v>
@@ -3774,7 +3774,7 @@
         <v>155</v>
       </c>
       <c r="O37" s="29">
-        <v>55</v>
+        <v>301</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>255</v>
@@ -3824,7 +3824,7 @@
         <v>160</v>
       </c>
       <c r="O38" s="29">
-        <v>378</v>
+        <v>247</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>255</v>
@@ -3874,7 +3874,7 @@
         <v>166</v>
       </c>
       <c r="O39" s="29">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>255</v>
@@ -3924,7 +3924,7 @@
         <v>171</v>
       </c>
       <c r="O40" s="29">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>255</v>
@@ -3971,7 +3971,7 @@
         <v>177</v>
       </c>
       <c r="O41" s="29">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>255</v>
@@ -4021,7 +4021,7 @@
         <v>182</v>
       </c>
       <c r="O42" s="29">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>255</v>
@@ -4071,7 +4071,7 @@
         <v>187</v>
       </c>
       <c r="O43" s="29">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>255</v>
@@ -4121,7 +4121,7 @@
         <v>190</v>
       </c>
       <c r="O44" s="29">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>255</v>
@@ -4168,7 +4168,7 @@
         <v>133</v>
       </c>
       <c r="O45" s="29">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>255</v>
@@ -4218,7 +4218,7 @@
         <v>199</v>
       </c>
       <c r="O46" s="29">
-        <v>64</v>
+        <v>359</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>255</v>
@@ -4268,7 +4268,7 @@
         <v>204</v>
       </c>
       <c r="O47" s="29">
-        <v>91</v>
+        <v>343</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>255</v>
@@ -4315,7 +4315,7 @@
         <v>212</v>
       </c>
       <c r="O48" s="29">
-        <v>267</v>
+        <v>127</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>255</v>
@@ -4365,7 +4365,7 @@
         <v>218</v>
       </c>
       <c r="O49" s="29">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>255</v>
@@ -4443,19 +4443,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -4464,28 +4464,28 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="L2">
-        <v>65637173</v>
+        <v>67566760</v>
       </c>
       <c r="M2">
-        <v>65693028</v>
+        <v>67585380</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="O2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="P2" t="s">
         <v>255</v>
@@ -4493,49 +4493,47 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>261</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="L3">
-        <v>68920369</v>
-      </c>
-      <c r="M3">
-        <v>68929468</v>
-      </c>
+        <v>65936851</v>
+      </c>
+      <c r="M3"/>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="O3">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P3" t="s">
         <v>255</v>
@@ -4543,19 +4541,19 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -4564,28 +4562,26 @@
         <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="L4">
-        <v>62885633</v>
-      </c>
-      <c r="M4">
-        <v>62830113</v>
-      </c>
+        <v>67697176</v>
+      </c>
+      <c r="M4"/>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="O4">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P4" t="s">
         <v>255</v>
@@ -4593,47 +4589,49 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>285</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L5" t="s">
-        <v>108</v>
-      </c>
-      <c r="M5"/>
+        <v>306</v>
+      </c>
+      <c r="L5">
+        <v>63887450</v>
+      </c>
+      <c r="M5">
+        <v>63887449</v>
+      </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>307</v>
       </c>
       <c r="O5">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="P5" t="s">
         <v>255</v>
@@ -4641,19 +4639,19 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -4662,28 +4660,28 @@
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="K6" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="L6">
-        <v>67639455</v>
+        <v>65661980</v>
       </c>
       <c r="M6">
-        <v>67633577</v>
+        <v>65635015</v>
       </c>
       <c r="N6" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="O6">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="P6" t="s">
         <v>255</v>
@@ -5614,16 +5612,16 @@
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="30">
         <f>'Top5'!A2</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C15" s="31" t="str">
         <f>'Top5'!C2</f>
-        <v>MOESCHETQ22001587</v>
+        <v>MOESCHETQ22001559</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="38" t="str">
         <f>'Top5'!E2</f>
-        <v>Swiss Cottage Sec Sch: Supply of Instructor for English Language programme for Sec 1 &amp; 3 students</v>
+        <v>Supply of Instructors for Leadership and Design Thinking in Sembawang Secondary School</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -5632,23 +5630,23 @@
       <c r="J15" s="40"/>
       <c r="K15" s="34" t="str">
         <f>'Top5'!H2</f>
-        <v>12 Apr 2022 01:00PM</v>
+        <v>13 Apr 2022 01:00PM</v>
       </c>
       <c r="L15" s="32"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="30">
         <f>'Top5'!A3</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C16" s="31" t="str">
         <f>'Top5'!C3</f>
-        <v>MOESCHETQ22001729</v>
+        <v>MOESCHETQ22001557</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="38" t="str">
         <f>'Top5'!E3</f>
-        <v>Supply of Instructors for Provision of 3-Day Secondary 1 Outdoor Adventure Camp (Non-Residential) for West Spring Secondary School</v>
+        <v>Dunman High School - Provision Of Strength Programme (Profiling And Workshop) For Year 3</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -5657,23 +5655,23 @@
       <c r="J16" s="40"/>
       <c r="K16" s="34" t="str">
         <f>'Top5'!H3</f>
-        <v>21 Apr 2022 01:00PM</v>
+        <v>12 Apr 2022 01:00PM</v>
       </c>
       <c r="L16" s="32"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="30">
         <f>'Top5'!A4</f>
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C17" s="31" t="str">
         <f>'Top5'!C4</f>
-        <v>MOESCHETQ22001570 / CPS-22/7419/04</v>
+        <v>MOESCHETQ22001507</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="38" t="str">
         <f>'Top5'!E4</f>
-        <v>Supply of Instructors for Student Leadership Training 2022 for Student Leaders (Online/Offline)  in Cedar Primary School.</v>
+        <v>Supply of Instructors for P5 &amp; P6 Carpe Diem Learning Journey in South View Primary School.</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -5682,23 +5680,23 @@
       <c r="J17" s="40"/>
       <c r="K17" s="34" t="str">
         <f>'Top5'!H4</f>
-        <v>12 Apr 2022 01:00PM</v>
+        <v>07 Apr 2022 01:00PM</v>
       </c>
       <c r="L17" s="32"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="30">
         <f>'Top5'!A5</f>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C18" s="31" t="str">
         <f>'Top5'!C5</f>
-        <v>FOR000ETQ22000016</v>
+        <v>MOESCHETQ22001716 / RIV_ITQ220024</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="38" t="str">
         <f>'Top5'!E5</f>
-        <v>Engagement of a Training Agency to conduct an online course on Health Policy &amp; the Role of Data &amp; Technology in Healthcare</v>
+        <v>RIVPS: SUPPLY OF INSTRUCTORS FOR P1AND P2 CHINESE SPEECH &amp; DRAMA ENRICHMENT PROGRAMME IN RIVERVALE PRIMARY SCHOOL</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
@@ -5707,23 +5705,23 @@
       <c r="J18" s="40"/>
       <c r="K18" s="34" t="str">
         <f>'Top5'!H5</f>
-        <v>11 Apr 2022 01:00PM</v>
+        <v>20 Apr 2022 01:00PM</v>
       </c>
       <c r="L18" s="32"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="30">
         <f>'Top5'!A6</f>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C19" s="31" t="str">
         <f>'Top5'!C6</f>
-        <v>MOESCHETQ22001513</v>
+        <v>MOESCHETQ22001544</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="35" t="str">
         <f>'Top5'!E6</f>
-        <v>Supply of Instructors for Sec 1 Public Speaking Programme in Zhenghua Sec Sch</v>
+        <v>Supply of Instructors for Leadership Developmental Programme for P5 Cohort students in Bukit View Primary School</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
@@ -5732,7 +5730,7 @@
       <c r="J19" s="37"/>
       <c r="K19" s="34" t="str">
         <f>'Top5'!H6</f>
-        <v>08 Apr 2022 01:00PM</v>
+        <v>11 Apr 2022 01:00PM</v>
       </c>
       <c r="L19" s="32"/>
     </row>

--- a/output/Bids.xlsx
+++ b/output/Bids.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e6431dddeb4959f/Documents/UiPath/Diamond/Project1/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\UiPath\SCT9_Diamond_Project1\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18896" documentId="11_F9B9EC266AEF9A6C55FAC822FA75B080F77F927C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7EB9933-EC0B-43A8-8457-8CD59360FEAD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Awarded" sheetId="3" r:id="rId1"/>
@@ -19,10 +18,10 @@
     <sheet name="Overview" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OpenBids!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OpenBids!$A$1:$P$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Top5'!$A$1:$P$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="329">
   <si>
     <t>Quote</t>
   </si>
@@ -51,6 +50,15 @@
   </si>
   <si>
     <t>Total Open Bids</t>
+  </si>
+  <si>
+    <t>DashBoard</t>
+  </si>
+  <si>
+    <t>Potential Competitor</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Title</t>
@@ -107,408 +115,961 @@
     <t>Contact's Address</t>
   </si>
   <si>
+    <t>Quotation</t>
+  </si>
+  <si>
+    <t>Ministry of Education - Schools</t>
+  </si>
+  <si>
+    <t>14 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>13 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>05 Apr 2022 11:05AM</t>
+  </si>
+  <si>
+    <t>West Spring Secondary School, 61 Senja Road, Singapore 677737</t>
+  </si>
+  <si>
+    <t>Tanglin, Singapore 248163</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001587</t>
+  </si>
+  <si>
+    <t>Swiss Cottage Sec Sch: Supply of Instructor for English Language programme for Sec 1 &amp; 3 students</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>R MAHALAKSHIMI</t>
+  </si>
+  <si>
+    <t>r_mahalakshimi@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>Swiss Cottage Secondary School, No 3 Bukit Batok St 34, Singapore 659322</t>
+  </si>
+  <si>
+    <t>AGC000ETQ22000006</t>
+  </si>
+  <si>
+    <t>Provision of a Negotiations Workshop to Legal Service Officers</t>
+  </si>
+  <si>
+    <t>MS SHIRLYNN LOH</t>
+  </si>
+  <si>
+    <t>Shirlynn_Loh@agc.gov.sg</t>
+  </si>
+  <si>
+    <t>6908 9000</t>
+  </si>
+  <si>
+    <t>1 Upper Pickering Street Singapore 058288</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001571</t>
+  </si>
+  <si>
+    <t>ITQ for Supply of Instructor for Elective Module for NA and NT Students in Punggol Secondary School</t>
+  </si>
+  <si>
+    <t>NG FULIA</t>
+  </si>
+  <si>
+    <t>ng_fulia@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>Punggol Secondary School
+51 Edgefield Plains
+Singapore 828870</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001570</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001570 / CPS-22/7419/04</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Student Leadership Training 2022 for Student Leaders (Online/Offline)  in Cedar Primary School.</t>
+  </si>
+  <si>
+    <t>MDM FARIDAH BINTE ABDUL HAMID</t>
+  </si>
+  <si>
+    <t>faridah_abdul_hamid@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>15 Cedar Avenue, Singapore 349700.</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001566</t>
+  </si>
+  <si>
+    <t>ITQ for instructors for Pri 5 Project Work workshop</t>
+  </si>
+  <si>
+    <t>ELAINE GOH YI LING</t>
+  </si>
+  <si>
+    <t>goh_yi_ling_elaine@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>1 Tampines St 21 (529392)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001563</t>
+  </si>
+  <si>
+    <t>Supply of Instructor for O-level Narrative Comprehension Skills Workshop in Hai Sing Catholic School</t>
+  </si>
+  <si>
+    <t>JUNE NG</t>
+  </si>
+  <si>
+    <t>9 Pasir Ris Drive 6, Singapore 519421</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001561</t>
+  </si>
+  <si>
+    <t>Supply of Instructor(s) for a 3 Day Sec 3 Adventure-Based Level Programmed (non-residential) for Yishun Secondary School</t>
+  </si>
+  <si>
+    <t>11 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>MR AIDIL BIN IDRIS</t>
+  </si>
+  <si>
+    <t>aidil_idris@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>Yishun Secondary School
+4 Yishun Street 71
+Singapore 768516</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001562</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001562 / SPS/2022/009</t>
+  </si>
+  <si>
+    <t>Provision of coaching programme for Lead Teachers of E7 Cluster Schools</t>
+  </si>
+  <si>
+    <t>MS GRACE LEE YUN YUN</t>
+  </si>
+  <si>
+    <t>lee_yun_yun_grace@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>St Patrick's School
+490 East Coast Road
+Singapore 429058</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001560</t>
+  </si>
+  <si>
+    <t>Supply of instructors for P6 hands-on workshop on adaptation in Fairfield Methodist School (Primary)</t>
+  </si>
+  <si>
+    <t>ROZDIYAH BTE HARUN</t>
+  </si>
+  <si>
+    <t>rozdiyah_harun@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>100 Dover Road Singapore 139648</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001559</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Leadership and Design Thinking in Sembawang Secondary School</t>
+  </si>
+  <si>
+    <t>MR RAJAKUMAR</t>
+  </si>
+  <si>
+    <t>rajakumar_raghavan@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>30 Sembawang Crescent
+Singapore 757704</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001557</t>
+  </si>
+  <si>
+    <t>Dunman High School - Provision Of Strength Programme (Profiling And Workshop) For Year 3</t>
+  </si>
+  <si>
+    <t>MS ANGIE LIM ERN CHZE</t>
+  </si>
+  <si>
+    <t>lim.ernchze@dhs.sg</t>
+  </si>
+  <si>
+    <t>Dunman High School
+10 Tanjong Rhu Road, S(436895)</t>
+  </si>
+  <si>
+    <t>AGC000ETQ22000005</t>
+  </si>
+  <si>
+    <t>ITQ for Provision of a Plain English Writing Course to AGC Officers</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001551</t>
+  </si>
+  <si>
+    <t>Dunman High School - Provision Of Leadership Programme For Year 1 (Y1) And Year 2 (Y2)</t>
+  </si>
+  <si>
+    <t>MR LOW JIN HAO</t>
+  </si>
+  <si>
+    <t>low.jinhao@dhs.sg</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001548</t>
+  </si>
+  <si>
+    <t>Supply of Instructor for 3-Day Sec 1 Outdoor Adventure and Leadership Programme at MOE Labrador OALC/KCPSS in Kuo Chuan Presbyterian Secondary School</t>
+  </si>
+  <si>
+    <t>JOSEPH CHUNG</t>
+  </si>
+  <si>
+    <t>chung_wei_peng_joseph@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>10 Bishan Street 13 Singapore 579795</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001556</t>
+  </si>
+  <si>
+    <t>Supply and Delivery of 3-Day Non-Residential Primary 5 Adventure Learning Cohort Camp Programme for Opera Estate Primary School 2022</t>
+  </si>
+  <si>
+    <t>JENNIFER NG</t>
+  </si>
+  <si>
+    <t>ng_siew_hoong@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>48 Fidelio Street
+Singapore 458436</t>
+  </si>
+  <si>
+    <t>FOR000ETQ22000016</t>
+  </si>
+  <si>
+    <t>Engagement of a Training Agency to conduct an online course on Health Policy &amp; the Role of Data &amp; Technology in Healthcare</t>
+  </si>
+  <si>
+    <t>GOH KAIJIE</t>
+  </si>
+  <si>
+    <t>Sri_Weerdah_ABDULLAH@MFA.gov.sg</t>
+  </si>
+  <si>
+    <t>6379 8475</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001553</t>
+  </si>
+  <si>
+    <t>First aid course for staff</t>
+  </si>
+  <si>
+    <t>ALISON TEO</t>
+  </si>
+  <si>
+    <t>teo_yili_alison@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>9 Punggol Place Singapore 828845</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001552</t>
+  </si>
+  <si>
+    <t>CliftonStrengths Profiling and Professional Development Workshop 2022 at CHIJ St. Theresa's Convent</t>
+  </si>
+  <si>
+    <t>MR BRYAN LIM</t>
+  </si>
+  <si>
+    <t>lim_choon_huat@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>160 Lower Delta Road Singapore 099138</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001544</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Leadership Developmental Programme for P5 Cohort students in Bukit View Primary School</t>
+  </si>
+  <si>
+    <t>MDM TAN MING SAY</t>
+  </si>
+  <si>
+    <t>tan_ming_say@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>Bukit View Primary School
+18 Bukit Batok Street 21
+Singapore 659634</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001541</t>
+  </si>
+  <si>
+    <t>Supply of 3-Day Student Leadership Training Programme for Victoria Junior College.</t>
+  </si>
+  <si>
+    <t>KOH SEOW CHIN</t>
+  </si>
+  <si>
+    <t>KOH_Seow_Chin@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>20 Marine Vista, Singapore 449035</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001543</t>
+  </si>
+  <si>
+    <t>Supply of Instructor for P5 &amp; P6 Carpe Diem Motivation Workshop in South View Primary School</t>
+  </si>
+  <si>
+    <t>NUR FARHANAH SUHAIRI</t>
+  </si>
+  <si>
+    <t>nur_farhanah_suhairi@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>South View Pri School, 6 Choa Chu Kang Central, Singapore 689762</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001539</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001539 / Pupil Well-being-28/3/2022</t>
+  </si>
+  <si>
+    <t>Sec 1 OAL Camp</t>
+  </si>
+  <si>
+    <t>08 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>MS TAMMIE HO</t>
+  </si>
+  <si>
+    <t>tammie_ho@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>50 Goodman Road
+Singapore 439012</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001535</t>
+  </si>
+  <si>
+    <t>Coloured Brain Communication Workshop for W2 SLs</t>
+  </si>
+  <si>
+    <t>YEO CAIXIA</t>
+  </si>
+  <si>
+    <t>yeo_caixia@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>21 Choa Chu Kang Crescent 688268</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001515</t>
+  </si>
+  <si>
+    <t>Sec 1 Outdoor Adventure Learning Camp 2022 (3 Days)</t>
+  </si>
+  <si>
+    <t>MR WONG KHAI YU</t>
+  </si>
+  <si>
+    <t>wong_khai_yu@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>296 Lorong Ah Soo
+Singapore 536742</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001512</t>
+  </si>
+  <si>
+    <t>Sec 3 Outdoor Adventure Camp in Hua Yi Secondary School</t>
+  </si>
+  <si>
+    <t>LEE TAOJING</t>
+  </si>
+  <si>
+    <t>lee_taojing@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>Hua Yi Secondary School 60 Jurong West St 42 Singapore 649371</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001513</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Sec 1 Public Speaking Programme in Zhenghua Sec Sch</t>
+  </si>
+  <si>
+    <t>TAN DANWEI CLAUDIA</t>
+  </si>
+  <si>
+    <t>tan_danwei_claudia@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>91 Senja Road</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001511</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001511 / 1161/PE/22/003</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for 1-day Primary 3 Friendship Camp 2022</t>
+  </si>
+  <si>
+    <t>MS LYDIA TEE AI LEEN</t>
+  </si>
+  <si>
+    <t>lydia_teen_ai_leen@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>Si Ling Primary School,
+61, Woodlands Ave.1,
+Singapore 739067</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001509</t>
+  </si>
+  <si>
+    <t>Supply of Instructor for the Enrichment Programmes with Career Guidance in St. Gabriel's Secondary School.</t>
+  </si>
+  <si>
+    <t>SURIANI BINTE SULAIMAN</t>
+  </si>
+  <si>
+    <t>suriani_sulaiman@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>St. Gabriel's Secondary School
+24 Serangoon Ave 1
+Singapore 556140</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001510</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for P4 Copper Tooling 2022 Programme in Pioneer Primary School</t>
+  </si>
+  <si>
+    <t>07 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>NOR ASHIKIN BUANG</t>
+  </si>
+  <si>
+    <t>Nor_ashikin_buang@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>Pioneer Primary School, 31 Jurong West Street 91, S649037</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001514</t>
+  </si>
+  <si>
+    <t>Leadership Development Programme for Education Officers (EOs)</t>
+  </si>
+  <si>
+    <t>CHENG SENYUAN</t>
+  </si>
+  <si>
+    <t>Cheng_Senyuan@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>622 Upper Bukit Timah Road S(678117)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001471</t>
+  </si>
+  <si>
+    <t>1 Star Kayaking Certification</t>
+  </si>
+  <si>
+    <t>TEO YONG CHIN</t>
+  </si>
+  <si>
+    <t>teo_yong_chin@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>2A Margaret Drive Singapore 149295</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001475</t>
+  </si>
+  <si>
+    <t>Standard First Aid Course (CPR &amp; AED) with certification in Queensway Secondary School</t>
+  </si>
+  <si>
+    <t>2A Margaret Drive</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001507</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for P5 &amp; P6 Carpe Diem Learning Journey in South View Primary School.</t>
+  </si>
+  <si>
+    <t>TAN PEI FEN</t>
+  </si>
+  <si>
+    <t>fun_pei_fen@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001492</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Malay Language (ML) Speech and Drama Programme</t>
+  </si>
+  <si>
+    <t>HAJJAH MARZIA ABDUL RAHMAN</t>
+  </si>
+  <si>
+    <t>hajjah_marzia@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>23 Woodlands Ave , Fuchun Primary School, Singapore 739063</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001504</t>
+  </si>
+  <si>
+    <t>2022 P3 to P5 Pupil Leadership Training</t>
+  </si>
+  <si>
+    <t>MS NG YEN TIN</t>
+  </si>
+  <si>
+    <t>ng_yen_tin@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>Zhonghua Primary School 12 Serangoon Ave 4 (S)556095</t>
+  </si>
+  <si>
+    <t>MOE000ETT22000023</t>
+  </si>
+  <si>
+    <t>MOE000ETT22000023 / MOE/22/SEB/001</t>
+  </si>
+  <si>
+    <t>Tender</t>
+  </si>
+  <si>
+    <t>Courses for SPED School Educators and Professionals in FY2022/FY2023, namely Understanding and Teaching Students with Autism and Supporting Students w</t>
+  </si>
+  <si>
+    <t>28 Apr 2022 04:00PM</t>
+  </si>
+  <si>
+    <t>AQILAH A RAHIM</t>
+  </si>
+  <si>
+    <t>aqilah_abdul_rahim@moe.gov.sg</t>
+  </si>
+  <si>
+    <t>Blk 5, 51 Grange Road, #03-01 Singapore 249564</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001491</t>
+  </si>
+  <si>
+    <t>Invitation to Quote for Supply of Instructors and Microbit for Applied Learning Programme for Primary 5 Students in Tao Nan School</t>
+  </si>
+  <si>
+    <t>06 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>MISS CHEE SIOK TUAN JANICE</t>
+  </si>
+  <si>
+    <t>chee_siok_tuan@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>Tao Nan School, 49 Marine Crescent Singapore 449761</t>
+  </si>
+  <si>
     <t>Awarded Coy</t>
   </si>
   <si>
     <t>Bid Price</t>
   </si>
   <si>
+    <t>MOESCHETQ22001441</t>
+  </si>
+  <si>
+    <t>ST ANDREWS JUNIOR SCHOOL: LANGUAGE FACILITATOR FOR DYSLEXIA INTERVENTION 2022-2024</t>
+  </si>
+  <si>
+    <t>ONG POH HWEE</t>
+  </si>
+  <si>
+    <t>17,745.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001431 / MOESCHEAR22010448 (AOR2022107)</t>
+  </si>
+  <si>
+    <t>Lifeskills Workshop 2022 for P1, P2 and P3 Students, Yangzheng Pri School</t>
+  </si>
+  <si>
+    <t>EKA TRAINING GROUP PTE. LTD.</t>
+  </si>
+  <si>
+    <t>14,222.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001375 / 2022-CCAVB--1</t>
+  </si>
+  <si>
+    <t>Supply of Instructor for Volleyball CCA Training Programme in Cantonment Primary School</t>
+  </si>
+  <si>
+    <t>MINTONETTE SPORTS MANAGEMENT</t>
+  </si>
+  <si>
+    <t>9,100.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001386</t>
+  </si>
+  <si>
+    <t>Rulang Primary School is looking for a vendor to supply, deliver, assemble and install one unit of Active Floor System - 2022</t>
+  </si>
+  <si>
+    <t>EDN LEARNING DISCOVERIES PTE. LTD.</t>
+  </si>
+  <si>
+    <t>12,980.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001362</t>
+  </si>
+  <si>
+    <t>Supply of Instructor for Student Leader Workshop for Primary 4 Prefects in South View Primary School.</t>
+  </si>
+  <si>
+    <t>ADAM KHOO LIFE SKILLS COMPANY PTE. LTD.</t>
+  </si>
+  <si>
+    <t>3,750.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001335</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for provision of 3-Day non-residential Primary 5 Outdoor and Leadership Adventure Camp for Pei Chun Public School (2022)</t>
+  </si>
+  <si>
+    <t>TOUCH COMMUNITY SERVICES LIMITED</t>
+  </si>
+  <si>
+    <t>23,162.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001306</t>
+  </si>
+  <si>
+    <t>Supply of Consultant/Trainer for Organisational Change Professional Developmental Programme in Poi Ching School</t>
+  </si>
+  <si>
+    <t>YI CONSULTANCY PTE. LTD.</t>
+  </si>
+  <si>
+    <t>45,200.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001299</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Coding Programme for P3 Students for Zhangde Primary School</t>
+  </si>
+  <si>
+    <t>DUCK LEARNING</t>
+  </si>
+  <si>
+    <t>5,125.00 (SGD)</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>june_ng_goh_suat_hong@moe.edu.sg</t>
+  </si>
+  <si>
     <t>High Value Quote</t>
   </si>
   <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Potential Competitors</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>UOM</t>
-  </si>
-  <si>
-    <t>Download Link</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001816</t>
-  </si>
-  <si>
-    <t>Quotation</t>
-  </si>
-  <si>
-    <t>Instructors for Digital Literacy Programme in Queenstown Secondary School</t>
-  </si>
-  <si>
-    <t>Ministry of Education - Schools</t>
-  </si>
-  <si>
-    <t>14 Apr 2022 05:50PM</t>
-  </si>
-  <si>
-    <t>25 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>MR JOSEPH TEO</t>
-  </si>
-  <si>
-    <t>teo_chai_hong_joseph@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>1 Strathmore Road Singapore 148800</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001816</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001800</t>
-  </si>
-  <si>
-    <t>2022 English Bridging Support</t>
-  </si>
-  <si>
-    <t>14 Apr 2022 05:05PM</t>
-  </si>
-  <si>
-    <t>GOH PAI SHEN</t>
-  </si>
-  <si>
-    <t>goh_pai_shen@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>Catholic High School (Secondary), 9 Bishan Street 22 Singapore 579767</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001800</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001802</t>
-  </si>
-  <si>
-    <t>ITQ for Supply of Instructor for Mother Tongue Fortnight activities for Students in Beacon Primary School for our P1-P6 students</t>
-  </si>
-  <si>
-    <t>14 Apr 2022 04:05PM</t>
-  </si>
-  <si>
-    <t>MS LEE PEI PEI</t>
-  </si>
-  <si>
-    <t>lee_pei_pei@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>Ministry of Education,1, North Buona Vista Drive</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001802</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001811</t>
-  </si>
-  <si>
-    <t>Supply of Pianist for Choir CCA Programme in Clementi Primary School</t>
-  </si>
-  <si>
-    <t>14 Apr 2022 03:35PM</t>
-  </si>
-  <si>
-    <t>FIONA KWAN</t>
-  </si>
-  <si>
-    <t>fiona_kwan_lok_mun@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>8 Clementi Avenue 3 Singapore 129903</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001811</t>
-  </si>
-  <si>
-    <t>NYP000ETQ22000081</t>
-  </si>
-  <si>
-    <t>To appoint training service providers for the provision of services to develop and deliver Masterclass Programmes for a period of 2 years</t>
-  </si>
-  <si>
-    <t>Nanyang Polytechnic</t>
-  </si>
-  <si>
-    <t>14 Apr 2022 02:19PM</t>
-  </si>
-  <si>
-    <t>05 May 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>JENNY LING / PATRICK PNG</t>
-  </si>
-  <si>
-    <t>jenny_ling@sirs.edu.sg</t>
-  </si>
-  <si>
-    <t>64173650 / 65500717</t>
-  </si>
-  <si>
-    <t>Singapore Institute of Retail Studies, 11 Eunos Road 8, Lifelong Learning Institute, #08-02/03/04, Singapore 408601</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\NYP000ETQ22000081</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001805</t>
-  </si>
-  <si>
-    <t>Manpower service for Science Lab 1+1 year</t>
-  </si>
-  <si>
-    <t>14 Apr 2022 02:05PM</t>
-  </si>
-  <si>
-    <t>04 May 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>MRS EMILY WONG</t>
-  </si>
-  <si>
-    <t>fang_yoke_cheng_emily@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>90 Bukit Batok East Ave 6 S659762</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001805</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001795</t>
-  </si>
-  <si>
-    <t>Provision of 3 Days Non-Residential Primary 5 Cohort Outdoor Learning Camp 2022</t>
-  </si>
-  <si>
-    <t>14 Apr 2022 01:04PM</t>
-  </si>
-  <si>
-    <t>RYAN TAY EN HUANG</t>
-  </si>
-  <si>
-    <t>ryan_tay_en_huang@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>Holy Innocents' Primary School
-5 Lorong Low Koon
-Singapore 536451</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001795</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001769</t>
-  </si>
-  <si>
-    <t>Primary 1 and Primary 2 Chinese Weiqi Enrichment Programme in Holy Innocents' Primary School</t>
-  </si>
-  <si>
-    <t>14 Apr 2022 09:50AM</t>
-  </si>
-  <si>
-    <t>LEE SIEW KIAN JOYCE</t>
-  </si>
-  <si>
-    <t>lee_siew_kian_joyce@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Holy Innocents' Primary School
-5 Lorong Low Koon</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001769</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001791</t>
-  </si>
-  <si>
-    <t>Supply of Instructor for Student Leadership Programme for CHIJ (Katong) Primary: - P4 to P6 Prefects (Trainee &amp; Senior) and P3 to P6 Class Monitors</t>
-  </si>
-  <si>
-    <t>MR EDWARD TOH</t>
-  </si>
-  <si>
-    <t>toh_boon_how@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>CHIJ (KATONG) PRIMARY
-17 MARTIA ROAD
-SINGAPORE 424821</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001791</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001788</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Student Leadership Training Programme in Pioneer Primary School</t>
-  </si>
-  <si>
-    <t>MOHAMED ASHIQ S/O AMEERDEEN M</t>
-  </si>
-  <si>
-    <t>mohamed_ashiq_ameerdeen_m@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Pioneer primary school, 31 Jurong West St 91, S649037</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001788</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001730</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Primary 1 Programme for Active Learning (PAL) - Dance Module in Peiying Primary School</t>
-  </si>
-  <si>
-    <t>MR MOHAMAD IKHWAN BIN MOHAMAD HARON</t>
-  </si>
-  <si>
-    <t>mohamad_ikhwan_mohamad_haron@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Peiying Primary School, 651 Yishun Ring Road, S768687</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001730</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001462</t>
-  </si>
-  <si>
-    <t>ENGAGEMENT OF INSTRUCTORS FOR SPORTS ENGAGEMENT IN GEAR UP PROGRAMME</t>
-  </si>
-  <si>
-    <t>MINISTRY OF FOOTBALL PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>8,763.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001441</t>
-  </si>
-  <si>
-    <t>ST ANDREWS JUNIOR SCHOOL: LANGUAGE FACILITATOR FOR DYSLEXIA INTERVENTION 2022-2024</t>
-  </si>
-  <si>
-    <t>ONG POH HWEE</t>
-  </si>
-  <si>
-    <t>17,745.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001431 / MOESCHEAR22010448 (AOR2022107)</t>
-  </si>
-  <si>
-    <t>Lifeskills Workshop 2022 for P1, P2 and P3 Students, Yangzheng Pri School</t>
-  </si>
-  <si>
-    <t>EKA TRAINING GROUP PTE. LTD.</t>
-  </si>
-  <si>
-    <t>14,222.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001388</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Sec 3ENA Debate Programmes in Zhenghua Sec Sch</t>
-  </si>
-  <si>
-    <t>KO'ACH EDURICH PTE. LTD.</t>
-  </si>
-  <si>
-    <t>8,470.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001403</t>
-  </si>
-  <si>
-    <t>Supply of Programme and Instructors for 2022 Secondary 4 and 5 Lifeskills Workshop in Queenstown Secondary School) (the "Programme")</t>
-  </si>
-  <si>
-    <t>YOUNG MIDAS ENRICHMENT AND TRAINING SERVICES</t>
-  </si>
-  <si>
-    <t>5,355.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001375 / 2022-CCAVB--1</t>
-  </si>
-  <si>
-    <t>Supply of Instructor for Volleyball CCA Training Programme in Cantonment Primary School</t>
-  </si>
-  <si>
-    <t>MINTONETTE SPORTS MANAGEMENT</t>
-  </si>
-  <si>
-    <t>9,100.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001386</t>
-  </si>
-  <si>
-    <t>Rulang Primary School is looking for a vendor to supply, deliver, assemble and install one unit of Active Floor System - 2022</t>
-  </si>
-  <si>
-    <t>EDN LEARNING DISCOVERIES PTE. LTD.</t>
-  </si>
-  <si>
-    <t>12,980.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001362</t>
-  </si>
-  <si>
-    <t>Supply of Instructor for Student Leader Workshop for Primary 4 Prefects in South View Primary School.</t>
-  </si>
-  <si>
-    <t>ADAM KHOO LIFE SKILLS COMPANY PTE. LTD.</t>
-  </si>
-  <si>
-    <t>3,750.00 (SGD)</t>
-  </si>
-  <si>
-    <t>FOR000ETQ22000013</t>
-  </si>
-  <si>
-    <t>Engage a Training Agency to design and conduct a SCP Training Award (SCPTA) online course on "Responding to Pandemics and Future Preparedness".</t>
-  </si>
-  <si>
-    <t>NATIONAL UNIVERSITY OF SINGAPORE</t>
-  </si>
-  <si>
-    <t>64,000.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001335</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for provision of 3-Day non-residential Primary 5 Outdoor and Leadership Adventure Camp for Pei Chun Public School (2022)</t>
-  </si>
-  <si>
-    <t>TOUCH COMMUNITY SERVICES LIMITED</t>
-  </si>
-  <si>
-    <t>23,162.00 (SGD)</t>
+    <t>Supply of Instructors for Provision of 3-Day Secondary 1 Outdoor Adventure Camp (Non-Residential) for West Spring Secondary School</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 02:35PM</t>
+  </si>
+  <si>
+    <t>21 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>MR FAURONI SUKHAIMI</t>
+  </si>
+  <si>
+    <t>nai_wee_beng@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>Instructors for Design Thinking Workshop for P4 Students in Yangzheng Pri School</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 02:19PM</t>
+  </si>
+  <si>
+    <t>MDM LASIME KUMARI</t>
+  </si>
+  <si>
+    <t>lasime_kumari@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>15 Serangoon Avenue 3, Singapore 556108</t>
+  </si>
+  <si>
+    <t>2 DAYS STUDENTS LEADERS' TRAINING PROGRAMME</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 09:20AM</t>
+  </si>
+  <si>
+    <t>MS LIAW HSIAO-MEIN</t>
+  </si>
+  <si>
+    <t>liaw_hsiao_mein@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>3 Yishun Ring Road
+S(768675)</t>
+  </si>
+  <si>
+    <t>INVITATION TO QUOTE (ITQ) FOR THE PROVISION OF SERVICES TO PROPOSE, DEVELOP AND DELIVER MENTAL HEALTH EXPERIENTIAL CRAFT WORKSHOPS</t>
+  </si>
+  <si>
+    <t>Health Promotion Board</t>
+  </si>
+  <si>
+    <t>KANG LEE LIN</t>
+  </si>
+  <si>
+    <t>KANG_Lee_Lin@hpb.gov.sg</t>
+  </si>
+  <si>
+    <t>Health Promotion Board 3 Second Hospital Avenue Singapore 168937</t>
+  </si>
+  <si>
+    <t>SUPPLY OF INSTRUCTORS FOR BAND INSTRUMENTAL PROGRAMME IN CRESCENT GIRLS SCHOOL  2022</t>
+  </si>
+  <si>
+    <t>11 Apr 2022 05:04PM</t>
+  </si>
+  <si>
+    <t>20 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>NORZAIDAH BINTE SUPARMAN</t>
+  </si>
+  <si>
+    <t>NORZAIDAH_SUPARMAN@CRESCENT.EDU.SG</t>
+  </si>
+  <si>
+    <t>CRESCENT GIRLS' SCHOOL</t>
+  </si>
+  <si>
+    <t>Stamford Pri Sch - Supply of instructors for Design Thinking Project Coaching for Student Teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINCOLN SHEN </t>
+  </si>
+  <si>
+    <t>shen_pinhong@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>1 Victoria Lane
+Singapore 198423</t>
+  </si>
+  <si>
+    <t>Supply of Instructor for Student Leadership Challenge Programme for Student Leaders (2022)</t>
+  </si>
+  <si>
+    <t>11 Apr 2022 04:34PM</t>
+  </si>
+  <si>
+    <t>ALVIN LOH</t>
+  </si>
+  <si>
+    <t>loh_yongjie@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>St. Margaret's Secondary School
+111 Farrer Road
+Singapore 259240</t>
+  </si>
+  <si>
+    <t>RIVPS: SUPPLY OF INSTRUCTORS FOR P1AND P2 CHINESE SPEECH &amp; DRAMA ENRICHMENT PROGRAMME IN RIVERVALE PRIMARY SCHOOL</t>
+  </si>
+  <si>
+    <t>11 Apr 2022 04:04PM</t>
+  </si>
+  <si>
+    <t>RAN YIJUN</t>
+  </si>
+  <si>
+    <t>ran_yijun@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>80 RIVERVALE DRIVE
+SINGAPORE 545092</t>
+  </si>
+  <si>
+    <t>2 Days FALCONS Leadership Day Camp for Nan Chiau High School from 20-21 May 2022 (Non-residential)</t>
+  </si>
+  <si>
+    <t>MR AW SI KUAN</t>
+  </si>
+  <si>
+    <t>aw_si_kuan@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>20 Anchorvale Link, S(545079)</t>
+  </si>
+  <si>
+    <t>The Provision of Blended/Face-To-Face Workshop on Standard First Aid (SFA) Course and Automated External Defibrillator (AED) Module</t>
+  </si>
+  <si>
+    <t>MR NEO ENG YEOW</t>
+  </si>
+  <si>
+    <t>neo_eng_yeow@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>Nan Hua Primary School
+30 Jalan Lempeng
+Singapore 128806</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Career Design Simulation Programme for Secondary 3 Students in Presbyterian High School</t>
+  </si>
+  <si>
+    <t>MRS FAITH CHEN</t>
+  </si>
+  <si>
+    <t>mai_xueling@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>Presbyterian High School, 5209 Ang Mo Kio Ave 6 Singapore 569845</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001322 / JYSS0102022</t>
+  </si>
+  <si>
+    <t>ITQ FOR SUPPLY AND DELIVERY OF SCHOOL OPERATION SERVICE ROBOTS (2 UNITS) FOR JUYING SECONDARY SCHOOL.</t>
+  </si>
+  <si>
+    <t>ROBOSOLUTIONS PTE. LTD.</t>
+  </si>
+  <si>
+    <t>17,000.00 (SGD)</t>
+  </si>
+  <si>
+    <t>RPO000ETQ22000030</t>
+  </si>
+  <si>
+    <t>Quotation for Smart Interactive Presentation System for CED</t>
+  </si>
+  <si>
+    <t>TECH-MEN TECHNOLOGY PTE. LTD.</t>
+  </si>
+  <si>
+    <t>15,480.00 (SGD)</t>
+  </si>
+  <si>
+    <t>NCS000ETQ22000010</t>
+  </si>
+  <si>
+    <t>PAS000ETT22000042</t>
+  </si>
+  <si>
+    <t>PAS000ETT22000042 / PA-ITT-2022-0014</t>
+  </si>
+  <si>
+    <t>DEFNGPP7122100092</t>
+  </si>
+  <si>
+    <t>DEFNGPP7121103928</t>
+  </si>
+  <si>
+    <t>DEFNGPP7122100143</t>
+  </si>
+  <si>
+    <t>DEFNGPP7122100113</t>
+  </si>
+  <si>
+    <t>DEFNGPP7122100088</t>
+  </si>
+  <si>
+    <t>YRS000ETT22000001</t>
+  </si>
+  <si>
+    <t>YRS000ETT22000001 / YRSG/T02/2022</t>
+  </si>
+  <si>
+    <t>MOE000ETQ22000102</t>
+  </si>
+  <si>
+    <t>MOE000ETQ22000101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -740,7 +1301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -782,6 +1343,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -814,6 +1382,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -929,63 +1500,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Top5'!$A$2:$A$132</c:f>
@@ -993,34 +1507,148 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,34 +1660,148 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>381</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>327</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>292</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>195</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>183</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>155</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>134</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>112</c:v>
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,8 +2286,7 @@
         <c:axId val="709858904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="450"/>
-          <c:min val="50"/>
+          <c:min val="280"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1598,7 +2339,7 @@
         <c:crossAx val="709856608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="50"/>
+        <c:majorUnit val="10"/>
         <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
@@ -1639,6 +2380,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1646,7 +2388,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -2294,8 +3035,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>578555</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>16283</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76729</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2587,238 +3328,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.81640625" style="1"/>
-    <col min="5" max="5" width="35.81640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="35.77734375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>310</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>134</v>
+        <v>311</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>313</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>145</v>
+        <v>314</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>147</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2827,650 +3568,2423 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="1"/>
-    <col min="3" max="3" width="8.90625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.81640625" style="1"/>
-    <col min="9" max="9" width="6.08984375" style="1" customWidth="1"/>
-    <col min="10" max="13" width="8.81640625" style="1"/>
-    <col min="14" max="16" width="14.81640625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="13" width="8.77734375" style="1"/>
+    <col min="14" max="14" width="14.77734375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>252</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L2" s="1">
+        <v>68920369</v>
+      </c>
+      <c r="M2" s="1">
+        <v>68929468</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="1">
-        <v>64741055</v>
-      </c>
-      <c r="M2" s="1">
-        <v>64741295</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="1">
-        <v>155</v>
+      <c r="O2" s="29">
+        <v>382</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>319</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="L3" s="1">
-        <v>64582177</v>
+        <v>62846298</v>
       </c>
       <c r="M3" s="1">
-        <v>64561322</v>
+        <v>62879778</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="1">
-        <v>134</v>
+        <v>266</v>
+      </c>
+      <c r="O3" s="29">
+        <v>166</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>47</v>
+        <v>270</v>
       </c>
       <c r="L4" s="1">
-        <v>67697255</v>
+        <v>62579873</v>
       </c>
       <c r="M4" s="1">
-        <v>67697244</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="1">
-        <v>183</v>
+        <v>62574373</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="O4" s="29">
+        <v>221</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>54</v>
+        <v>275</v>
       </c>
       <c r="L5" s="1">
-        <v>67797449</v>
+        <v>64353273</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="1">
-        <v>327</v>
+        <v>276</v>
+      </c>
+      <c r="O5" s="29">
+        <v>135</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>322</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>322</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>61</v>
+        <v>279</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>64</v>
+        <v>281</v>
+      </c>
+      <c r="L6" s="1">
+        <v>64758711</v>
+      </c>
+      <c r="M6" s="1">
+        <v>64741248</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="1">
-        <v>181</v>
+        <v>282</v>
+      </c>
+      <c r="O6" s="29">
+        <v>315</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>323</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>323</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c r="L7" s="1">
-        <v>68962054</v>
+        <v>62945074</v>
       </c>
       <c r="M7" s="1">
-        <v>65632356</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" s="1">
-        <v>381</v>
+        <v>62919262</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="O7" s="29">
+        <v>40</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>324</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>324</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="L8" s="1">
-        <v>62886516</v>
+        <v>64664525</v>
       </c>
       <c r="M8" s="1">
-        <v>62876393</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="1">
-        <v>35</v>
+        <v>64666709</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="O8" s="29">
+        <v>323</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>85</v>
+        <v>294</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
       <c r="L9" s="1">
-        <v>62886516</v>
+        <v>63887450</v>
       </c>
       <c r="M9" s="1">
-        <v>62876393</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O9" s="1">
-        <v>292</v>
+        <v>63887449</v>
+      </c>
+      <c r="N9" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="O9" s="29">
+        <v>370</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>23</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>299</v>
       </c>
       <c r="L10" s="1">
-        <v>63443072</v>
-      </c>
-      <c r="M10" s="1">
-        <v>63459007</v>
+        <v>64897971</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" s="1">
-        <v>195</v>
+        <v>300</v>
+      </c>
+      <c r="O10" s="29">
+        <v>357</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>328</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>97</v>
+        <v>302</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>98</v>
+        <v>303</v>
       </c>
       <c r="L11" s="1">
-        <v>67932039</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O11" s="1">
-        <v>256</v>
+        <v>67788050</v>
+      </c>
+      <c r="M11" s="1">
+        <v>67784127</v>
+      </c>
+      <c r="N11" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="O11" s="29">
+        <v>101</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L12" s="1">
+        <v>64543722</v>
+      </c>
+      <c r="M12" s="1">
+        <v>64543430</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="O12" s="29">
+        <v>208</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="1">
+        <v>65637173</v>
+      </c>
+      <c r="M13" s="1">
+        <v>65693028</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="29">
+        <v>252</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="29">
+        <v>388</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="1">
+        <v>64897851</v>
+      </c>
+      <c r="M15" s="1">
+        <v>64897859</v>
+      </c>
+      <c r="N15" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="29">
+        <v>264</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="1">
+        <v>62885633</v>
+      </c>
+      <c r="M16" s="1">
+        <v>62830113</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="29">
+        <v>369</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="1">
+        <v>67819002</v>
+      </c>
+      <c r="M17" s="1">
+        <v>67845054</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="29">
+        <v>106</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="L18" s="1">
+        <v>65827864</v>
+      </c>
+      <c r="M18" s="1">
+        <v>65822543</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="29">
+        <v>304</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="1">
+        <v>68767129</v>
+      </c>
+      <c r="M19" s="1">
+        <v>67557748</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="29">
+        <v>41</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="1">
+        <v>63440929</v>
+      </c>
+      <c r="M20" s="1">
+        <v>63445152</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="29">
+        <v>400</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="1">
+        <v>67788431</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" s="29">
+        <v>230</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="1">
+        <v>67566760</v>
+      </c>
+      <c r="M22" s="1">
+        <v>67585380</v>
+      </c>
+      <c r="N22" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" s="29">
+        <v>356</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="1">
+        <v>65936851</v>
+      </c>
+      <c r="N23" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23" s="29">
+        <v>231</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="1">
+        <v>69089136</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="29">
+        <v>202</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="1">
+        <v>63450533</v>
+      </c>
+      <c r="N25" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25" s="29">
+        <v>337</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" s="1">
+        <v>62593811</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" s="29">
+        <v>328</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="L27" s="1">
+        <v>62410417</v>
+      </c>
+      <c r="M27" s="1">
+        <v>64493042</v>
+      </c>
+      <c r="N27" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="O27" s="29">
+        <v>352</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="29">
+        <v>239</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="1">
+        <v>65701588</v>
+      </c>
+      <c r="M29" s="1">
+        <v>65703680</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O29" s="29">
+        <v>54</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30" s="1">
+        <v>64775777</v>
+      </c>
+      <c r="M30" s="1">
+        <v>64775700</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O30" s="29">
+        <v>176</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="L31" s="1">
+        <v>65661980</v>
+      </c>
+      <c r="M31" s="1">
+        <v>65635015</v>
+      </c>
+      <c r="N31" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="O31" s="29">
+        <v>238</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" s="1">
-        <v>62575684</v>
-      </c>
-      <c r="M12" s="1">
-        <v>67558802</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L32" s="1">
+        <v>64485011</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O32" s="29">
+        <v>281</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L33" s="1">
+        <v>67697176</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O33" s="29">
+        <v>361</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L34" s="1">
+        <v>63441393</v>
+      </c>
+      <c r="N34" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="O34" s="29">
+        <v>30</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L35" s="1">
+        <v>67676750</v>
+      </c>
+      <c r="M35" s="1">
+        <v>67676751</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O35" s="29">
+        <v>301</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L36" s="1">
+        <v>62816606</v>
+      </c>
+      <c r="M36" s="1">
+        <v>63820558</v>
+      </c>
+      <c r="N36" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="O36" s="29">
+        <v>79</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="K37" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="L37" s="1">
+        <v>65634568</v>
+      </c>
+      <c r="M37" s="1">
+        <v>65634505</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O37" s="29">
+        <v>258</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L38" s="1">
+        <v>67639455</v>
+      </c>
+      <c r="M38" s="1">
+        <v>67633577</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O38" s="29">
+        <v>335</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L39" s="1">
+        <v>62698832</v>
+      </c>
+      <c r="M39" s="1">
+        <v>63575516</v>
+      </c>
+      <c r="N39" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="O39" s="29">
+        <v>159</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L40" s="1">
+        <v>62889470</v>
+      </c>
+      <c r="M40" s="1">
+        <v>62898615</v>
+      </c>
+      <c r="N40" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="O40" s="29">
+        <v>58</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L41" s="1">
+        <v>67932039</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O41" s="29">
+        <v>36</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="K42" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="L42" s="1">
+        <v>65729100</v>
+      </c>
+      <c r="M42" s="1">
+        <v>67636560</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O42" s="29">
+        <v>234</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L43" s="1">
+        <v>64741421</v>
+      </c>
+      <c r="M43" s="1">
+        <v>64741302</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O43" s="29">
+        <v>251</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="K44" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="L44" s="1">
+        <v>64741421</v>
+      </c>
+      <c r="M44" s="1">
+        <v>64741302</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O44" s="29">
+        <v>198</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L45" s="1">
+        <v>67697176</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O45" s="29">
+        <v>258</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L46" s="1">
+        <v>63683925</v>
+      </c>
+      <c r="M46" s="1">
+        <v>63670117</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O46" s="29">
         <v>105</v>
       </c>
-      <c r="O12" s="1">
-        <v>112</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>106</v>
+      <c r="P46" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L47" s="1">
+        <v>62835413</v>
+      </c>
+      <c r="M47" s="1">
+        <v>62823882</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O47" s="29">
+        <v>228</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L48" s="1">
+        <v>68319636</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O48" s="29">
+        <v>97</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L49" s="1">
+        <v>64428307</v>
+      </c>
+      <c r="M49" s="1">
+        <v>64435973</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O49" s="29">
+        <v>316</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3479,1301 +5993,2441 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="8.81640625" style="1"/>
-    <col min="14" max="14" width="14.81640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="13" width="8.77734375" style="1"/>
+    <col min="14" max="14" width="14.77734375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O1" t="s">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="P1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L2">
+        <v>68920369</v>
+      </c>
+      <c r="M2">
+        <v>68929468</v>
+      </c>
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2">
-        <v>68962054</v>
-      </c>
-      <c r="M2">
-        <v>65632356</v>
-      </c>
-      <c r="N2" t="s">
-        <v>73</v>
-      </c>
       <c r="O2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" t="s">
+        <v>265</v>
+      </c>
+      <c r="L3">
+        <v>62846298</v>
+      </c>
+      <c r="M3">
+        <v>62879778</v>
+      </c>
+      <c r="N3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O3">
+        <v>166</v>
+      </c>
+      <c r="P3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K4" t="s">
+        <v>270</v>
+      </c>
+      <c r="L4">
+        <v>62579873</v>
+      </c>
+      <c r="M4">
+        <v>62574373</v>
+      </c>
+      <c r="N4" t="s">
+        <v>271</v>
+      </c>
+      <c r="O4">
+        <v>221</v>
+      </c>
+      <c r="P4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3">
-        <v>67797449</v>
-      </c>
-      <c r="M3"/>
-      <c r="N3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3">
-        <v>327</v>
-      </c>
-      <c r="P3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4">
-        <v>62886516</v>
-      </c>
-      <c r="M4">
-        <v>62876393</v>
-      </c>
-      <c r="N4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4">
-        <v>292</v>
-      </c>
-      <c r="P4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>10</v>
-      </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>321</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>321</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>268</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>275</v>
       </c>
       <c r="L5">
-        <v>67932039</v>
+        <v>64353273</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="s">
+        <v>276</v>
+      </c>
+      <c r="O5">
+        <v>135</v>
+      </c>
+      <c r="P5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" t="s">
+        <v>279</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>280</v>
+      </c>
+      <c r="K6" t="s">
+        <v>281</v>
+      </c>
+      <c r="L6">
+        <v>64758711</v>
+      </c>
+      <c r="M6">
+        <v>64741248</v>
+      </c>
+      <c r="N6" t="s">
+        <v>282</v>
+      </c>
+      <c r="O6">
+        <v>315</v>
+      </c>
+      <c r="P6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" t="s">
+        <v>279</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L7">
+        <v>62945074</v>
+      </c>
+      <c r="M7">
+        <v>62919262</v>
+      </c>
+      <c r="N7" t="s">
+        <v>286</v>
+      </c>
+      <c r="O7">
+        <v>40</v>
+      </c>
+      <c r="P7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8" t="s">
+        <v>279</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>289</v>
+      </c>
+      <c r="K8" t="s">
+        <v>290</v>
+      </c>
+      <c r="L8">
+        <v>64664525</v>
+      </c>
+      <c r="M8">
+        <v>64666709</v>
+      </c>
+      <c r="N8" t="s">
+        <v>291</v>
+      </c>
+      <c r="O8">
+        <v>323</v>
+      </c>
+      <c r="P8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H9" t="s">
+        <v>279</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>294</v>
+      </c>
+      <c r="K9" t="s">
+        <v>295</v>
+      </c>
+      <c r="L9">
+        <v>63887450</v>
+      </c>
+      <c r="M9">
+        <v>63887449</v>
+      </c>
+      <c r="N9" t="s">
+        <v>296</v>
+      </c>
+      <c r="O9">
+        <v>370</v>
+      </c>
+      <c r="P9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>293</v>
+      </c>
+      <c r="H10" t="s">
+        <v>279</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>298</v>
+      </c>
+      <c r="K10" t="s">
+        <v>299</v>
+      </c>
+      <c r="L10">
+        <v>64897971</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10" t="s">
+        <v>300</v>
+      </c>
+      <c r="O10">
+        <v>357</v>
+      </c>
+      <c r="P10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>293</v>
+      </c>
+      <c r="H11" t="s">
+        <v>279</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>302</v>
+      </c>
+      <c r="K11" t="s">
+        <v>303</v>
+      </c>
+      <c r="L11">
+        <v>67788050</v>
+      </c>
+      <c r="M11">
+        <v>67784127</v>
+      </c>
+      <c r="N11" t="s">
+        <v>304</v>
+      </c>
+      <c r="O11">
+        <v>101</v>
+      </c>
+      <c r="P11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" t="s">
+        <v>305</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>293</v>
+      </c>
+      <c r="H12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>306</v>
+      </c>
+      <c r="K12" t="s">
+        <v>307</v>
+      </c>
+      <c r="L12">
+        <v>64543722</v>
+      </c>
+      <c r="M12">
+        <v>64543430</v>
+      </c>
+      <c r="N12" t="s">
+        <v>308</v>
+      </c>
+      <c r="O12">
+        <v>208</v>
+      </c>
+      <c r="P12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13">
+        <v>65637173</v>
+      </c>
+      <c r="M13">
+        <v>65693028</v>
+      </c>
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13">
+        <v>252</v>
+      </c>
+      <c r="P13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14">
+        <v>388</v>
+      </c>
+      <c r="P14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15">
+        <v>64897851</v>
+      </c>
+      <c r="M15">
+        <v>64897859</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15">
+        <v>264</v>
+      </c>
+      <c r="P15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16">
+        <v>62885633</v>
+      </c>
+      <c r="M16">
+        <v>62830113</v>
+      </c>
+      <c r="N16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16">
+        <v>369</v>
+      </c>
+      <c r="P16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17">
+        <v>67819002</v>
+      </c>
+      <c r="M17">
+        <v>67845054</v>
+      </c>
+      <c r="N17" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17">
+        <v>106</v>
+      </c>
+      <c r="P17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" t="s">
+        <v>255</v>
+      </c>
+      <c r="L18">
+        <v>65827864</v>
+      </c>
+      <c r="M18">
+        <v>65822543</v>
+      </c>
+      <c r="N18" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18">
+        <v>304</v>
+      </c>
+      <c r="P18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19">
+        <v>68767129</v>
+      </c>
+      <c r="M19">
+        <v>67557748</v>
+      </c>
+      <c r="N19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19">
+        <v>41</v>
+      </c>
+      <c r="P19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20">
+        <v>63440929</v>
+      </c>
+      <c r="M20">
+        <v>63445152</v>
+      </c>
+      <c r="N20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20">
+        <v>400</v>
+      </c>
+      <c r="P20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21">
+        <v>67788431</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21">
+        <v>230</v>
+      </c>
+      <c r="P21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22">
+        <v>67566760</v>
+      </c>
+      <c r="M22">
+        <v>67585380</v>
+      </c>
+      <c r="N22" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22">
+        <v>356</v>
+      </c>
+      <c r="P22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23">
+        <v>65936851</v>
+      </c>
+      <c r="M23"/>
+      <c r="N23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23">
+        <v>231</v>
+      </c>
+      <c r="P23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24">
+        <v>69089136</v>
+      </c>
+      <c r="M24"/>
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24">
+        <v>202</v>
+      </c>
+      <c r="P24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25">
+        <v>63450533</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25">
+        <v>337</v>
+      </c>
+      <c r="P25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26">
+        <v>62593811</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26">
+        <v>328</v>
+      </c>
+      <c r="P26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
         <v>99</v>
       </c>
-      <c r="O5">
-        <v>256</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" t="s">
+        <v>101</v>
+      </c>
+      <c r="L27">
+        <v>62410417</v>
+      </c>
+      <c r="M27">
+        <v>64493042</v>
+      </c>
+      <c r="N27" t="s">
+        <v>102</v>
+      </c>
+      <c r="O27">
+        <v>352</v>
+      </c>
+      <c r="P27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M28"/>
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28">
+        <v>239</v>
+      </c>
+      <c r="P28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29">
+        <v>65701588</v>
+      </c>
+      <c r="M29">
+        <v>65703680</v>
+      </c>
+      <c r="N29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O29">
+        <v>54</v>
+      </c>
+      <c r="P29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30">
+        <v>64775777</v>
+      </c>
+      <c r="M30">
+        <v>64775700</v>
+      </c>
+      <c r="N30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O30">
+        <v>176</v>
+      </c>
+      <c r="P30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" t="s">
+        <v>121</v>
+      </c>
+      <c r="L31">
+        <v>65661980</v>
+      </c>
+      <c r="M31">
+        <v>65635015</v>
+      </c>
+      <c r="N31" t="s">
+        <v>122</v>
+      </c>
+      <c r="O31">
+        <v>238</v>
+      </c>
+      <c r="P31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="J6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6">
-        <v>63443072</v>
-      </c>
-      <c r="M6">
-        <v>63459007</v>
-      </c>
-      <c r="N6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6">
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" t="s">
+        <v>126</v>
+      </c>
+      <c r="L32">
+        <v>64485011</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32" t="s">
+        <v>127</v>
+      </c>
+      <c r="O32">
+        <v>281</v>
+      </c>
+      <c r="P32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" t="s">
+        <v>131</v>
+      </c>
+      <c r="L33">
+        <v>67697176</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33" t="s">
+        <v>132</v>
+      </c>
+      <c r="O33">
+        <v>361</v>
+      </c>
+      <c r="P33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" t="s">
+        <v>137</v>
+      </c>
+      <c r="K34" t="s">
+        <v>138</v>
+      </c>
+      <c r="L34">
+        <v>63441393</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34" t="s">
+        <v>139</v>
+      </c>
+      <c r="O34">
+        <v>30</v>
+      </c>
+      <c r="P34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" t="s">
+        <v>142</v>
+      </c>
+      <c r="K35" t="s">
+        <v>143</v>
+      </c>
+      <c r="L35">
+        <v>67676750</v>
+      </c>
+      <c r="M35">
+        <v>67676751</v>
+      </c>
+      <c r="N35" t="s">
+        <v>144</v>
+      </c>
+      <c r="O35">
+        <v>301</v>
+      </c>
+      <c r="P35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" t="s">
+        <v>147</v>
+      </c>
+      <c r="K36" t="s">
+        <v>148</v>
+      </c>
+      <c r="L36">
+        <v>62816606</v>
+      </c>
+      <c r="M36">
+        <v>63820558</v>
+      </c>
+      <c r="N36" t="s">
+        <v>149</v>
+      </c>
+      <c r="O36">
+        <v>79</v>
+      </c>
+      <c r="P36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" t="s">
+        <v>152</v>
+      </c>
+      <c r="K37" t="s">
+        <v>153</v>
+      </c>
+      <c r="L37">
+        <v>65634568</v>
+      </c>
+      <c r="M37">
+        <v>65634505</v>
+      </c>
+      <c r="N37" t="s">
+        <v>154</v>
+      </c>
+      <c r="O37">
+        <v>258</v>
+      </c>
+      <c r="P37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" t="s">
+        <v>157</v>
+      </c>
+      <c r="K38" t="s">
+        <v>158</v>
+      </c>
+      <c r="L38">
+        <v>67639455</v>
+      </c>
+      <c r="M38">
+        <v>67633577</v>
+      </c>
+      <c r="N38" t="s">
+        <v>159</v>
+      </c>
+      <c r="O38">
+        <v>335</v>
+      </c>
+      <c r="P38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" t="s">
+        <v>163</v>
+      </c>
+      <c r="K39" t="s">
+        <v>164</v>
+      </c>
+      <c r="L39">
+        <v>62698832</v>
+      </c>
+      <c r="M39">
+        <v>63575516</v>
+      </c>
+      <c r="N39" t="s">
+        <v>165</v>
+      </c>
+      <c r="O39">
+        <v>159</v>
+      </c>
+      <c r="P39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" t="s">
+        <v>168</v>
+      </c>
+      <c r="K40" t="s">
+        <v>169</v>
+      </c>
+      <c r="L40">
+        <v>62889470</v>
+      </c>
+      <c r="M40">
+        <v>62898615</v>
+      </c>
+      <c r="N40" t="s">
+        <v>170</v>
+      </c>
+      <c r="O40">
+        <v>58</v>
+      </c>
+      <c r="P40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>173</v>
+      </c>
+      <c r="I41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" t="s">
+        <v>174</v>
+      </c>
+      <c r="K41" t="s">
+        <v>175</v>
+      </c>
+      <c r="L41">
+        <v>67932039</v>
+      </c>
+      <c r="M41"/>
+      <c r="N41" t="s">
+        <v>176</v>
+      </c>
+      <c r="O41">
+        <v>36</v>
+      </c>
+      <c r="P41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" t="s">
+        <v>179</v>
+      </c>
+      <c r="K42" t="s">
+        <v>180</v>
+      </c>
+      <c r="L42">
+        <v>65729100</v>
+      </c>
+      <c r="M42">
+        <v>67636560</v>
+      </c>
+      <c r="N42" t="s">
+        <v>181</v>
+      </c>
+      <c r="O42">
+        <v>234</v>
+      </c>
+      <c r="P42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" t="s">
+        <v>184</v>
+      </c>
+      <c r="K43" t="s">
+        <v>185</v>
+      </c>
+      <c r="L43">
+        <v>64741421</v>
+      </c>
+      <c r="M43">
+        <v>64741302</v>
+      </c>
+      <c r="N43" t="s">
+        <v>186</v>
+      </c>
+      <c r="O43">
+        <v>251</v>
+      </c>
+      <c r="P43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s">
+        <v>173</v>
+      </c>
+      <c r="I44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" t="s">
+        <v>184</v>
+      </c>
+      <c r="K44" t="s">
+        <v>185</v>
+      </c>
+      <c r="L44">
+        <v>64741421</v>
+      </c>
+      <c r="M44">
+        <v>64741302</v>
+      </c>
+      <c r="N44" t="s">
+        <v>189</v>
+      </c>
+      <c r="O44">
+        <v>198</v>
+      </c>
+      <c r="P44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" t="s">
+        <v>192</v>
+      </c>
+      <c r="K45" t="s">
+        <v>193</v>
+      </c>
+      <c r="L45">
+        <v>67697176</v>
+      </c>
+      <c r="M45"/>
+      <c r="N45" t="s">
+        <v>132</v>
+      </c>
+      <c r="O45">
+        <v>258</v>
+      </c>
+      <c r="P45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
         <v>195</v>
       </c>
-      <c r="P6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>173</v>
+      </c>
+      <c r="I46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" t="s">
+        <v>196</v>
+      </c>
+      <c r="K46" t="s">
+        <v>197</v>
+      </c>
+      <c r="L46">
+        <v>63683925</v>
+      </c>
+      <c r="M46">
+        <v>63670117</v>
+      </c>
+      <c r="N46" t="s">
+        <v>198</v>
+      </c>
+      <c r="O46">
+        <v>105</v>
+      </c>
+      <c r="P46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="K7" t="s">
+      <c r="B47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>200</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s">
+        <v>173</v>
+      </c>
+      <c r="I47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" t="s">
+        <v>201</v>
+      </c>
+      <c r="K47" t="s">
+        <v>202</v>
+      </c>
+      <c r="L47">
+        <v>62835413</v>
+      </c>
+      <c r="M47">
+        <v>62823882</v>
+      </c>
+      <c r="N47" t="s">
+        <v>203</v>
+      </c>
+      <c r="O47">
+        <v>228</v>
+      </c>
+      <c r="P47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="L7">
-        <v>67697255</v>
-      </c>
-      <c r="M7">
-        <v>67697244</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="B48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s">
+        <v>208</v>
+      </c>
+      <c r="I48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" t="s">
+        <v>209</v>
+      </c>
+      <c r="K48" t="s">
+        <v>210</v>
+      </c>
+      <c r="L48">
+        <v>68319636</v>
+      </c>
+      <c r="M48"/>
+      <c r="N48" t="s">
+        <v>211</v>
+      </c>
+      <c r="O48">
+        <v>97</v>
+      </c>
+      <c r="P48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="O7">
-        <v>183</v>
-      </c>
-      <c r="P7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8"/>
-      <c r="N8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8">
-        <v>181</v>
-      </c>
-      <c r="P8" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B49" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9">
-        <v>64741055</v>
-      </c>
-      <c r="M9">
-        <v>64741295</v>
-      </c>
-      <c r="N9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9">
-        <v>155</v>
-      </c>
-      <c r="P9" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10">
-        <v>64582177</v>
-      </c>
-      <c r="M10">
-        <v>64561322</v>
-      </c>
-      <c r="N10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10">
-        <v>134</v>
-      </c>
-      <c r="P10" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11">
-        <v>62575684</v>
-      </c>
-      <c r="M11">
-        <v>67558802</v>
-      </c>
-      <c r="N11" t="s">
-        <v>105</v>
-      </c>
-      <c r="O11">
-        <v>112</v>
-      </c>
-      <c r="P11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H49" t="s">
+        <v>214</v>
+      </c>
+      <c r="I49" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" t="s">
+        <v>215</v>
+      </c>
+      <c r="K49" t="s">
+        <v>216</v>
+      </c>
+      <c r="L49">
+        <v>64428307</v>
+      </c>
+      <c r="M49">
+        <v>64435973</v>
+      </c>
+      <c r="N49" t="s">
+        <v>217</v>
+      </c>
+      <c r="O49">
+        <v>316</v>
+      </c>
+      <c r="P49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -4791,7 +8445,7 @@
       <c r="O50"/>
       <c r="P50"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -4809,7 +8463,7 @@
       <c r="O51"/>
       <c r="P51"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -4827,7 +8481,7 @@
       <c r="O52"/>
       <c r="P52"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -4845,7 +8499,7 @@
       <c r="O53"/>
       <c r="P53"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -4863,7 +8517,7 @@
       <c r="O54"/>
       <c r="P54"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -4881,7 +8535,7 @@
       <c r="O55"/>
       <c r="P55"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -4899,7 +8553,7 @@
       <c r="O56"/>
       <c r="P56"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -4917,7 +8571,7 @@
       <c r="O57"/>
       <c r="P57"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -4935,7 +8589,7 @@
       <c r="O58"/>
       <c r="P58"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -4953,7 +8607,7 @@
       <c r="O59"/>
       <c r="P59"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -4971,7 +8625,7 @@
       <c r="O60"/>
       <c r="P60"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -4989,7 +8643,7 @@
       <c r="O61"/>
       <c r="P61"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -5007,7 +8661,7 @@
       <c r="O62"/>
       <c r="P62"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -5025,7 +8679,7 @@
       <c r="O63"/>
       <c r="P63"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -5043,7 +8697,7 @@
       <c r="O64"/>
       <c r="P64"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -5061,7 +8715,7 @@
       <c r="O65"/>
       <c r="P65"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -5079,7 +8733,7 @@
       <c r="O66"/>
       <c r="P66"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -5097,7 +8751,7 @@
       <c r="O67"/>
       <c r="P67"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -5115,7 +8769,7 @@
       <c r="O68"/>
       <c r="P68"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -5133,7 +8787,7 @@
       <c r="O69"/>
       <c r="P69"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -5151,7 +8805,7 @@
       <c r="O70"/>
       <c r="P70"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -5169,7 +8823,7 @@
       <c r="O71"/>
       <c r="P71"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -5187,7 +8841,7 @@
       <c r="O72"/>
       <c r="P72"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -5205,7 +8859,7 @@
       <c r="O73"/>
       <c r="P73"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -5223,7 +8877,7 @@
       <c r="O74"/>
       <c r="P74"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -5241,7 +8895,7 @@
       <c r="O75"/>
       <c r="P75"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -5259,7 +8913,7 @@
       <c r="O76"/>
       <c r="P76"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -5277,7 +8931,7 @@
       <c r="O77"/>
       <c r="P77"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -5295,7 +8949,7 @@
       <c r="O78"/>
       <c r="P78"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -5313,7 +8967,7 @@
       <c r="O79"/>
       <c r="P79"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -5331,7 +8985,7 @@
       <c r="O80"/>
       <c r="P80"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -5349,7 +9003,7 @@
       <c r="O81"/>
       <c r="P81"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -5367,7 +9021,7 @@
       <c r="O82"/>
       <c r="P82"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -5385,7 +9039,7 @@
       <c r="O83"/>
       <c r="P83"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -5403,7 +9057,7 @@
       <c r="O84"/>
       <c r="P84"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -5421,7 +9075,7 @@
       <c r="O85"/>
       <c r="P85"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -5439,7 +9093,7 @@
       <c r="O86"/>
       <c r="P86"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -5457,7 +9111,7 @@
       <c r="O87"/>
       <c r="P87"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -5475,7 +9129,7 @@
       <c r="O88"/>
       <c r="P88"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -5493,7 +9147,7 @@
       <c r="O89"/>
       <c r="P89"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -5511,7 +9165,7 @@
       <c r="O90"/>
       <c r="P90"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -5529,7 +9183,7 @@
       <c r="O91"/>
       <c r="P91"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -5547,7 +9201,7 @@
       <c r="O92"/>
       <c r="P92"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -5565,7 +9219,7 @@
       <c r="O93"/>
       <c r="P93"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -5583,7 +9237,7 @@
       <c r="O94"/>
       <c r="P94"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -5601,7 +9255,7 @@
       <c r="O95"/>
       <c r="P95"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -5619,7 +9273,7 @@
       <c r="O96"/>
       <c r="P96"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -5637,7 +9291,7 @@
       <c r="O97"/>
       <c r="P97"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -5655,7 +9309,7 @@
       <c r="O98"/>
       <c r="P98"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -5673,7 +9327,7 @@
       <c r="O99"/>
       <c r="P99"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -5691,7 +9345,7 @@
       <c r="O100"/>
       <c r="P100"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -5709,7 +9363,7 @@
       <c r="O101"/>
       <c r="P101"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -5727,7 +9381,7 @@
       <c r="O102"/>
       <c r="P102"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -5745,7 +9399,7 @@
       <c r="O103"/>
       <c r="P103"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -5763,7 +9417,7 @@
       <c r="O104"/>
       <c r="P104"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -5781,7 +9435,7 @@
       <c r="O105"/>
       <c r="P105"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -5799,7 +9453,7 @@
       <c r="O106"/>
       <c r="P106"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -5817,7 +9471,7 @@
       <c r="O107"/>
       <c r="P107"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -5835,7 +9489,7 @@
       <c r="O108"/>
       <c r="P108"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -5853,7 +9507,7 @@
       <c r="O109"/>
       <c r="P109"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -5871,7 +9525,7 @@
       <c r="O110"/>
       <c r="P110"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -5889,7 +9543,7 @@
       <c r="O111"/>
       <c r="P111"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -5907,7 +9561,7 @@
       <c r="O112"/>
       <c r="P112"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -5925,7 +9579,7 @@
       <c r="O113"/>
       <c r="P113"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -5943,7 +9597,7 @@
       <c r="O114"/>
       <c r="P114"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -5961,7 +9615,7 @@
       <c r="O115"/>
       <c r="P115"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -5979,7 +9633,7 @@
       <c r="O116"/>
       <c r="P116"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -5997,7 +9651,7 @@
       <c r="O117"/>
       <c r="P117"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -6015,7 +9669,7 @@
       <c r="O118"/>
       <c r="P118"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -6033,7 +9687,7 @@
       <c r="O119"/>
       <c r="P119"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -6051,7 +9705,7 @@
       <c r="O120"/>
       <c r="P120"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -6069,7 +9723,7 @@
       <c r="O121"/>
       <c r="P121"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -6087,7 +9741,7 @@
       <c r="O122"/>
       <c r="P122"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -6105,7 +9759,7 @@
       <c r="O123"/>
       <c r="P123"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -6123,7 +9777,7 @@
       <c r="O124"/>
       <c r="P124"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -6141,7 +9795,7 @@
       <c r="O125"/>
       <c r="P125"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -6159,7 +9813,7 @@
       <c r="O126"/>
       <c r="P126"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -6177,7 +9831,7 @@
       <c r="O127"/>
       <c r="P127"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -6195,7 +9849,7 @@
       <c r="O128"/>
       <c r="P128"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -6213,7 +9867,7 @@
       <c r="O129"/>
       <c r="P129"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -6231,7 +9885,7 @@
       <c r="O130"/>
       <c r="P130"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -6249,7 +9903,7 @@
       <c r="O131"/>
       <c r="P131"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -6257,7 +9911,7 @@
       <c r="E132"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q132">
+  <sortState ref="A2:P132">
     <sortCondition descending="1" ref="O1:O132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6265,54 +9919,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.08984375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="46" x14ac:dyDescent="1">
-      <c r="B2" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
+    <row r="2" spans="2:15" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="B2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="4" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="43" t="s">
+    <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="F4" s="43" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="F4" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="J4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
-      <c r="J4" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="51"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="K4" s="54"/>
+      <c r="L4" s="55"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -6323,7 +9977,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
@@ -6334,16 +9988,16 @@
       <c r="K7" s="20"/>
       <c r="L7" s="21"/>
     </row>
-    <row r="8" spans="2:15" ht="46" x14ac:dyDescent="1">
+    <row r="8" spans="2:15" ht="46.2" x14ac:dyDescent="0.85">
       <c r="B8" s="6"/>
       <c r="C8" s="9">
         <f>COUNT(OpenBids!A:A)</f>
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D8" s="8"/>
       <c r="F8" s="6"/>
       <c r="G8" s="13">
-        <f>COUNT(B14:B18)</f>
+        <f>COUNT(B14:B23)</f>
         <v>5</v>
       </c>
       <c r="H8" s="8"/>
@@ -6354,7 +10008,7 @@
       </c>
       <c r="L8" s="21"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -6365,7 +10019,7 @@
       <c r="K9" s="20"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
@@ -6376,160 +10030,160 @@
       <c r="K10" s="24"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="B12" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="30">
+        <f>'Top5'!A2</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="31" t="str">
+        <f>'Top5'!C2</f>
+        <v>NCS000ETQ22000010</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="38" t="str">
+        <f>'Top5'!E2</f>
+        <v>Supply of Instructors for Provision of 3-Day Secondary 1 Outdoor Adventure Camp (Non-Residential) for West Spring Secondary School</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="34" t="str">
+        <f>'Top5'!H2</f>
+        <v>21 Apr 2022 01:00PM</v>
+      </c>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="30">
+        <f>'Top5'!A3</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="31" t="str">
+        <f>'Top5'!C3</f>
+        <v>PAS000ETT22000042 / PA-ITT-2022-0014</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="38" t="str">
+        <f>'Top5'!E3</f>
+        <v>Instructors for Design Thinking Workshop for P4 Students in Yangzheng Pri School</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="34" t="str">
+        <f>'Top5'!H3</f>
+        <v>21 Apr 2022 01:00PM</v>
+      </c>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="30">
+        <f>'Top5'!A4</f>
         <v>3</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="41"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="27">
-        <f>'Top5'!A2</f>
-        <v>6</v>
-      </c>
-      <c r="C14" s="28" t="str">
-        <f>'Top5'!B2</f>
-        <v>MOESCHETQ22001805</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="35" t="str">
-        <f>'Top5'!E2</f>
-        <v>Manpower service for Science Lab 1+1 year</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="31" t="str">
-        <f>'Top5'!H2</f>
-        <v>04 May 2022 01:00PM</v>
-      </c>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="27">
-        <f>'Top5'!A3</f>
+      <c r="C16" s="31" t="str">
+        <f>'Top5'!C4</f>
+        <v>DEFNGPP7122100092</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="38" t="str">
+        <f>'Top5'!E4</f>
+        <v>2 DAYS STUDENTS LEADERS' TRAINING PROGRAMME</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="34" t="str">
+        <f>'Top5'!H4</f>
+        <v>21 Apr 2022 01:00PM</v>
+      </c>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="30">
+        <f>'Top5'!A5</f>
         <v>4</v>
       </c>
-      <c r="C15" s="28" t="str">
-        <f>'Top5'!B3</f>
-        <v>MOESCHETQ22001811</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="35" t="str">
-        <f>'Top5'!E3</f>
-        <v>Supply of Pianist for Choir CCA Programme in Clementi Primary School</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="31" t="str">
-        <f>'Top5'!H3</f>
-        <v>25 Apr 2022 01:00PM</v>
-      </c>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="27">
-        <f>'Top5'!A4</f>
-        <v>8</v>
-      </c>
-      <c r="C16" s="28" t="str">
-        <f>'Top5'!B4</f>
-        <v>MOESCHETQ22001769</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="35" t="str">
-        <f>'Top5'!E4</f>
-        <v>Primary 1 and Primary 2 Chinese Weiqi Enrichment Programme in Holy Innocents' Primary School</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="31" t="str">
-        <f>'Top5'!H4</f>
-        <v>25 Apr 2022 01:00PM</v>
-      </c>
-      <c r="L16" s="29"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="27">
-        <f>'Top5'!A5</f>
-        <v>10</v>
-      </c>
-      <c r="C17" s="28" t="str">
-        <f>'Top5'!B5</f>
-        <v>MOESCHETQ22001788</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="35" t="str">
+      <c r="C17" s="31" t="str">
+        <f>'Top5'!C5</f>
+        <v>DEFNGPP7121103928</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="38" t="str">
         <f>'Top5'!E5</f>
-        <v>Supply of Instructors for Student Leadership Training Programme in Pioneer Primary School</v>
-      </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="31" t="str">
+        <v>INVITATION TO QUOTE (ITQ) FOR THE PROVISION OF SERVICES TO PROPOSE, DEVELOP AND DELIVER MENTAL HEALTH EXPERIENTIAL CRAFT WORKSHOPS</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="34" t="str">
         <f>'Top5'!H5</f>
-        <v>25 Apr 2022 01:00PM</v>
-      </c>
-      <c r="L17" s="29"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="27">
+        <v>21 Apr 2022 01:00PM</v>
+      </c>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="30">
         <f>'Top5'!A6</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="28" t="str">
-        <f>'Top5'!B6</f>
-        <v>MOESCHETQ22001791</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="32" t="str">
+        <v>5</v>
+      </c>
+      <c r="C18" s="31" t="str">
+        <f>'Top5'!C6</f>
+        <v>DEFNGPP7122100143</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="35" t="str">
         <f>'Top5'!E6</f>
-        <v>Supply of Instructor for Student Leadership Programme for CHIJ (Katong) Primary: - P4 to P6 Prefects (Trainee &amp; Senior) and P3 to P6 Class Monitors</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="31" t="str">
+        <v>SUPPLY OF INSTRUCTORS FOR BAND INSTRUMENTAL PROGRAMME IN CRESCENT GIRLS SCHOOL  2022</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="34" t="str">
         <f>'Top5'!H6</f>
-        <v>25 Apr 2022 01:00PM</v>
-      </c>
-      <c r="L18" s="29"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+        <v>20 Apr 2022 01:00PM</v>
+      </c>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>

--- a/output/Bids.xlsx
+++ b/output/Bids.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e6431dddeb4959f/Documents/UiPath/Diamond/Project1/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\UiPath\sct9-diamond-proj1\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1599" documentId="6_{31BE4A05-BFE6-4921-85E1-1F5F3FB926AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2AF30BA-B12F-46FC-9C89-1C2D30927B4C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4909AFAA-1F53-48FA-A39D-7EB351207CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Awarded" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OpenBids!$A$1:$P$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Top5'!$A$1:$P$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="273">
   <si>
     <t>Quote</t>
   </si>
@@ -128,234 +126,16 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>13 Apr 2022 01:00PM</t>
-  </si>
-  <si>
     <t>05 Apr 2022 11:05AM</t>
   </si>
   <si>
-    <t>West Spring Secondary School, 61 Senja Road, Singapore 677737</t>
-  </si>
-  <si>
     <t>Tanglin, Singapore 248163</t>
   </si>
   <si>
-    <t>MOESCHETQ22001587</t>
-  </si>
-  <si>
-    <t>Swiss Cottage Sec Sch: Supply of Instructor for English Language programme for Sec 1 &amp; 3 students</t>
-  </si>
-  <si>
     <t>12 Apr 2022 01:00PM</t>
   </si>
   <si>
-    <t>R MAHALAKSHIMI</t>
-  </si>
-  <si>
-    <t>r_mahalakshimi@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Swiss Cottage Secondary School, No 3 Bukit Batok St 34, Singapore 659322</t>
-  </si>
-  <si>
-    <t>AGC000ETQ22000006</t>
-  </si>
-  <si>
-    <t>Provision of a Negotiations Workshop to Legal Service Officers</t>
-  </si>
-  <si>
-    <t>MS SHIRLYNN LOH</t>
-  </si>
-  <si>
-    <t>Shirlynn_Loh@agc.gov.sg</t>
-  </si>
-  <si>
-    <t>6908 9000</t>
-  </si>
-  <si>
-    <t>1 Upper Pickering Street Singapore 058288</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001571</t>
-  </si>
-  <si>
-    <t>ITQ for Supply of Instructor for Elective Module for NA and NT Students in Punggol Secondary School</t>
-  </si>
-  <si>
-    <t>NG FULIA</t>
-  </si>
-  <si>
-    <t>ng_fulia@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Punggol Secondary School
-51 Edgefield Plains
-Singapore 828870</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001570</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001570 / CPS-22/7419/04</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Student Leadership Training 2022 for Student Leaders (Online/Offline)  in Cedar Primary School.</t>
-  </si>
-  <si>
-    <t>MDM FARIDAH BINTE ABDUL HAMID</t>
-  </si>
-  <si>
-    <t>faridah_abdul_hamid@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>15 Cedar Avenue, Singapore 349700.</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001566</t>
-  </si>
-  <si>
-    <t>ITQ for instructors for Pri 5 Project Work workshop</t>
-  </si>
-  <si>
-    <t>ELAINE GOH YI LING</t>
-  </si>
-  <si>
-    <t>goh_yi_ling_elaine@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>1 Tampines St 21 (529392)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001563</t>
-  </si>
-  <si>
-    <t>Supply of Instructor for O-level Narrative Comprehension Skills Workshop in Hai Sing Catholic School</t>
-  </si>
-  <si>
-    <t>JUNE NG</t>
-  </si>
-  <si>
-    <t>9 Pasir Ris Drive 6, Singapore 519421</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001561</t>
-  </si>
-  <si>
-    <t>Supply of Instructor(s) for a 3 Day Sec 3 Adventure-Based Level Programmed (non-residential) for Yishun Secondary School</t>
-  </si>
-  <si>
     <t>11 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>MR AIDIL BIN IDRIS</t>
-  </si>
-  <si>
-    <t>aidil_idris@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Yishun Secondary School
-4 Yishun Street 71
-Singapore 768516</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001562</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001562 / SPS/2022/009</t>
-  </si>
-  <si>
-    <t>Provision of coaching programme for Lead Teachers of E7 Cluster Schools</t>
-  </si>
-  <si>
-    <t>MS GRACE LEE YUN YUN</t>
-  </si>
-  <si>
-    <t>lee_yun_yun_grace@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>St Patrick's School
-490 East Coast Road
-Singapore 429058</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001560</t>
-  </si>
-  <si>
-    <t>Supply of instructors for P6 hands-on workshop on adaptation in Fairfield Methodist School (Primary)</t>
-  </si>
-  <si>
-    <t>ROZDIYAH BTE HARUN</t>
-  </si>
-  <si>
-    <t>rozdiyah_harun@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>100 Dover Road Singapore 139648</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001559</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Leadership and Design Thinking in Sembawang Secondary School</t>
-  </si>
-  <si>
-    <t>MR RAJAKUMAR</t>
-  </si>
-  <si>
-    <t>rajakumar_raghavan@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>30 Sembawang Crescent
-Singapore 757704</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001557</t>
-  </si>
-  <si>
-    <t>Dunman High School - Provision Of Strength Programme (Profiling And Workshop) For Year 3</t>
-  </si>
-  <si>
-    <t>MS ANGIE LIM ERN CHZE</t>
-  </si>
-  <si>
-    <t>lim.ernchze@dhs.sg</t>
-  </si>
-  <si>
-    <t>Dunman High School
-10 Tanjong Rhu Road, S(436895)</t>
-  </si>
-  <si>
-    <t>AGC000ETQ22000005</t>
-  </si>
-  <si>
-    <t>ITQ for Provision of a Plain English Writing Course to AGC Officers</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001551</t>
-  </si>
-  <si>
-    <t>Dunman High School - Provision Of Leadership Programme For Year 1 (Y1) And Year 2 (Y2)</t>
-  </si>
-  <si>
-    <t>MR LOW JIN HAO</t>
-  </si>
-  <si>
-    <t>low.jinhao@dhs.sg</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001548</t>
-  </si>
-  <si>
-    <t>Supply of Instructor for 3-Day Sec 1 Outdoor Adventure and Leadership Programme at MOE Labrador OALC/KCPSS in Kuo Chuan Presbyterian Secondary School</t>
-  </si>
-  <si>
-    <t>JOSEPH CHUNG</t>
-  </si>
-  <si>
-    <t>chung_wei_peng_joseph@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>10 Bishan Street 13 Singapore 579795</t>
   </si>
   <si>
     <t>MOESCHETQ22001556</t>
@@ -838,217 +618,9 @@
     <t>Person</t>
   </si>
   <si>
-    <t>june_ng_goh_suat_hong@moe.edu.sg</t>
-  </si>
-  <si>
     <t>High Value Quote</t>
   </si>
   <si>
-    <t>MOESCHETQ22001729</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Provision of 3-Day Secondary 1 Outdoor Adventure Camp (Non-Residential) for West Spring Secondary School</t>
-  </si>
-  <si>
-    <t>12 Apr 2022 02:35PM</t>
-  </si>
-  <si>
-    <t>21 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>MR FAURONI SUKHAIMI</t>
-  </si>
-  <si>
-    <t>nai_wee_beng@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001745</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001745 / AOR2022/161(DesignThinking_P4)</t>
-  </si>
-  <si>
-    <t>Instructors for Design Thinking Workshop for P4 Students in Yangzheng Pri School</t>
-  </si>
-  <si>
-    <t>12 Apr 2022 02:19PM</t>
-  </si>
-  <si>
-    <t>MDM LASIME KUMARI</t>
-  </si>
-  <si>
-    <t>lasime_kumari@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>15 Serangoon Avenue 3, Singapore 556108</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001740</t>
-  </si>
-  <si>
-    <t>2 DAYS STUDENTS LEADERS' TRAINING PROGRAMME</t>
-  </si>
-  <si>
-    <t>12 Apr 2022 09:20AM</t>
-  </si>
-  <si>
-    <t>MS LIAW HSIAO-MEIN</t>
-  </si>
-  <si>
-    <t>liaw_hsiao_mein@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>3 Yishun Ring Road
-S(768675)</t>
-  </si>
-  <si>
-    <t>HPB000ETQ22000010</t>
-  </si>
-  <si>
-    <t>INVITATION TO QUOTE (ITQ) FOR THE PROVISION OF SERVICES TO PROPOSE, DEVELOP AND DELIVER MENTAL HEALTH EXPERIENTIAL CRAFT WORKSHOPS</t>
-  </si>
-  <si>
-    <t>Health Promotion Board</t>
-  </si>
-  <si>
-    <t>KANG LEE LIN</t>
-  </si>
-  <si>
-    <t>KANG_Lee_Lin@hpb.gov.sg</t>
-  </si>
-  <si>
-    <t>Health Promotion Board 3 Second Hospital Avenue Singapore 168937</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001735</t>
-  </si>
-  <si>
-    <t>SUPPLY OF INSTRUCTORS FOR BAND INSTRUMENTAL PROGRAMME IN CRESCENT GIRLS SCHOOL  2022</t>
-  </si>
-  <si>
-    <t>11 Apr 2022 05:04PM</t>
-  </si>
-  <si>
-    <t>20 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>NORZAIDAH BINTE SUPARMAN</t>
-  </si>
-  <si>
-    <t>NORZAIDAH_SUPARMAN@CRESCENT.EDU.SG</t>
-  </si>
-  <si>
-    <t>CRESCENT GIRLS' SCHOOL</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001734</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001734 / MOESCHEAR22015582</t>
-  </si>
-  <si>
-    <t>Stamford Pri Sch - Supply of instructors for Design Thinking Project Coaching for Student Teams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINCOLN SHEN </t>
-  </si>
-  <si>
-    <t>shen_pinhong@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>1 Victoria Lane
-Singapore 198423</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001722</t>
-  </si>
-  <si>
-    <t>Supply of Instructor for Student Leadership Challenge Programme for Student Leaders (2022)</t>
-  </si>
-  <si>
-    <t>11 Apr 2022 04:34PM</t>
-  </si>
-  <si>
-    <t>ALVIN LOH</t>
-  </si>
-  <si>
-    <t>loh_yongjie@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>St. Margaret's Secondary School
-111 Farrer Road
-Singapore 259240</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001716</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001716 / RIV_ITQ220024</t>
-  </si>
-  <si>
-    <t>RIVPS: SUPPLY OF INSTRUCTORS FOR P1AND P2 CHINESE SPEECH &amp; DRAMA ENRICHMENT PROGRAMME IN RIVERVALE PRIMARY SCHOOL</t>
-  </si>
-  <si>
-    <t>11 Apr 2022 04:04PM</t>
-  </si>
-  <si>
-    <t>RAN YIJUN</t>
-  </si>
-  <si>
-    <t>ran_yijun@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>80 RIVERVALE DRIVE
-SINGAPORE 545092</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001724</t>
-  </si>
-  <si>
-    <t>2 Days FALCONS Leadership Day Camp for Nan Chiau High School from 20-21 May 2022 (Non-residential)</t>
-  </si>
-  <si>
-    <t>MR AW SI KUAN</t>
-  </si>
-  <si>
-    <t>aw_si_kuan@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>20 Anchorvale Link, S(545079)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001720</t>
-  </si>
-  <si>
-    <t>The Provision of Blended/Face-To-Face Workshop on Standard First Aid (SFA) Course and Automated External Defibrillator (AED) Module</t>
-  </si>
-  <si>
-    <t>MR NEO ENG YEOW</t>
-  </si>
-  <si>
-    <t>neo_eng_yeow@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Nan Hua Primary School
-30 Jalan Lempeng
-Singapore 128806</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001703</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Career Design Simulation Programme for Secondary 3 Students in Presbyterian High School</t>
-  </si>
-  <si>
-    <t>MRS FAITH CHEN</t>
-  </si>
-  <si>
-    <t>mai_xueling@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>Presbyterian High School, 5209 Ang Mo Kio Ave 6 Singapore 569845</t>
-  </si>
-  <si>
     <t>MOESCHETQ22001322 / JYSS0102022</t>
   </si>
   <si>
@@ -1071,6 +643,243 @@
   </si>
   <si>
     <t>15,480.00 (SGD)</t>
+  </si>
+  <si>
+    <t>Agency_1</t>
+  </si>
+  <si>
+    <t>Published Date_1</t>
+  </si>
+  <si>
+    <t>Closing Date_1</t>
+  </si>
+  <si>
+    <t>Briefing Date_1</t>
+  </si>
+  <si>
+    <t>Contact's Name_1</t>
+  </si>
+  <si>
+    <t>Contact's Email_1</t>
+  </si>
+  <si>
+    <t>Contact's Tel_1</t>
+  </si>
+  <si>
+    <t>Contact's Fax_1</t>
+  </si>
+  <si>
+    <t>Contact's Address_1</t>
+  </si>
+  <si>
+    <t>Download Link_1</t>
+  </si>
+  <si>
+    <t>NCS000ETQ22000010</t>
+  </si>
+  <si>
+    <t>INVITATION TO QUOTE FOR PROVISION OF CONSULTANCY AND CREATIVE SERVICES FOR A REFRESHED BRAND MARKETING DECK (Min Yan)|40169</t>
+  </si>
+  <si>
+    <t>National Council of Social Service</t>
+  </si>
+  <si>
+    <t>13 Apr 2022 09:04AM</t>
+  </si>
+  <si>
+    <t>22 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>TAN MIN YAN</t>
+  </si>
+  <si>
+    <t>tan_min_yan@ncss.gov.sg</t>
+  </si>
+  <si>
+    <t>NCSS Centre 170 Ghim Moh Road #01-02</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\NCS000ETQ22000010</t>
+  </si>
+  <si>
+    <t>PAS000ETT22000042</t>
+  </si>
+  <si>
+    <t>PAS000ETT22000042 / PA-ITT-2022-0014</t>
+  </si>
+  <si>
+    <t>PROVISION OF ORACLE RELATIONAL DATABASE MANAGEMENT SYSTEM (RDBMS) AND MIDDLEWARE SOFTWARE MAINTENANCE AND SUPPORT AND ORACLE SOLARIS SOFTWARE MAINTENA</t>
+  </si>
+  <si>
+    <t>People's Association</t>
+  </si>
+  <si>
+    <t>13 Apr 2022 12:04AM</t>
+  </si>
+  <si>
+    <t>27 Apr 2022 04:00PM</t>
+  </si>
+  <si>
+    <t>MAE FOONG</t>
+  </si>
+  <si>
+    <t>Mae_foong@tech.gov.sg</t>
+  </si>
+  <si>
+    <t>9 King George's Avenue</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\PAS000ETT22000042</t>
+  </si>
+  <si>
+    <t>DEFNGPP7122100092</t>
+  </si>
+  <si>
+    <t>Supply of Ship Spares</t>
+  </si>
+  <si>
+    <t>Ministry of Defence 6</t>
+  </si>
+  <si>
+    <t>09 May 2022 04:00PM</t>
+  </si>
+  <si>
+    <t>LOW KIM CHUAN IVAN</t>
+  </si>
+  <si>
+    <t>LKIMCHUA@dsta.gov.sg</t>
+  </si>
+  <si>
+    <t>6273 4823</t>
+  </si>
+  <si>
+    <t>1 Depot Road, Singapore 109679</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\DEFNGPP7122100092</t>
+  </si>
+  <si>
+    <t>DEFNGPP7121103928</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>26 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>YEO ZHAO YONG</t>
+  </si>
+  <si>
+    <t>YZHAOYON@dsta.gov.sg</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\DEFNGPP7121103928</t>
+  </si>
+  <si>
+    <t>DEFNGPP7122100143</t>
+  </si>
+  <si>
+    <t>Provision of Event Management Services</t>
+  </si>
+  <si>
+    <t>27 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>LIM YIJIE</t>
+  </si>
+  <si>
+    <t>LYIJIE@dsta.gov.sg</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\DEFNGPP7122100143</t>
+  </si>
+  <si>
+    <t>DEFNGPP7122100113</t>
+  </si>
+  <si>
+    <t>SHIP SPARES</t>
+  </si>
+  <si>
+    <t>JAYA KUMARI C</t>
+  </si>
+  <si>
+    <t>JKUMARI@DSTA.GOV.SG</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\DEFNGPP7122100113</t>
+  </si>
+  <si>
+    <t>DEFNGPP7122100088</t>
+  </si>
+  <si>
+    <t>29 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\DEFNGPP7122100088</t>
+  </si>
+  <si>
+    <t>YRS000ETT22000001</t>
+  </si>
+  <si>
+    <t>YRS000ETT22000001 / YRSG/T02/2022</t>
+  </si>
+  <si>
+    <t>Provision of training in Employability Skills, Digital Literacy and Workplace Literacy</t>
+  </si>
+  <si>
+    <t>Yellow Ribbon Singapore</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 06:35PM</t>
+  </si>
+  <si>
+    <t>06 May 2022 04:00PM</t>
+  </si>
+  <si>
+    <t>21 Apr 2022 03:00PM</t>
+  </si>
+  <si>
+    <t>FAEZAH BINTE RADIMAN</t>
+  </si>
+  <si>
+    <t>Faezah_Radiman@yellowribbon.gov.sg</t>
+  </si>
+  <si>
+    <t>980 Upper Changi Road North, S507708</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\YRS000ETT22000001</t>
+  </si>
+  <si>
+    <t>MOE000ETQ22000102</t>
+  </si>
+  <si>
+    <t>Provision of Facilitator/s to coach and train  MOE Language Centre Key Personnels(KPs) and Staff in a series Leadership and Professional Programmes</t>
+  </si>
+  <si>
+    <t>04 May 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>TAN LAI ENG</t>
+  </si>
+  <si>
+    <t>tan_lai_eng@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>11, Bishan Street 14 Singapore 579782</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOE000ETQ22000102</t>
+  </si>
+  <si>
+    <t>MOE000ETQ22000101</t>
+  </si>
+  <si>
+    <t>Conduct a half day Staff Bonding Programme for All Staff of Ministry of Education Language Centre</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOE000ETQ22000101</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1389,6 +1198,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1511,34 +1323,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1550,34 +1362,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>399</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>389</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>381</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>372</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>371</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>369</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>342</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>340</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>323</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2062,7 +1874,8 @@
         <c:axId val="709858904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="280"/>
+          <c:max val="450"/>
+          <c:min val="250"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3132,10 +2945,10 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -3143,19 +2956,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -3163,19 +2976,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -3183,19 +2996,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -3203,19 +3016,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -3223,19 +3036,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -3243,19 +3056,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -3263,19 +3076,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>323</v>
+        <v>186</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>324</v>
+        <v>187</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -3283,19 +3096,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>247</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -3303,19 +3116,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -3323,19 +3136,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>327</v>
+        <v>190</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>328</v>
+        <v>191</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>329</v>
+        <v>192</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>330</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3345,7 +3158,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39582A0F-F993-4278-A272-EAB12E1434D8}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A23" sqref="A1:XFD1048576"/>
@@ -3358,7 +3171,7 @@
     <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3402,1271 +3215,2069 @@
         <v>19</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="L2" s="1">
-        <v>68920369</v>
+        <v>62102606</v>
       </c>
       <c r="M2" s="1">
-        <v>68929468</v>
+        <v>64681012</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="O2" s="29">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="W2" s="1">
+        <v>62102606</v>
+      </c>
+      <c r="X2" s="1">
+        <v>64681012</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="L3" s="1">
-        <v>62846298</v>
-      </c>
-      <c r="M3" s="1">
-        <v>62879778</v>
+        <v>63977568</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="O3" s="29">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="W3" s="1">
+        <v>63977568</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L4" s="1">
-        <v>62579873</v>
-      </c>
-      <c r="M4" s="1">
-        <v>62574373</v>
+        <v>68194154</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="O4" s="29">
-        <v>399</v>
+        <v>285</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="W4" s="1">
+        <v>68194154</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="L5" s="1">
-        <v>64353273</v>
+        <v>68194149</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="O5" s="29">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="W5" s="1">
+        <v>68194149</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="L6" s="1">
-        <v>64758711</v>
-      </c>
-      <c r="M6" s="1">
-        <v>64741248</v>
+        <v>68194049</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="O6" s="29">
-        <v>372</v>
+        <v>73</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="W6" s="1">
+        <v>68194049</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="L7" s="1">
-        <v>62945074</v>
-      </c>
-      <c r="M7" s="1">
-        <v>62919262</v>
+        <v>68194025</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="O7" s="29">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W7" s="1">
+        <v>68194025</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="L8" s="1">
-        <v>64664525</v>
-      </c>
-      <c r="M8" s="1">
-        <v>64666709</v>
+        <v>68194154</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="O8" s="29">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="W8" s="1">
+        <v>68194154</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="L9" s="1">
-        <v>63887450</v>
+        <v>62142839</v>
       </c>
       <c r="M9" s="1">
-        <v>63887449</v>
+        <v>65467441</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="O9" s="29">
-        <v>151</v>
+        <v>308</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W9" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X9" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="L10" s="1">
-        <v>64897971</v>
+        <v>62142839</v>
+      </c>
+      <c r="M10" s="1">
+        <v>65467441</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="O10" s="29">
-        <v>340</v>
+        <v>152</v>
       </c>
       <c r="P10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W10" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X10" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="L11" s="1">
-        <v>67788050</v>
+        <v>62142839</v>
       </c>
       <c r="M11" s="1">
-        <v>67784127</v>
+        <v>65467441</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="O11" s="29">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W11" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X11" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="L12" s="1">
-        <v>64543722</v>
+        <v>62142839</v>
       </c>
       <c r="M12" s="1">
-        <v>64543430</v>
+        <v>65467441</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>322</v>
+        <v>261</v>
       </c>
       <c r="O12" s="29">
-        <v>323</v>
+        <v>244</v>
       </c>
       <c r="P12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W12" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X12" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="L13" s="1">
-        <v>65637173</v>
+        <v>62142839</v>
       </c>
       <c r="M13" s="1">
-        <v>65693028</v>
+        <v>65467441</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="O13" s="29">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="P13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W13" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X13" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>38</v>
+        <v>260</v>
+      </c>
+      <c r="L14" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="M14" s="1">
+        <v>65467441</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="O14" s="29">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="P14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W14" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X14" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="L15" s="1">
-        <v>64897851</v>
+        <v>62142839</v>
       </c>
       <c r="M15" s="1">
-        <v>64897859</v>
+        <v>65467441</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="O15" s="29">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="P15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W15" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X15" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>259</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>49</v>
+        <v>260</v>
       </c>
       <c r="L16" s="1">
-        <v>62885633</v>
+        <v>62142839</v>
       </c>
       <c r="M16" s="1">
-        <v>62830113</v>
+        <v>65467441</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>50</v>
+        <v>261</v>
       </c>
       <c r="O16" s="29">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W16" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X16" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="1">
+        <v>62587794</v>
+      </c>
+      <c r="M17" s="1">
+        <v>62583913</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O17" s="29">
         <v>54</v>
       </c>
-      <c r="L17" s="1">
-        <v>67819002</v>
-      </c>
-      <c r="M17" s="1">
-        <v>67845054</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O17" s="29">
-        <v>137</v>
-      </c>
       <c r="P17" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="W17" s="1">
+        <v>62587794</v>
+      </c>
+      <c r="X17" s="1">
+        <v>62583913</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>271</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>58</v>
+        <v>266</v>
       </c>
       <c r="K18" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="L18" s="1">
+        <v>62587794</v>
+      </c>
+      <c r="M18" s="1">
+        <v>62583913</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O18" s="29">
+        <v>111</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L18" s="1">
-        <v>65827864</v>
-      </c>
-      <c r="M18" s="1">
-        <v>65822543</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O18" s="29">
-        <v>186</v>
-      </c>
-      <c r="P18" s="1" t="s">
+      <c r="R18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="W18" s="1">
+        <v>62587794</v>
+      </c>
+      <c r="X18" s="1">
+        <v>62583913</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="J19" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="L19" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="M19" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O19" s="29">
+        <v>96</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W19" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X19" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L20" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="M20" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O20" s="29">
+        <v>112</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W20" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X20" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L21" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="M21" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O21" s="29">
+        <v>55</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W21" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X21" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L22" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="M22" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O22" s="29">
+        <v>224</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W22" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X22" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L23" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="M23" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O23" s="29">
+        <v>181</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W23" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X23" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L24" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="M24" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O24" s="29">
         <v>63</v>
       </c>
-      <c r="K19" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="1">
-        <v>68767129</v>
-      </c>
-      <c r="M19" s="1">
-        <v>67557748</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="29">
-        <v>113</v>
-      </c>
-      <c r="P19" s="1" t="s">
+      <c r="P24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W24" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X24" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="1">
-        <v>63440929</v>
-      </c>
-      <c r="M20" s="1">
-        <v>63445152</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O20" s="29">
-        <v>369</v>
-      </c>
-      <c r="P20" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L25" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="M25" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O25" s="29">
+        <v>357</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W25" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X25" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L21" s="1">
-        <v>67788431</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O21" s="29">
+      <c r="F26" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L22" s="1">
-        <v>67566760</v>
-      </c>
-      <c r="M22" s="1">
-        <v>67585380</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O22" s="29">
-        <v>173</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" s="1">
-        <v>65936851</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O23" s="29">
-        <v>96</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="1">
-        <v>69089136</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="29">
-        <v>290</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L25" s="1">
-        <v>63450533</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O25" s="29">
-        <v>342</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="L26" s="1">
-        <v>62593811</v>
+        <v>62142839</v>
+      </c>
+      <c r="M26" s="1">
+        <v>65467441</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>97</v>
+        <v>261</v>
       </c>
       <c r="O26" s="29">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W26" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X26" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="L27" s="1">
         <v>62410417</v>
@@ -4674,96 +5285,96 @@
       <c r="M27" s="1">
         <v>64493042</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>102</v>
+      <c r="N27" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="O27" s="29">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O28" s="29">
-        <v>95</v>
+        <v>262</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="L29" s="1">
         <v>65701588</v>
@@ -4772,48 +5383,48 @@
         <v>65703680</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="O29" s="29">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="L30" s="1">
         <v>64775777</v>
@@ -4822,48 +5433,48 @@
         <v>64775700</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="O30" s="29">
-        <v>290</v>
+        <v>394</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="L31" s="1">
         <v>65661980</v>
@@ -4871,37 +5482,37 @@
       <c r="M31" s="1">
         <v>65635015</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>122</v>
+      <c r="N31" s="41" t="s">
+        <v>52</v>
       </c>
       <c r="O31" s="29">
-        <v>93</v>
+        <v>367</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>22</v>
@@ -4910,22 +5521,22 @@
         <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="L32" s="1">
         <v>64485011</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="O32" s="29">
-        <v>200</v>
+        <v>371</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -4933,93 +5544,93 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="L33" s="1">
         <v>67697176</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="O33" s="29">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="L34" s="1">
         <v>63441393</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>139</v>
+      <c r="N34" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="O34" s="29">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
@@ -5027,34 +5638,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="L35" s="1">
         <v>67676750</v>
@@ -5063,48 +5674,48 @@
         <v>67676751</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="O35" s="29">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="L36" s="1">
         <v>62816606</v>
@@ -5112,14 +5723,14 @@
       <c r="M36" s="1">
         <v>63820558</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>149</v>
+      <c r="N36" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="O36" s="29">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
@@ -5127,34 +5738,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="L37" s="1">
         <v>65634568</v>
@@ -5163,13 +5774,13 @@
         <v>65634505</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="O37" s="29">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
@@ -5177,34 +5788,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="L38" s="1">
         <v>67639455</v>
@@ -5213,48 +5824,48 @@
         <v>67633577</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="O38" s="29">
-        <v>381</v>
+        <v>61</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="L39" s="1">
         <v>62698832</v>
@@ -5262,49 +5873,49 @@
       <c r="M39" s="1">
         <v>63575516</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>165</v>
+      <c r="N39" s="41" t="s">
+        <v>95</v>
       </c>
       <c r="O39" s="29">
-        <v>292</v>
+        <v>96</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="L40" s="1">
         <v>62889470</v>
@@ -5312,14 +5923,14 @@
       <c r="M40" s="1">
         <v>62898615</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>170</v>
+      <c r="N40" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="O40" s="29">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
@@ -5327,46 +5938,46 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="L41" s="1">
         <v>67932039</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="O41" s="29">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
@@ -5374,34 +5985,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="L42" s="1">
         <v>65729100</v>
@@ -5410,13 +6021,13 @@
         <v>67636560</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="O42" s="29">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
@@ -5424,34 +6035,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="L43" s="1">
         <v>64741421</v>
@@ -5460,13 +6071,13 @@
         <v>64741302</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="O43" s="29">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
@@ -5474,34 +6085,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J44" s="28" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="L44" s="1">
         <v>64741421</v>
@@ -5510,13 +6121,13 @@
         <v>64741302</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="O44" s="29">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
@@ -5524,46 +6135,46 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="L45" s="1">
         <v>67697176</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="O45" s="29">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
@@ -5571,34 +6182,34 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="L46" s="1">
         <v>63683925</v>
@@ -5607,13 +6218,13 @@
         <v>63670117</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="O46" s="29">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
@@ -5621,34 +6232,34 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="L47" s="1">
         <v>62835413</v>
@@ -5657,13 +6268,13 @@
         <v>62823882</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="O47" s="29">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
@@ -5671,46 +6282,46 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="L48" s="1">
         <v>68319636</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="O48" s="29">
-        <v>371</v>
+        <v>138</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
@@ -5718,34 +6329,34 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="L49" s="1">
         <v>64428307</v>
@@ -5754,13 +6365,13 @@
         <v>64435973</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="O49" s="29">
-        <v>400</v>
+        <v>89</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5827,504 +6438,506 @@
         <v>19</v>
       </c>
       <c r="O1" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="P1" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>216</v>
+        <v>46</v>
       </c>
       <c r="L2">
-        <v>64428307</v>
+        <v>64775777</v>
       </c>
       <c r="M2">
-        <v>64435973</v>
+        <v>64775700</v>
       </c>
       <c r="N2" t="s">
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="O2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P2" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="G3" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="H3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" t="s">
+        <v>258</v>
+      </c>
+      <c r="J3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K3" t="s">
         <v>260</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K3" t="s">
-        <v>274</v>
-      </c>
       <c r="L3">
-        <v>62579873</v>
+        <v>62142839</v>
       </c>
       <c r="M3">
-        <v>62574373</v>
+        <v>65467441</v>
       </c>
       <c r="N3" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="O3">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="P3" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="L4">
-        <v>65637173</v>
-      </c>
-      <c r="M4">
-        <v>65693028</v>
-      </c>
+        <v>64485011</v>
+      </c>
+      <c r="M4"/>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O4">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="L5">
-        <v>67639455</v>
+        <v>65661980</v>
       </c>
       <c r="M5">
-        <v>67633577</v>
+        <v>65635015</v>
       </c>
       <c r="N5" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="O5">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="P5" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="G6" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="H6" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="J6" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="K6" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="L6">
-        <v>64758711</v>
+        <v>62142839</v>
       </c>
       <c r="M6">
-        <v>64741248</v>
+        <v>65467441</v>
       </c>
       <c r="N6" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="O6">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="P6" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="L7">
-        <v>68319636</v>
-      </c>
-      <c r="M7"/>
+        <v>62889470</v>
+      </c>
+      <c r="M7">
+        <v>62898615</v>
+      </c>
       <c r="N7" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="O7">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="P7" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="L8">
-        <v>63440929</v>
+        <v>62142839</v>
       </c>
       <c r="M8">
-        <v>63445152</v>
+        <v>65467441</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c r="O8">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="P8" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="L9">
-        <v>63450533</v>
+        <v>67697176</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="O9">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="P9" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J10" t="s">
+        <v>259</v>
+      </c>
+      <c r="K10" t="s">
+        <v>260</v>
+      </c>
+      <c r="L10">
+        <v>62142839</v>
+      </c>
+      <c r="M10">
+        <v>65467441</v>
+      </c>
+      <c r="N10" t="s">
+        <v>261</v>
+      </c>
+      <c r="O10">
         <v>308</v>
       </c>
-      <c r="C10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>309</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H10" t="s">
-        <v>285</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" t="s">
-        <v>310</v>
-      </c>
-      <c r="K10" t="s">
-        <v>311</v>
-      </c>
-      <c r="L10">
-        <v>64897971</v>
-      </c>
-      <c r="M10"/>
-      <c r="N10" t="s">
-        <v>312</v>
-      </c>
-      <c r="O10">
-        <v>340</v>
-      </c>
       <c r="P10" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="C11" t="s">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>319</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="G11" t="s">
-        <v>304</v>
+        <v>217</v>
       </c>
       <c r="H11" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="I11" t="s">
         <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>320</v>
+        <v>227</v>
       </c>
       <c r="K11" t="s">
-        <v>321</v>
+        <v>228</v>
       </c>
       <c r="L11">
-        <v>64543722</v>
-      </c>
-      <c r="M11">
-        <v>64543430</v>
+        <v>68194154</v>
+      </c>
+      <c r="M11" t="s">
+        <v>229</v>
       </c>
       <c r="N11" t="s">
-        <v>322</v>
+        <v>230</v>
       </c>
       <c r="O11">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="P11" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -8506,8 +9119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView showGridLines="0" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8516,39 +9129,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="46" x14ac:dyDescent="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
     <row r="4" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="F4" s="46" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="F4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
-      <c r="J4" s="52" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="J4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="55"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
@@ -8615,46 +9228,46 @@
       <c r="L10" s="25"/>
     </row>
     <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
+      <c r="B12" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="44" t="s">
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="44"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="30">
         <f>'Top5'!A2</f>
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C14" s="31" t="str">
         <f>'Top5'!C2</f>
-        <v>MOESCHETQ22001491</v>
+        <v>MOESCHETQ22001552</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="38" t="str">
         <f>'Top5'!E2</f>
-        <v>Invitation to Quote for Supply of Instructors and Microbit for Applied Learning Programme for Primary 5 Students in Tao Nan School</v>
+        <v>CliftonStrengths Profiling and Professional Development Workshop 2022 at CHIJ St. Theresa's Convent</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
@@ -8663,23 +9276,23 @@
       <c r="J14" s="40"/>
       <c r="K14" s="34" t="str">
         <f>'Top5'!H2</f>
-        <v>06 Apr 2022 01:00PM</v>
+        <v>11 Apr 2022 01:00PM</v>
       </c>
       <c r="L14" s="32"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="30">
         <f>'Top5'!A3</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C15" s="31" t="str">
         <f>'Top5'!C3</f>
-        <v>MOESCHETQ22001740</v>
+        <v>YRS000ETT22000001 / YRSG/T02/2022</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="38" t="str">
         <f>'Top5'!E3</f>
-        <v>2 DAYS STUDENTS LEADERS' TRAINING PROGRAMME</v>
+        <v>Provision of training in Employability Skills, Digital Literacy and Workplace Literacy</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -8688,23 +9301,23 @@
       <c r="J15" s="40"/>
       <c r="K15" s="34" t="str">
         <f>'Top5'!H3</f>
-        <v>21 Apr 2022 01:00PM</v>
+        <v>06 May 2022 04:00PM</v>
       </c>
       <c r="L15" s="32"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="30">
         <f>'Top5'!A4</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C16" s="31" t="str">
         <f>'Top5'!C4</f>
-        <v>MOESCHETQ22001587</v>
+        <v>MOESCHETQ22001541</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="38" t="str">
         <f>'Top5'!E4</f>
-        <v>Swiss Cottage Sec Sch: Supply of Instructor for English Language programme for Sec 1 &amp; 3 students</v>
+        <v>Supply of 3-Day Student Leadership Training Programme for Victoria Junior College.</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -8713,23 +9326,23 @@
       <c r="J16" s="40"/>
       <c r="K16" s="34" t="str">
         <f>'Top5'!H4</f>
-        <v>12 Apr 2022 01:00PM</v>
+        <v>14 Apr 2022 01:00PM</v>
       </c>
       <c r="L16" s="32"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="30">
         <f>'Top5'!A5</f>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C17" s="31" t="str">
         <f>'Top5'!C5</f>
-        <v>MOESCHETQ22001513</v>
+        <v>MOESCHETQ22001544</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="38" t="str">
         <f>'Top5'!E5</f>
-        <v>Supply of Instructors for Sec 1 Public Speaking Programme in Zhenghua Sec Sch</v>
+        <v>Supply of Instructors for Leadership Developmental Programme for P5 Cohort students in Bukit View Primary School</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -8738,23 +9351,23 @@
       <c r="J17" s="40"/>
       <c r="K17" s="34" t="str">
         <f>'Top5'!H5</f>
-        <v>08 Apr 2022 01:00PM</v>
+        <v>11 Apr 2022 01:00PM</v>
       </c>
       <c r="L17" s="32"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="30">
         <f>'Top5'!A6</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" s="31" t="str">
         <f>'Top5'!C6</f>
-        <v>MOESCHETQ22001735</v>
+        <v>YRS000ETT22000001 / YRSG/T02/2022</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="35" t="str">
         <f>'Top5'!E6</f>
-        <v>SUPPLY OF INSTRUCTORS FOR BAND INSTRUMENTAL PROGRAMME IN CRESCENT GIRLS SCHOOL  2022</v>
+        <v>Provision of training in Employability Skills, Digital Literacy and Workplace Literacy</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
@@ -8763,7 +9376,7 @@
       <c r="J18" s="37"/>
       <c r="K18" s="34" t="str">
         <f>'Top5'!H6</f>
-        <v>20 Apr 2022 01:00PM</v>
+        <v>06 May 2022 04:00PM</v>
       </c>
       <c r="L18" s="32"/>
     </row>

--- a/output/Bids.xlsx
+++ b/output/Bids.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\UiPath\sct9-diamond-proj1\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e6431dddeb4959f/Documents/UiPath/Diamond/Project1/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4909AFAA-1F53-48FA-A39D-7EB351207CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2559" documentId="13_ncr:1_{4909AFAA-1F53-48FA-A39D-7EB351207CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B3B2F28-8C52-437C-B5E0-F97FB8448FC3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Awarded" sheetId="3" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="Overview" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OpenBids!$A$1:$P$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OpenBids!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Top5'!$A$1:$P$49</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="159">
   <si>
     <t>Quote</t>
   </si>
@@ -49,15 +51,6 @@
   </si>
   <si>
     <t>Total Open Bids</t>
-  </si>
-  <si>
-    <t>DashBoard</t>
-  </si>
-  <si>
-    <t>Potential Competitor</t>
-  </si>
-  <si>
-    <t>Item</t>
   </si>
   <si>
     <t>Title</t>
@@ -114,403 +107,278 @@
     <t>Contact's Address</t>
   </si>
   <si>
+    <t>Awarded Coy</t>
+  </si>
+  <si>
+    <t>Bid Price</t>
+  </si>
+  <si>
+    <t>High Value Quote</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Potential Competitors</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001771</t>
+  </si>
+  <si>
     <t>Quotation</t>
   </si>
   <si>
+    <t>FHSS - ECG Day 2022 Self Profiling for Secondary 4 and 5 students</t>
+  </si>
+  <si>
     <t>Ministry of Education - Schools</t>
   </si>
   <si>
-    <t>14 Apr 2022 01:00PM</t>
+    <t>13 Apr 2022 01:49PM</t>
+  </si>
+  <si>
+    <t>22 Apr 2022 01:00PM</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>05 Apr 2022 11:05AM</t>
-  </si>
-  <si>
-    <t>Tanglin, Singapore 248163</t>
-  </si>
-  <si>
-    <t>12 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>11 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001556</t>
-  </si>
-  <si>
-    <t>Supply and Delivery of 3-Day Non-Residential Primary 5 Adventure Learning Cohort Camp Programme for Opera Estate Primary School 2022</t>
-  </si>
-  <si>
-    <t>JENNIFER NG</t>
-  </si>
-  <si>
-    <t>ng_siew_hoong@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>48 Fidelio Street
-Singapore 458436</t>
-  </si>
-  <si>
-    <t>FOR000ETQ22000016</t>
-  </si>
-  <si>
-    <t>Engagement of a Training Agency to conduct an online course on Health Policy &amp; the Role of Data &amp; Technology in Healthcare</t>
-  </si>
-  <si>
-    <t>GOH KAIJIE</t>
-  </si>
-  <si>
-    <t>Sri_Weerdah_ABDULLAH@MFA.gov.sg</t>
-  </si>
-  <si>
-    <t>6379 8475</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001553</t>
-  </si>
-  <si>
-    <t>First aid course for staff</t>
-  </si>
-  <si>
-    <t>ALISON TEO</t>
-  </si>
-  <si>
-    <t>teo_yili_alison@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>9 Punggol Place Singapore 828845</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001552</t>
-  </si>
-  <si>
-    <t>CliftonStrengths Profiling and Professional Development Workshop 2022 at CHIJ St. Theresa's Convent</t>
-  </si>
-  <si>
-    <t>MR BRYAN LIM</t>
-  </si>
-  <si>
-    <t>lim_choon_huat@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>160 Lower Delta Road Singapore 099138</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001544</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Leadership Developmental Programme for P5 Cohort students in Bukit View Primary School</t>
-  </si>
-  <si>
-    <t>MDM TAN MING SAY</t>
-  </si>
-  <si>
-    <t>tan_ming_say@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>Bukit View Primary School
-18 Bukit Batok Street 21
-Singapore 659634</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001541</t>
-  </si>
-  <si>
-    <t>Supply of 3-Day Student Leadership Training Programme for Victoria Junior College.</t>
-  </si>
-  <si>
-    <t>KOH SEOW CHIN</t>
-  </si>
-  <si>
-    <t>KOH_Seow_Chin@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>20 Marine Vista, Singapore 449035</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001543</t>
-  </si>
-  <si>
-    <t>Supply of Instructor for P5 &amp; P6 Carpe Diem Motivation Workshop in South View Primary School</t>
-  </si>
-  <si>
-    <t>NUR FARHANAH SUHAIRI</t>
-  </si>
-  <si>
-    <t>nur_farhanah_suhairi@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>South View Pri School, 6 Choa Chu Kang Central, Singapore 689762</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001539</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001539 / Pupil Well-being-28/3/2022</t>
-  </si>
-  <si>
-    <t>Sec 1 OAL Camp</t>
-  </si>
-  <si>
-    <t>08 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>MS TAMMIE HO</t>
-  </si>
-  <si>
-    <t>tammie_ho@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>50 Goodman Road
-Singapore 439012</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001535</t>
-  </si>
-  <si>
-    <t>Coloured Brain Communication Workshop for W2 SLs</t>
-  </si>
-  <si>
-    <t>YEO CAIXIA</t>
-  </si>
-  <si>
-    <t>yeo_caixia@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>21 Choa Chu Kang Crescent 688268</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001515</t>
-  </si>
-  <si>
-    <t>Sec 1 Outdoor Adventure Learning Camp 2022 (3 Days)</t>
-  </si>
-  <si>
-    <t>MR WONG KHAI YU</t>
-  </si>
-  <si>
-    <t>wong_khai_yu@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>296 Lorong Ah Soo
-Singapore 536742</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001512</t>
-  </si>
-  <si>
-    <t>Sec 3 Outdoor Adventure Camp in Hua Yi Secondary School</t>
-  </si>
-  <si>
-    <t>LEE TAOJING</t>
-  </si>
-  <si>
-    <t>lee_taojing@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Hua Yi Secondary School 60 Jurong West St 42 Singapore 649371</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001513</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Sec 1 Public Speaking Programme in Zhenghua Sec Sch</t>
-  </si>
-  <si>
-    <t>TAN DANWEI CLAUDIA</t>
-  </si>
-  <si>
-    <t>tan_danwei_claudia@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>91 Senja Road</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001511</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001511 / 1161/PE/22/003</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for 1-day Primary 3 Friendship Camp 2022</t>
-  </si>
-  <si>
-    <t>MS LYDIA TEE AI LEEN</t>
-  </si>
-  <si>
-    <t>lydia_teen_ai_leen@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Si Ling Primary School,
-61, Woodlands Ave.1,
-Singapore 739067</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001509</t>
-  </si>
-  <si>
-    <t>Supply of Instructor for the Enrichment Programmes with Career Guidance in St. Gabriel's Secondary School.</t>
-  </si>
-  <si>
-    <t>SURIANI BINTE SULAIMAN</t>
-  </si>
-  <si>
-    <t>suriani_sulaiman@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>St. Gabriel's Secondary School
-24 Serangoon Ave 1
-Singapore 556140</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001510</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for P4 Copper Tooling 2022 Programme in Pioneer Primary School</t>
-  </si>
-  <si>
-    <t>07 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>NOR ASHIKIN BUANG</t>
-  </si>
-  <si>
-    <t>Nor_ashikin_buang@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Pioneer Primary School, 31 Jurong West Street 91, S649037</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001514</t>
-  </si>
-  <si>
-    <t>Leadership Development Programme for Education Officers (EOs)</t>
-  </si>
-  <si>
-    <t>CHENG SENYUAN</t>
-  </si>
-  <si>
-    <t>Cheng_Senyuan@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>622 Upper Bukit Timah Road S(678117)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001471</t>
-  </si>
-  <si>
-    <t>1 Star Kayaking Certification</t>
-  </si>
-  <si>
-    <t>TEO YONG CHIN</t>
-  </si>
-  <si>
-    <t>teo_yong_chin@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>2A Margaret Drive Singapore 149295</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001475</t>
-  </si>
-  <si>
-    <t>Standard First Aid Course (CPR &amp; AED) with certification in Queensway Secondary School</t>
-  </si>
-  <si>
-    <t>2A Margaret Drive</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001507</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for P5 &amp; P6 Carpe Diem Learning Journey in South View Primary School.</t>
-  </si>
-  <si>
-    <t>TAN PEI FEN</t>
-  </si>
-  <si>
-    <t>fun_pei_fen@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001492</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Malay Language (ML) Speech and Drama Programme</t>
-  </si>
-  <si>
-    <t>HAJJAH MARZIA ABDUL RAHMAN</t>
-  </si>
-  <si>
-    <t>hajjah_marzia@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>23 Woodlands Ave , Fuchun Primary School, Singapore 739063</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001504</t>
-  </si>
-  <si>
-    <t>2022 P3 to P5 Pupil Leadership Training</t>
-  </si>
-  <si>
-    <t>MS NG YEN TIN</t>
-  </si>
-  <si>
-    <t>ng_yen_tin@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>Zhonghua Primary School 12 Serangoon Ave 4 (S)556095</t>
-  </si>
-  <si>
-    <t>MOE000ETT22000023</t>
-  </si>
-  <si>
-    <t>MOE000ETT22000023 / MOE/22/SEB/001</t>
+    <t>MISS SITI ROHANI HANIM BINTE SELAMAT</t>
+  </si>
+  <si>
+    <t>siti_rohani_hanim_selamat@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>5 Jurong West Street 41, Singapore 649410</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001765</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Provision of English Debate Programme in Jurong Secondary School.</t>
+  </si>
+  <si>
+    <t>13 Apr 2022 01:05PM</t>
+  </si>
+  <si>
+    <t>MS SUTHA RAJASEKARAN</t>
+  </si>
+  <si>
+    <t>sutha_rajasekaran@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>31 Yuan Ching Road
+Singapore 618652</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001767</t>
+  </si>
+  <si>
+    <t>SUPPLY OF INSTRUCTORS FOR SPEECH AND DRAMA PROGRAMME, GEYLANG METHODIST SCHOOL (PRIMARY)</t>
+  </si>
+  <si>
+    <t>13 Apr 2022 12:50PM</t>
+  </si>
+  <si>
+    <t>MRS TAN-LIM SIEW KUAN</t>
+  </si>
+  <si>
+    <t>lim_siew_kuan@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>4 GEYLANG EAST CENTRAL SINGAPORE 389706</t>
+  </si>
+  <si>
+    <t>NYP000ETQ22000080</t>
+  </si>
+  <si>
+    <t>NYP000ETQ22000080 / AOR2201281P</t>
+  </si>
+  <si>
+    <t>Invitation to Quote for the Provision of Virtual Innovation and Enterprise Booster-1 programme For NYP Learners</t>
+  </si>
+  <si>
+    <t>Nanyang Polytechnic</t>
+  </si>
+  <si>
+    <t>13 Apr 2022 12:20PM</t>
+  </si>
+  <si>
+    <t>KEN LIM</t>
+  </si>
+  <si>
+    <t>ken_lim@nyp.edu.sg</t>
+  </si>
+  <si>
+    <t>6550 0516</t>
+  </si>
+  <si>
+    <t>Nanyang Polytechnic, 180 Ang Mo Kio Ave 8, Singapore 569830</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001758</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001758 / Level Camp/2022/02</t>
+  </si>
+  <si>
+    <t>Provision of instructors, equipment and venues (venues for water-based activities only) for 3 Days Non-Residential Secondary 2 Outdoor Adventure Camp</t>
+  </si>
+  <si>
+    <t>13 Apr 2022 10:20AM</t>
+  </si>
+  <si>
+    <t>25 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>TAN WEE HIAN</t>
+  </si>
+  <si>
+    <t>TAN_Wee_Hian@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>CHIJ Katong Convent
+346 Marine Terrace
+Singapore 449150</t>
+  </si>
+  <si>
+    <t>YRS000ETT22000001</t>
+  </si>
+  <si>
+    <t>YRS000ETT22000001 / YRSG/T02/2022</t>
   </si>
   <si>
     <t>Tender</t>
   </si>
   <si>
-    <t>Courses for SPED School Educators and Professionals in FY2022/FY2023, namely Understanding and Teaching Students with Autism and Supporting Students w</t>
-  </si>
-  <si>
-    <t>28 Apr 2022 04:00PM</t>
-  </si>
-  <si>
-    <t>AQILAH A RAHIM</t>
-  </si>
-  <si>
-    <t>aqilah_abdul_rahim@moe.gov.sg</t>
-  </si>
-  <si>
-    <t>Blk 5, 51 Grange Road, #03-01 Singapore 249564</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001491</t>
-  </si>
-  <si>
-    <t>Invitation to Quote for Supply of Instructors and Microbit for Applied Learning Programme for Primary 5 Students in Tao Nan School</t>
-  </si>
-  <si>
-    <t>06 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>MISS CHEE SIOK TUAN JANICE</t>
-  </si>
-  <si>
-    <t>chee_siok_tuan@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>Tao Nan School, 49 Marine Crescent Singapore 449761</t>
-  </si>
-  <si>
-    <t>Awarded Coy</t>
-  </si>
-  <si>
-    <t>Bid Price</t>
+    <t>Provision of training in Employability Skills, Digital Literacy and Workplace Literacy</t>
+  </si>
+  <si>
+    <t>Yellow Ribbon Singapore</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 06:35PM</t>
+  </si>
+  <si>
+    <t>06 May 2022 04:00PM</t>
+  </si>
+  <si>
+    <t>FAEZAH BINTE RADIMAN</t>
+  </si>
+  <si>
+    <t>Faezah_Radiman@yellowribbon.gov.sg</t>
+  </si>
+  <si>
+    <t>980 Upper Changi Road North, S507708</t>
+  </si>
+  <si>
+    <t>MOE000ETQ22000102</t>
+  </si>
+  <si>
+    <t>Provision of Facilitator/s to coach and train  MOE Language Centre Key Personnels(KPs) and Staff in a series Leadership and Professional Programmes</t>
+  </si>
+  <si>
+    <t>Ministry of Education</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 06:05PM</t>
+  </si>
+  <si>
+    <t>04 May 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>TAN LAI ENG</t>
+  </si>
+  <si>
+    <t>tan_lai_eng@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>11, Bishan Street 14 Singapore 579782</t>
+  </si>
+  <si>
+    <t>FOR000ETQ22000019</t>
+  </si>
+  <si>
+    <t>Provision of Hebrew language training for 3 MFA officers in Tel Aviv</t>
+  </si>
+  <si>
+    <t>Ministry of Foreign Affairs</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 04:35PM</t>
+  </si>
+  <si>
+    <t>26 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>NARELLE LEE SALIKIN</t>
+  </si>
+  <si>
+    <t>Narelle_Lee_Salikin@mfa.gov.sg</t>
+  </si>
+  <si>
+    <t>1 Sherwood Road, Tanglin</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001729</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Provision of 3-Day Secondary 1 Outdoor Adventure Camp (Non-Residential) for West Spring Secondary School</t>
+  </si>
+  <si>
+    <t>21 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>MR FAURONI SUKHAIMI</t>
+  </si>
+  <si>
+    <t>nai_wee_beng@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>West Spring Secondary School, 61 Senja Road, Singapore 677737</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001745</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001745 / AOR2022/161(DesignThinking_P4)</t>
+  </si>
+  <si>
+    <t>Instructors for Design Thinking Workshop for P4 Students in Yangzheng Pri School</t>
+  </si>
+  <si>
+    <t>MDM LASIME KUMARI</t>
+  </si>
+  <si>
+    <t>lasime_kumari@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>15 Serangoon Avenue 3, Singapore 556108</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001740</t>
+  </si>
+  <si>
+    <t>2 DAYS STUDENTS LEADERS' TRAINING PROGRAMME</t>
+  </si>
+  <si>
+    <t>MS LIAW HSIAO-MEIN</t>
+  </si>
+  <si>
+    <t>liaw_hsiao_mein@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>3 Yishun Ring Road
+S(768675)</t>
+  </si>
+  <si>
+    <t>Person</t>
   </si>
   <si>
     <t>MOESCHETQ22001441</t>
@@ -585,6 +453,30 @@
     <t>23,162.00 (SGD)</t>
   </si>
   <si>
+    <t>MOESCHETQ22001322 / JYSS0102022</t>
+  </si>
+  <si>
+    <t>ITQ FOR SUPPLY AND DELIVERY OF SCHOOL OPERATION SERVICE ROBOTS (2 UNITS) FOR JUYING SECONDARY SCHOOL.</t>
+  </si>
+  <si>
+    <t>ROBOSOLUTIONS PTE. LTD.</t>
+  </si>
+  <si>
+    <t>17,000.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001316</t>
+  </si>
+  <si>
+    <t>After School Programme in Kranji Secondary School</t>
+  </si>
+  <si>
+    <t>WOMEN'S INSTITUTE OF MANAGEMENT</t>
+  </si>
+  <si>
+    <t>6,185.00 (SGD)</t>
+  </si>
+  <si>
     <t>MOESCHETQ22001306</t>
   </si>
   <si>
@@ -609,277 +501,40 @@
     <t>5,125.00 (SGD)</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>UOM</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>High Value Quote</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001322 / JYSS0102022</t>
-  </si>
-  <si>
-    <t>ITQ FOR SUPPLY AND DELIVERY OF SCHOOL OPERATION SERVICE ROBOTS (2 UNITS) FOR JUYING SECONDARY SCHOOL.</t>
-  </si>
-  <si>
-    <t>ROBOSOLUTIONS PTE. LTD.</t>
-  </si>
-  <si>
-    <t>17,000.00 (SGD)</t>
-  </si>
-  <si>
-    <t>RPO000ETQ22000030</t>
-  </si>
-  <si>
-    <t>Quotation for Smart Interactive Presentation System for CED</t>
-  </si>
-  <si>
-    <t>TECH-MEN TECHNOLOGY PTE. LTD.</t>
-  </si>
-  <si>
-    <t>15,480.00 (SGD)</t>
-  </si>
-  <si>
-    <t>Agency_1</t>
-  </si>
-  <si>
-    <t>Published Date_1</t>
-  </si>
-  <si>
-    <t>Closing Date_1</t>
-  </si>
-  <si>
-    <t>Briefing Date_1</t>
-  </si>
-  <si>
-    <t>Contact's Name_1</t>
-  </si>
-  <si>
-    <t>Contact's Email_1</t>
-  </si>
-  <si>
-    <t>Contact's Tel_1</t>
-  </si>
-  <si>
-    <t>Contact's Fax_1</t>
-  </si>
-  <si>
-    <t>Contact's Address_1</t>
-  </si>
-  <si>
-    <t>Download Link_1</t>
-  </si>
-  <si>
-    <t>NCS000ETQ22000010</t>
-  </si>
-  <si>
-    <t>INVITATION TO QUOTE FOR PROVISION OF CONSULTANCY AND CREATIVE SERVICES FOR A REFRESHED BRAND MARKETING DECK (Min Yan)|40169</t>
-  </si>
-  <si>
-    <t>National Council of Social Service</t>
-  </si>
-  <si>
-    <t>13 Apr 2022 09:04AM</t>
-  </si>
-  <si>
-    <t>22 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>TAN MIN YAN</t>
-  </si>
-  <si>
-    <t>tan_min_yan@ncss.gov.sg</t>
-  </si>
-  <si>
-    <t>NCSS Centre 170 Ghim Moh Road #01-02</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\NCS000ETQ22000010</t>
-  </si>
-  <si>
-    <t>PAS000ETT22000042</t>
-  </si>
-  <si>
-    <t>PAS000ETT22000042 / PA-ITT-2022-0014</t>
-  </si>
-  <si>
-    <t>PROVISION OF ORACLE RELATIONAL DATABASE MANAGEMENT SYSTEM (RDBMS) AND MIDDLEWARE SOFTWARE MAINTENANCE AND SUPPORT AND ORACLE SOLARIS SOFTWARE MAINTENA</t>
-  </si>
-  <si>
-    <t>People's Association</t>
-  </si>
-  <si>
-    <t>13 Apr 2022 12:04AM</t>
-  </si>
-  <si>
-    <t>27 Apr 2022 04:00PM</t>
-  </si>
-  <si>
-    <t>MAE FOONG</t>
-  </si>
-  <si>
-    <t>Mae_foong@tech.gov.sg</t>
-  </si>
-  <si>
-    <t>9 King George's Avenue</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\PAS000ETT22000042</t>
-  </si>
-  <si>
-    <t>DEFNGPP7122100092</t>
-  </si>
-  <si>
-    <t>Supply of Ship Spares</t>
-  </si>
-  <si>
-    <t>Ministry of Defence 6</t>
-  </si>
-  <si>
-    <t>09 May 2022 04:00PM</t>
-  </si>
-  <si>
-    <t>LOW KIM CHUAN IVAN</t>
-  </si>
-  <si>
-    <t>LKIMCHUA@dsta.gov.sg</t>
-  </si>
-  <si>
-    <t>6273 4823</t>
-  </si>
-  <si>
-    <t>1 Depot Road, Singapore 109679</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\DEFNGPP7122100092</t>
-  </si>
-  <si>
-    <t>DEFNGPP7121103928</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>26 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>YEO ZHAO YONG</t>
-  </si>
-  <si>
-    <t>YZHAOYON@dsta.gov.sg</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\DEFNGPP7121103928</t>
-  </si>
-  <si>
-    <t>DEFNGPP7122100143</t>
-  </si>
-  <si>
-    <t>Provision of Event Management Services</t>
-  </si>
-  <si>
-    <t>27 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>LIM YIJIE</t>
-  </si>
-  <si>
-    <t>LYIJIE@dsta.gov.sg</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\DEFNGPP7122100143</t>
-  </si>
-  <si>
-    <t>DEFNGPP7122100113</t>
-  </si>
-  <si>
-    <t>SHIP SPARES</t>
-  </si>
-  <si>
-    <t>JAYA KUMARI C</t>
-  </si>
-  <si>
-    <t>JKUMARI@DSTA.GOV.SG</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\DEFNGPP7122100113</t>
-  </si>
-  <si>
-    <t>DEFNGPP7122100088</t>
-  </si>
-  <si>
-    <t>29 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\DEFNGPP7122100088</t>
-  </si>
-  <si>
-    <t>YRS000ETT22000001</t>
-  </si>
-  <si>
-    <t>YRS000ETT22000001 / YRSG/T02/2022</t>
-  </si>
-  <si>
-    <t>Provision of training in Employability Skills, Digital Literacy and Workplace Literacy</t>
-  </si>
-  <si>
-    <t>Yellow Ribbon Singapore</t>
-  </si>
-  <si>
-    <t>12 Apr 2022 06:35PM</t>
-  </si>
-  <si>
-    <t>06 May 2022 04:00PM</t>
-  </si>
-  <si>
-    <t>21 Apr 2022 03:00PM</t>
-  </si>
-  <si>
-    <t>FAEZAH BINTE RADIMAN</t>
-  </si>
-  <si>
-    <t>Faezah_Radiman@yellowribbon.gov.sg</t>
-  </si>
-  <si>
-    <t>980 Upper Changi Road North, S507708</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\YRS000ETT22000001</t>
-  </si>
-  <si>
-    <t>MOE000ETQ22000102</t>
-  </si>
-  <si>
-    <t>Provision of Facilitator/s to coach and train  MOE Language Centre Key Personnels(KPs) and Staff in a series Leadership and Professional Programmes</t>
-  </si>
-  <si>
-    <t>04 May 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>TAN LAI ENG</t>
-  </si>
-  <si>
-    <t>tan_lai_eng@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>11, Bishan Street 14 Singapore 579782</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOE000ETQ22000102</t>
-  </si>
-  <si>
-    <t>MOE000ETQ22000101</t>
-  </si>
-  <si>
-    <t>Conduct a half day Staff Bonding Programme for All Staff of Ministry of Education Language Centre</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOE000ETQ22000101</t>
+    <t>Download Link</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001771</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001765</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001767</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\NYP000ETQ22000080</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001758</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\YRS000ETT22000001</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOE000ETQ22000102</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\FOR000ETQ22000019</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001729</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001745</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001740</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1159,13 +814,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1198,9 +846,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1316,6 +961,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Top5'!$A$2:$A$132</c:f>
@@ -1323,34 +1025,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,34 +1064,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>394</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>385</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>371</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>367</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>357</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>353</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>343</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>320</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>308</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>285</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,7 +1577,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="450"/>
-          <c:min val="250"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1928,7 +1630,7 @@
         <c:crossAx val="709856608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="50"/>
         <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
@@ -2624,8 +2326,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>578555</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76729</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>16283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2921,7 +2623,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2933,22 +2635,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2956,19 +2658,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2976,19 +2678,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2996,19 +2698,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -3016,19 +2718,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -3036,19 +2738,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -3056,19 +2758,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -3076,19 +2778,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -3096,19 +2798,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -3116,19 +2818,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -3136,19 +2838,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3158,3220 +2860,652 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39582A0F-F993-4278-A272-EAB12E1434D8}">
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A23" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="8.7265625" style="1"/>
-    <col min="14" max="14" width="14.81640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="8.90625" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.7265625" style="1"/>
+    <col min="14" max="16" width="14.81640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>182</v>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1">
-        <v>62102606</v>
+        <v>65633067</v>
       </c>
       <c r="M2" s="1">
-        <v>64681012</v>
+        <v>65634379</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O2" s="29">
-        <v>160</v>
+        <v>33</v>
+      </c>
+      <c r="O2" s="1">
+        <v>365</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="W2" s="1">
-        <v>62102606</v>
-      </c>
-      <c r="X2" s="1">
-        <v>64681012</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>214</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="L3" s="1">
-        <v>63977568</v>
+        <v>62655980</v>
+      </c>
+      <c r="M3" s="1">
+        <v>62686414</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O3" s="29">
-        <v>165</v>
+        <v>39</v>
+      </c>
+      <c r="O3" s="1">
+        <v>69</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="W3" s="1">
-        <v>63977568</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="L4" s="1">
-        <v>68194154</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>229</v>
+        <v>67486746</v>
+      </c>
+      <c r="M4" s="1">
+        <v>67488980</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O4" s="29">
-        <v>285</v>
+        <v>45</v>
+      </c>
+      <c r="O4" s="1">
+        <v>55</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="W4" s="1">
-        <v>68194154</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>233</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L5" s="1">
-        <v>68194149</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>229</v>
+        <v>52</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O5" s="29">
-        <v>208</v>
+        <v>54</v>
+      </c>
+      <c r="O5" s="1">
+        <v>382</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="W5" s="1">
-        <v>68194149</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>238</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>240</v>
+        <v>59</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>242</v>
+        <v>61</v>
       </c>
       <c r="L6" s="1">
-        <v>68194049</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>229</v>
+        <v>64423482</v>
+      </c>
+      <c r="M6" s="1">
+        <v>64494405</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O6" s="29">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="O6" s="1">
+        <v>286</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="W6" s="1">
-        <v>68194049</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="L7" s="1">
-        <v>68194025</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>229</v>
+        <v>62142839</v>
+      </c>
+      <c r="M7" s="1">
+        <v>65467441</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O7" s="29">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="O7" s="1">
+        <v>189</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="W7" s="1">
-        <v>68194025</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="1">
+        <v>62587794</v>
+      </c>
+      <c r="M8" s="1">
+        <v>62583913</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="1">
         <v>250</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="L8" s="1">
-        <v>68194154</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O8" s="29">
-        <v>140</v>
-      </c>
       <c r="P8" s="1" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="W8" s="1">
-        <v>68194154</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>259</v>
+        <v>86</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c r="L9" s="1">
-        <v>62142839</v>
+        <v>63797788</v>
       </c>
       <c r="M9" s="1">
-        <v>65467441</v>
+        <v>63797997</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O9" s="29">
-        <v>308</v>
+        <v>88</v>
+      </c>
+      <c r="O9" s="1">
+        <v>77</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W9" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X9" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>260</v>
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="L10" s="1">
-        <v>62142839</v>
+        <v>68920369</v>
       </c>
       <c r="M10" s="1">
-        <v>65467441</v>
+        <v>68929468</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O10" s="29">
-        <v>152</v>
+        <v>94</v>
+      </c>
+      <c r="O10" s="1">
+        <v>240</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W10" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X10" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>252</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="L11" s="1">
-        <v>62142839</v>
+        <v>62846298</v>
       </c>
       <c r="M11" s="1">
-        <v>65467441</v>
+        <v>62879778</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O11" s="29">
-        <v>22</v>
+        <v>100</v>
+      </c>
+      <c r="O11" s="1">
+        <v>199</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W11" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X11" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>259</v>
+        <v>103</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>260</v>
+        <v>104</v>
       </c>
       <c r="L12" s="1">
-        <v>62142839</v>
+        <v>62579873</v>
       </c>
       <c r="M12" s="1">
-        <v>65467441</v>
+        <v>62574373</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O12" s="29">
-        <v>244</v>
+        <v>105</v>
+      </c>
+      <c r="O12" s="1">
+        <v>265</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W12" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X12" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L13" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="M13" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O13" s="29">
-        <v>343</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W13" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X13" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L14" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="M14" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O14" s="29">
-        <v>276</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W14" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X14" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="L15" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="M15" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O15" s="29">
-        <v>385</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W15" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X15" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L16" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="M16" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O16" s="29">
-        <v>100</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W16" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X16" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L17" s="1">
-        <v>62587794</v>
-      </c>
-      <c r="M17" s="1">
-        <v>62583913</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="O17" s="29">
-        <v>54</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="W17" s="1">
-        <v>62587794</v>
-      </c>
-      <c r="X17" s="1">
-        <v>62583913</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="L18" s="1">
-        <v>62587794</v>
-      </c>
-      <c r="M18" s="1">
-        <v>62583913</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="O18" s="29">
-        <v>111</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="W18" s="1">
-        <v>62587794</v>
-      </c>
-      <c r="X18" s="1">
-        <v>62583913</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="K19" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="L19" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="M19" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O19" s="29">
-        <v>96</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W19" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X19" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L20" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="M20" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O20" s="29">
-        <v>112</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W20" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X20" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L21" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="M21" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O21" s="29">
-        <v>55</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W21" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X21" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L22" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="M22" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O22" s="29">
-        <v>224</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W22" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X22" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>8</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L23" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="M23" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O23" s="29">
-        <v>181</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W23" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X23" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L24" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="M24" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O24" s="29">
-        <v>63</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W24" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X24" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>8</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L25" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="M25" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O25" s="29">
-        <v>357</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W25" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X25" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>11</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L26" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="M26" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O26" s="29">
-        <v>211</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W26" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="X26" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="1">
-        <v>62410417</v>
-      </c>
-      <c r="M27" s="1">
-        <v>64493042</v>
-      </c>
-      <c r="N27" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="29">
-        <v>44</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="29">
-        <v>262</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L29" s="1">
-        <v>65701588</v>
-      </c>
-      <c r="M29" s="1">
-        <v>65703680</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O29" s="29">
-        <v>121</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" s="1">
-        <v>64775777</v>
-      </c>
-      <c r="M30" s="1">
-        <v>64775700</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O30" s="29">
-        <v>394</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="87" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="L31" s="1">
-        <v>65661980</v>
-      </c>
-      <c r="M31" s="1">
-        <v>65635015</v>
-      </c>
-      <c r="N31" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31" s="29">
-        <v>367</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L32" s="1">
-        <v>64485011</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O32" s="29">
-        <v>371</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L33" s="1">
-        <v>67697176</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O33" s="29">
-        <v>54</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L34" s="1">
-        <v>63441393</v>
-      </c>
-      <c r="N34" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O34" s="29">
-        <v>271</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L35" s="1">
-        <v>67676750</v>
-      </c>
-      <c r="M35" s="1">
-        <v>67676751</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O35" s="29">
-        <v>127</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L36" s="1">
-        <v>62816606</v>
-      </c>
-      <c r="M36" s="1">
-        <v>63820558</v>
-      </c>
-      <c r="N36" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="O36" s="29">
-        <v>117</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="K37" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="L37" s="1">
-        <v>65634568</v>
-      </c>
-      <c r="M37" s="1">
-        <v>65634505</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O37" s="29">
-        <v>267</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L38" s="1">
-        <v>67639455</v>
-      </c>
-      <c r="M38" s="1">
-        <v>67633577</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O38" s="29">
-        <v>61</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="87" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L39" s="1">
-        <v>62698832</v>
-      </c>
-      <c r="M39" s="1">
-        <v>63575516</v>
-      </c>
-      <c r="N39" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="O39" s="29">
-        <v>96</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L40" s="1">
-        <v>62889470</v>
-      </c>
-      <c r="M40" s="1">
-        <v>62898615</v>
-      </c>
-      <c r="N40" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="O40" s="29">
-        <v>353</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L41" s="1">
-        <v>67932039</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O41" s="29">
-        <v>182</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K42" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="L42" s="1">
-        <v>65729100</v>
-      </c>
-      <c r="M42" s="1">
-        <v>67636560</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O42" s="29">
-        <v>193</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L43" s="1">
-        <v>64741421</v>
-      </c>
-      <c r="M43" s="1">
-        <v>64741302</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O43" s="29">
-        <v>229</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="K44" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="L44" s="1">
-        <v>64741421</v>
-      </c>
-      <c r="M44" s="1">
-        <v>64741302</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O44" s="29">
-        <v>86</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L45" s="1">
-        <v>67697176</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O45" s="29">
-        <v>320</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L46" s="1">
-        <v>63683925</v>
-      </c>
-      <c r="M46" s="1">
-        <v>63670117</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O46" s="29">
-        <v>200</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L47" s="1">
-        <v>62835413</v>
-      </c>
-      <c r="M47" s="1">
-        <v>62823882</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O47" s="29">
-        <v>209</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L48" s="1">
-        <v>68319636</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O48" s="29">
-        <v>138</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L49" s="1">
-        <v>64428307</v>
-      </c>
-      <c r="M49" s="1">
-        <v>64435973</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O49" s="29">
-        <v>89</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6381,7 +3515,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5E9977-255A-404F-9037-914CC69CEAF6}">
-  <dimension ref="A1:P132"/>
+  <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O1048576"/>
@@ -6394,553 +3528,588 @@
     <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
       <c r="O1" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="P1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2">
+        <v>382</v>
+      </c>
+      <c r="P2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2">
-        <v>64775777</v>
-      </c>
-      <c r="M2">
-        <v>64775700</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2">
-        <v>394</v>
-      </c>
-      <c r="P2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F3" t="s">
-        <v>255</v>
-      </c>
       <c r="G3" t="s">
-        <v>256</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>257</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="L3">
+        <v>65633067</v>
+      </c>
+      <c r="M3">
+        <v>65634379</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3">
+        <v>365</v>
+      </c>
+      <c r="P3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4">
+        <v>64423482</v>
+      </c>
+      <c r="M4">
+        <v>64494405</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4">
+        <v>286</v>
+      </c>
+      <c r="P4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5">
+        <v>62579873</v>
+      </c>
+      <c r="M5">
+        <v>62574373</v>
+      </c>
+      <c r="N5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5">
+        <v>265</v>
+      </c>
+      <c r="P5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6">
+        <v>62587794</v>
+      </c>
+      <c r="M6">
+        <v>62583913</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <v>250</v>
+      </c>
+      <c r="P6" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7">
+        <v>68920369</v>
+      </c>
+      <c r="M7">
+        <v>68929468</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7">
+        <v>240</v>
+      </c>
+      <c r="P7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8">
+        <v>62846298</v>
+      </c>
+      <c r="M8">
+        <v>62879778</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>199</v>
+      </c>
+      <c r="P8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9">
         <v>62142839</v>
       </c>
-      <c r="M3">
+      <c r="M9">
         <v>65467441</v>
       </c>
-      <c r="N3" t="s">
-        <v>261</v>
-      </c>
-      <c r="O3">
-        <v>385</v>
-      </c>
-      <c r="P3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4">
-        <v>64485011</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4">
-        <v>371</v>
-      </c>
-      <c r="P4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5">
-        <v>65661980</v>
-      </c>
-      <c r="M5">
-        <v>65635015</v>
-      </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5">
-        <v>367</v>
-      </c>
-      <c r="P5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G6" t="s">
-        <v>256</v>
-      </c>
-      <c r="H6" t="s">
-        <v>257</v>
-      </c>
-      <c r="I6" t="s">
-        <v>258</v>
-      </c>
-      <c r="J6" t="s">
-        <v>259</v>
-      </c>
-      <c r="K6" t="s">
-        <v>260</v>
-      </c>
-      <c r="L6">
-        <v>62142839</v>
-      </c>
-      <c r="M6">
-        <v>65467441</v>
-      </c>
-      <c r="N6" t="s">
-        <v>261</v>
-      </c>
-      <c r="O6">
-        <v>357</v>
-      </c>
-      <c r="P6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L7">
-        <v>62889470</v>
-      </c>
-      <c r="M7">
-        <v>62898615</v>
-      </c>
-      <c r="N7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O7">
-        <v>353</v>
-      </c>
-      <c r="P7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H8" t="s">
-        <v>257</v>
-      </c>
-      <c r="I8" t="s">
-        <v>258</v>
-      </c>
-      <c r="J8" t="s">
-        <v>259</v>
-      </c>
-      <c r="K8" t="s">
-        <v>260</v>
-      </c>
-      <c r="L8">
-        <v>62142839</v>
-      </c>
-      <c r="M8">
-        <v>65467441</v>
-      </c>
-      <c r="N8" t="s">
-        <v>261</v>
-      </c>
-      <c r="O8">
-        <v>343</v>
-      </c>
-      <c r="P8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9" t="s">
-        <v>123</v>
-      </c>
-      <c r="L9">
-        <v>67697176</v>
-      </c>
-      <c r="M9"/>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O9">
-        <v>320</v>
+        <v>189</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>259</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c r="L10">
-        <v>62142839</v>
+        <v>63797788</v>
       </c>
       <c r="M10">
-        <v>65467441</v>
+        <v>63797997</v>
       </c>
       <c r="N10" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
       <c r="O10">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="L11">
-        <v>68194154</v>
-      </c>
-      <c r="M11" t="s">
-        <v>229</v>
+        <v>62655980</v>
+      </c>
+      <c r="M11">
+        <v>62686414</v>
       </c>
       <c r="N11" t="s">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="O11">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6957,8 +4126,11 @@
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6976,7 +4148,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -6994,7 +4166,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -7012,7 +4184,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -9108,7 +6280,7 @@
       <c r="E132"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P132">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q132">
     <sortCondition descending="1" ref="O1:O132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9119,8 +6291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9129,39 +6301,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="46" x14ac:dyDescent="1">
-      <c r="B2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
+      <c r="B2" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
     <row r="4" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="F4" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="J4" s="53" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="F4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="55"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
+      <c r="J4" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
@@ -9189,12 +6361,12 @@
       <c r="B8" s="6"/>
       <c r="C8" s="9">
         <f>COUNT(OpenBids!A:A)</f>
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8"/>
       <c r="F8" s="6"/>
       <c r="G8" s="13">
-        <f>COUNT(B14:B23)</f>
+        <f>COUNT(B14:B18)</f>
         <v>5</v>
       </c>
       <c r="H8" s="8"/>
@@ -9228,157 +6400,157 @@
       <c r="L10" s="25"/>
     </row>
     <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="45" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="45"/>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="30">
+      <c r="B14" s="27">
         <f>'Top5'!A2</f>
-        <v>29</v>
-      </c>
-      <c r="C14" s="31" t="str">
-        <f>'Top5'!C2</f>
-        <v>MOESCHETQ22001552</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="38" t="str">
+        <v>4</v>
+      </c>
+      <c r="C14" s="28" t="str">
+        <f>'Top5'!B2</f>
+        <v>NYP000ETQ22000080</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="35" t="str">
         <f>'Top5'!E2</f>
-        <v>CliftonStrengths Profiling and Professional Development Workshop 2022 at CHIJ St. Theresa's Convent</v>
-      </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="34" t="str">
+        <v>Invitation to Quote for the Provision of Virtual Innovation and Enterprise Booster-1 programme For NYP Learners</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="31" t="str">
         <f>'Top5'!H2</f>
-        <v>11 Apr 2022 01:00PM</v>
-      </c>
-      <c r="L14" s="32"/>
+        <v>22 Apr 2022 01:00PM</v>
+      </c>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="30">
+      <c r="B15" s="27">
         <f>'Top5'!A3</f>
-        <v>8</v>
-      </c>
-      <c r="C15" s="31" t="str">
-        <f>'Top5'!C3</f>
-        <v>YRS000ETT22000001 / YRSG/T02/2022</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="38" t="str">
+        <v>1</v>
+      </c>
+      <c r="C15" s="28" t="str">
+        <f>'Top5'!B3</f>
+        <v>MOESCHETQ22001771</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="35" t="str">
         <f>'Top5'!E3</f>
-        <v>Provision of training in Employability Skills, Digital Literacy and Workplace Literacy</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="34" t="str">
+        <v>FHSS - ECG Day 2022 Self Profiling for Secondary 4 and 5 students</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="31" t="str">
         <f>'Top5'!H3</f>
-        <v>06 May 2022 04:00PM</v>
-      </c>
-      <c r="L15" s="32"/>
+        <v>22 Apr 2022 01:00PM</v>
+      </c>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="30">
+      <c r="B16" s="27">
         <f>'Top5'!A4</f>
-        <v>31</v>
-      </c>
-      <c r="C16" s="31" t="str">
-        <f>'Top5'!C4</f>
-        <v>MOESCHETQ22001541</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="38" t="str">
+        <v>5</v>
+      </c>
+      <c r="C16" s="28" t="str">
+        <f>'Top5'!B4</f>
+        <v>MOESCHETQ22001758</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="35" t="str">
         <f>'Top5'!E4</f>
-        <v>Supply of 3-Day Student Leadership Training Programme for Victoria Junior College.</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="34" t="str">
+        <v>Provision of instructors, equipment and venues (venues for water-based activities only) for 3 Days Non-Residential Secondary 2 Outdoor Adventure Camp</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="31" t="str">
         <f>'Top5'!H4</f>
-        <v>14 Apr 2022 01:00PM</v>
-      </c>
-      <c r="L16" s="32"/>
+        <v>25 Apr 2022 01:00PM</v>
+      </c>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="30">
+      <c r="B17" s="27">
         <f>'Top5'!A5</f>
-        <v>30</v>
-      </c>
-      <c r="C17" s="31" t="str">
-        <f>'Top5'!C5</f>
-        <v>MOESCHETQ22001544</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="38" t="str">
+        <v>11</v>
+      </c>
+      <c r="C17" s="28" t="str">
+        <f>'Top5'!B5</f>
+        <v>MOESCHETQ22001740</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="35" t="str">
         <f>'Top5'!E5</f>
-        <v>Supply of Instructors for Leadership Developmental Programme for P5 Cohort students in Bukit View Primary School</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="34" t="str">
+        <v>2 DAYS STUDENTS LEADERS' TRAINING PROGRAMME</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="31" t="str">
         <f>'Top5'!H5</f>
-        <v>11 Apr 2022 01:00PM</v>
-      </c>
-      <c r="L17" s="32"/>
+        <v>21 Apr 2022 01:00PM</v>
+      </c>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="30">
+      <c r="B18" s="27">
         <f>'Top5'!A6</f>
-        <v>8</v>
-      </c>
-      <c r="C18" s="31" t="str">
-        <f>'Top5'!C6</f>
-        <v>YRS000ETT22000001 / YRSG/T02/2022</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="35" t="str">
+        <v>7</v>
+      </c>
+      <c r="C18" s="28" t="str">
+        <f>'Top5'!B6</f>
+        <v>MOE000ETQ22000102</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="32" t="str">
         <f>'Top5'!E6</f>
-        <v>Provision of training in Employability Skills, Digital Literacy and Workplace Literacy</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="34" t="str">
+        <v>Provision of Facilitator/s to coach and train  MOE Language Centre Key Personnels(KPs) and Staff in a series Leadership and Professional Programmes</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="31" t="str">
         <f>'Top5'!H6</f>
-        <v>06 May 2022 04:00PM</v>
-      </c>
-      <c r="L18" s="32"/>
+        <v>04 May 2022 01:00PM</v>
+      </c>
+      <c r="L18" s="29"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E20" s="15"/>

--- a/output/Bids.xlsx
+++ b/output/Bids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e6431dddeb4959f/Documents/UiPath/Diamond/Project1/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2559" documentId="13_ncr:1_{4909AFAA-1F53-48FA-A39D-7EB351207CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B3B2F28-8C52-437C-B5E0-F97FB8448FC3}"/>
+  <xr:revisionPtr revIDLastSave="2564" documentId="13_ncr:1_{4909AFAA-1F53-48FA-A39D-7EB351207CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7507149-DD20-46A7-B2B1-2B0654265E2B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Awarded" sheetId="3" r:id="rId1"/>
@@ -56,6 +56,472 @@
     <t>Title</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Quote Id</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Quote Title</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Published Date</t>
+  </si>
+  <si>
+    <t>Briefing Date</t>
+  </si>
+  <si>
+    <t>Contact's Name</t>
+  </si>
+  <si>
+    <t>Contact's Email</t>
+  </si>
+  <si>
+    <t>Contact's Tel</t>
+  </si>
+  <si>
+    <t>Contact's Fax</t>
+  </si>
+  <si>
+    <t>Contact's Address</t>
+  </si>
+  <si>
+    <t>Awarded Coy</t>
+  </si>
+  <si>
+    <t>Bid Price</t>
+  </si>
+  <si>
+    <t>High Value Quote</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Potential Competitors</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001771</t>
+  </si>
+  <si>
+    <t>Quotation</t>
+  </si>
+  <si>
+    <t>FHSS - ECG Day 2022 Self Profiling for Secondary 4 and 5 students</t>
+  </si>
+  <si>
+    <t>Ministry of Education - Schools</t>
+  </si>
+  <si>
+    <t>13 Apr 2022 01:49PM</t>
+  </si>
+  <si>
+    <t>22 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MISS SITI ROHANI HANIM BINTE SELAMAT</t>
+  </si>
+  <si>
+    <t>siti_rohani_hanim_selamat@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>5 Jurong West Street 41, Singapore 649410</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001765</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Provision of English Debate Programme in Jurong Secondary School.</t>
+  </si>
+  <si>
+    <t>13 Apr 2022 01:05PM</t>
+  </si>
+  <si>
+    <t>MS SUTHA RAJASEKARAN</t>
+  </si>
+  <si>
+    <t>sutha_rajasekaran@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>31 Yuan Ching Road
+Singapore 618652</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001767</t>
+  </si>
+  <si>
+    <t>SUPPLY OF INSTRUCTORS FOR SPEECH AND DRAMA PROGRAMME, GEYLANG METHODIST SCHOOL (PRIMARY)</t>
+  </si>
+  <si>
+    <t>13 Apr 2022 12:50PM</t>
+  </si>
+  <si>
+    <t>MRS TAN-LIM SIEW KUAN</t>
+  </si>
+  <si>
+    <t>lim_siew_kuan@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>4 GEYLANG EAST CENTRAL SINGAPORE 389706</t>
+  </si>
+  <si>
+    <t>NYP000ETQ22000080</t>
+  </si>
+  <si>
+    <t>NYP000ETQ22000080 / AOR2201281P</t>
+  </si>
+  <si>
+    <t>Invitation to Quote for the Provision of Virtual Innovation and Enterprise Booster-1 programme For NYP Learners</t>
+  </si>
+  <si>
+    <t>Nanyang Polytechnic</t>
+  </si>
+  <si>
+    <t>13 Apr 2022 12:20PM</t>
+  </si>
+  <si>
+    <t>KEN LIM</t>
+  </si>
+  <si>
+    <t>ken_lim@nyp.edu.sg</t>
+  </si>
+  <si>
+    <t>6550 0516</t>
+  </si>
+  <si>
+    <t>Nanyang Polytechnic, 180 Ang Mo Kio Ave 8, Singapore 569830</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001758</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001758 / Level Camp/2022/02</t>
+  </si>
+  <si>
+    <t>Provision of instructors, equipment and venues (venues for water-based activities only) for 3 Days Non-Residential Secondary 2 Outdoor Adventure Camp</t>
+  </si>
+  <si>
+    <t>13 Apr 2022 10:20AM</t>
+  </si>
+  <si>
+    <t>25 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>TAN WEE HIAN</t>
+  </si>
+  <si>
+    <t>TAN_Wee_Hian@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>CHIJ Katong Convent
+346 Marine Terrace
+Singapore 449150</t>
+  </si>
+  <si>
+    <t>YRS000ETT22000001</t>
+  </si>
+  <si>
+    <t>YRS000ETT22000001 / YRSG/T02/2022</t>
+  </si>
+  <si>
+    <t>Tender</t>
+  </si>
+  <si>
+    <t>Provision of training in Employability Skills, Digital Literacy and Workplace Literacy</t>
+  </si>
+  <si>
+    <t>Yellow Ribbon Singapore</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 06:35PM</t>
+  </si>
+  <si>
+    <t>06 May 2022 04:00PM</t>
+  </si>
+  <si>
+    <t>FAEZAH BINTE RADIMAN</t>
+  </si>
+  <si>
+    <t>Faezah_Radiman@yellowribbon.gov.sg</t>
+  </si>
+  <si>
+    <t>980 Upper Changi Road North, S507708</t>
+  </si>
+  <si>
+    <t>MOE000ETQ22000102</t>
+  </si>
+  <si>
+    <t>Provision of Facilitator/s to coach and train  MOE Language Centre Key Personnels(KPs) and Staff in a series Leadership and Professional Programmes</t>
+  </si>
+  <si>
+    <t>Ministry of Education</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 06:05PM</t>
+  </si>
+  <si>
+    <t>04 May 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>TAN LAI ENG</t>
+  </si>
+  <si>
+    <t>tan_lai_eng@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>11, Bishan Street 14 Singapore 579782</t>
+  </si>
+  <si>
+    <t>FOR000ETQ22000019</t>
+  </si>
+  <si>
+    <t>Provision of Hebrew language training for 3 MFA officers in Tel Aviv</t>
+  </si>
+  <si>
+    <t>Ministry of Foreign Affairs</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 04:35PM</t>
+  </si>
+  <si>
+    <t>26 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>NARELLE LEE SALIKIN</t>
+  </si>
+  <si>
+    <t>Narelle_Lee_Salikin@mfa.gov.sg</t>
+  </si>
+  <si>
+    <t>1 Sherwood Road, Tanglin</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001729</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Provision of 3-Day Secondary 1 Outdoor Adventure Camp (Non-Residential) for West Spring Secondary School</t>
+  </si>
+  <si>
+    <t>21 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>MR FAURONI SUKHAIMI</t>
+  </si>
+  <si>
+    <t>nai_wee_beng@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>West Spring Secondary School, 61 Senja Road, Singapore 677737</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001745</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001745 / AOR2022/161(DesignThinking_P4)</t>
+  </si>
+  <si>
+    <t>Instructors for Design Thinking Workshop for P4 Students in Yangzheng Pri School</t>
+  </si>
+  <si>
+    <t>MDM LASIME KUMARI</t>
+  </si>
+  <si>
+    <t>lasime_kumari@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>15 Serangoon Avenue 3, Singapore 556108</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001740</t>
+  </si>
+  <si>
+    <t>2 DAYS STUDENTS LEADERS' TRAINING PROGRAMME</t>
+  </si>
+  <si>
+    <t>MS LIAW HSIAO-MEIN</t>
+  </si>
+  <si>
+    <t>liaw_hsiao_mein@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>3 Yishun Ring Road
+S(768675)</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001441</t>
+  </si>
+  <si>
+    <t>ST ANDREWS JUNIOR SCHOOL: LANGUAGE FACILITATOR FOR DYSLEXIA INTERVENTION 2022-2024</t>
+  </si>
+  <si>
+    <t>ONG POH HWEE</t>
+  </si>
+  <si>
+    <t>17,745.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001431 / MOESCHEAR22010448 (AOR2022107)</t>
+  </si>
+  <si>
+    <t>Lifeskills Workshop 2022 for P1, P2 and P3 Students, Yangzheng Pri School</t>
+  </si>
+  <si>
+    <t>EKA TRAINING GROUP PTE. LTD.</t>
+  </si>
+  <si>
+    <t>14,222.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001375 / 2022-CCAVB--1</t>
+  </si>
+  <si>
+    <t>Supply of Instructor for Volleyball CCA Training Programme in Cantonment Primary School</t>
+  </si>
+  <si>
+    <t>MINTONETTE SPORTS MANAGEMENT</t>
+  </si>
+  <si>
+    <t>9,100.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001386</t>
+  </si>
+  <si>
+    <t>Rulang Primary School is looking for a vendor to supply, deliver, assemble and install one unit of Active Floor System - 2022</t>
+  </si>
+  <si>
+    <t>EDN LEARNING DISCOVERIES PTE. LTD.</t>
+  </si>
+  <si>
+    <t>12,980.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001362</t>
+  </si>
+  <si>
+    <t>Supply of Instructor for Student Leader Workshop for Primary 4 Prefects in South View Primary School.</t>
+  </si>
+  <si>
+    <t>ADAM KHOO LIFE SKILLS COMPANY PTE. LTD.</t>
+  </si>
+  <si>
+    <t>3,750.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001335</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for provision of 3-Day non-residential Primary 5 Outdoor and Leadership Adventure Camp for Pei Chun Public School (2022)</t>
+  </si>
+  <si>
+    <t>TOUCH COMMUNITY SERVICES LIMITED</t>
+  </si>
+  <si>
+    <t>23,162.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001322 / JYSS0102022</t>
+  </si>
+  <si>
+    <t>ITQ FOR SUPPLY AND DELIVERY OF SCHOOL OPERATION SERVICE ROBOTS (2 UNITS) FOR JUYING SECONDARY SCHOOL.</t>
+  </si>
+  <si>
+    <t>ROBOSOLUTIONS PTE. LTD.</t>
+  </si>
+  <si>
+    <t>17,000.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001316</t>
+  </si>
+  <si>
+    <t>After School Programme in Kranji Secondary School</t>
+  </si>
+  <si>
+    <t>WOMEN'S INSTITUTE OF MANAGEMENT</t>
+  </si>
+  <si>
+    <t>6,185.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001306</t>
+  </si>
+  <si>
+    <t>Supply of Consultant/Trainer for Organisational Change Professional Developmental Programme in Poi Ching School</t>
+  </si>
+  <si>
+    <t>YI CONSULTANCY PTE. LTD.</t>
+  </si>
+  <si>
+    <t>45,200.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001299</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Coding Programme for P3 Students for Zhangde Primary School</t>
+  </si>
+  <si>
+    <t>DUCK LEARNING</t>
+  </si>
+  <si>
+    <t>5,125.00 (SGD)</t>
+  </si>
+  <si>
+    <t>Download Link</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001771</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001765</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001767</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\NYP000ETQ22000080</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001758</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\YRS000ETT22000001</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOE000ETQ22000102</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\FOR000ETQ22000019</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001729</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001745</t>
+  </si>
+  <si>
+    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001740</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Opportunities </t>
     </r>
@@ -67,474 +533,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt; $30K</t>
+      <t>&gt; $20K</t>
     </r>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Quote Id</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Quote Title</t>
-  </si>
-  <si>
-    <t>Agency</t>
-  </si>
-  <si>
-    <t>Published Date</t>
-  </si>
-  <si>
-    <t>Briefing Date</t>
-  </si>
-  <si>
-    <t>Contact's Name</t>
-  </si>
-  <si>
-    <t>Contact's Email</t>
-  </si>
-  <si>
-    <t>Contact's Tel</t>
-  </si>
-  <si>
-    <t>Contact's Fax</t>
-  </si>
-  <si>
-    <t>Contact's Address</t>
-  </si>
-  <si>
-    <t>Awarded Coy</t>
-  </si>
-  <si>
-    <t>Bid Price</t>
-  </si>
-  <si>
-    <t>High Value Quote</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Potential Competitors</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>UOM</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001771</t>
-  </si>
-  <si>
-    <t>Quotation</t>
-  </si>
-  <si>
-    <t>FHSS - ECG Day 2022 Self Profiling for Secondary 4 and 5 students</t>
-  </si>
-  <si>
-    <t>Ministry of Education - Schools</t>
-  </si>
-  <si>
-    <t>13 Apr 2022 01:49PM</t>
-  </si>
-  <si>
-    <t>22 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>MISS SITI ROHANI HANIM BINTE SELAMAT</t>
-  </si>
-  <si>
-    <t>siti_rohani_hanim_selamat@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>5 Jurong West Street 41, Singapore 649410</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001765</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Provision of English Debate Programme in Jurong Secondary School.</t>
-  </si>
-  <si>
-    <t>13 Apr 2022 01:05PM</t>
-  </si>
-  <si>
-    <t>MS SUTHA RAJASEKARAN</t>
-  </si>
-  <si>
-    <t>sutha_rajasekaran@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>31 Yuan Ching Road
-Singapore 618652</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001767</t>
-  </si>
-  <si>
-    <t>SUPPLY OF INSTRUCTORS FOR SPEECH AND DRAMA PROGRAMME, GEYLANG METHODIST SCHOOL (PRIMARY)</t>
-  </si>
-  <si>
-    <t>13 Apr 2022 12:50PM</t>
-  </si>
-  <si>
-    <t>MRS TAN-LIM SIEW KUAN</t>
-  </si>
-  <si>
-    <t>lim_siew_kuan@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>4 GEYLANG EAST CENTRAL SINGAPORE 389706</t>
-  </si>
-  <si>
-    <t>NYP000ETQ22000080</t>
-  </si>
-  <si>
-    <t>NYP000ETQ22000080 / AOR2201281P</t>
-  </si>
-  <si>
-    <t>Invitation to Quote for the Provision of Virtual Innovation and Enterprise Booster-1 programme For NYP Learners</t>
-  </si>
-  <si>
-    <t>Nanyang Polytechnic</t>
-  </si>
-  <si>
-    <t>13 Apr 2022 12:20PM</t>
-  </si>
-  <si>
-    <t>KEN LIM</t>
-  </si>
-  <si>
-    <t>ken_lim@nyp.edu.sg</t>
-  </si>
-  <si>
-    <t>6550 0516</t>
-  </si>
-  <si>
-    <t>Nanyang Polytechnic, 180 Ang Mo Kio Ave 8, Singapore 569830</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001758</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001758 / Level Camp/2022/02</t>
-  </si>
-  <si>
-    <t>Provision of instructors, equipment and venues (venues for water-based activities only) for 3 Days Non-Residential Secondary 2 Outdoor Adventure Camp</t>
-  </si>
-  <si>
-    <t>13 Apr 2022 10:20AM</t>
-  </si>
-  <si>
-    <t>25 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>TAN WEE HIAN</t>
-  </si>
-  <si>
-    <t>TAN_Wee_Hian@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>CHIJ Katong Convent
-346 Marine Terrace
-Singapore 449150</t>
-  </si>
-  <si>
-    <t>YRS000ETT22000001</t>
-  </si>
-  <si>
-    <t>YRS000ETT22000001 / YRSG/T02/2022</t>
-  </si>
-  <si>
-    <t>Tender</t>
-  </si>
-  <si>
-    <t>Provision of training in Employability Skills, Digital Literacy and Workplace Literacy</t>
-  </si>
-  <si>
-    <t>Yellow Ribbon Singapore</t>
-  </si>
-  <si>
-    <t>12 Apr 2022 06:35PM</t>
-  </si>
-  <si>
-    <t>06 May 2022 04:00PM</t>
-  </si>
-  <si>
-    <t>FAEZAH BINTE RADIMAN</t>
-  </si>
-  <si>
-    <t>Faezah_Radiman@yellowribbon.gov.sg</t>
-  </si>
-  <si>
-    <t>980 Upper Changi Road North, S507708</t>
-  </si>
-  <si>
-    <t>MOE000ETQ22000102</t>
-  </si>
-  <si>
-    <t>Provision of Facilitator/s to coach and train  MOE Language Centre Key Personnels(KPs) and Staff in a series Leadership and Professional Programmes</t>
-  </si>
-  <si>
-    <t>Ministry of Education</t>
-  </si>
-  <si>
-    <t>12 Apr 2022 06:05PM</t>
-  </si>
-  <si>
-    <t>04 May 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>TAN LAI ENG</t>
-  </si>
-  <si>
-    <t>tan_lai_eng@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>11, Bishan Street 14 Singapore 579782</t>
-  </si>
-  <si>
-    <t>FOR000ETQ22000019</t>
-  </si>
-  <si>
-    <t>Provision of Hebrew language training for 3 MFA officers in Tel Aviv</t>
-  </si>
-  <si>
-    <t>Ministry of Foreign Affairs</t>
-  </si>
-  <si>
-    <t>12 Apr 2022 04:35PM</t>
-  </si>
-  <si>
-    <t>26 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>NARELLE LEE SALIKIN</t>
-  </si>
-  <si>
-    <t>Narelle_Lee_Salikin@mfa.gov.sg</t>
-  </si>
-  <si>
-    <t>1 Sherwood Road, Tanglin</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001729</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Provision of 3-Day Secondary 1 Outdoor Adventure Camp (Non-Residential) for West Spring Secondary School</t>
-  </si>
-  <si>
-    <t>21 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>MR FAURONI SUKHAIMI</t>
-  </si>
-  <si>
-    <t>nai_wee_beng@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>West Spring Secondary School, 61 Senja Road, Singapore 677737</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001745</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001745 / AOR2022/161(DesignThinking_P4)</t>
-  </si>
-  <si>
-    <t>Instructors for Design Thinking Workshop for P4 Students in Yangzheng Pri School</t>
-  </si>
-  <si>
-    <t>MDM LASIME KUMARI</t>
-  </si>
-  <si>
-    <t>lasime_kumari@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>15 Serangoon Avenue 3, Singapore 556108</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001740</t>
-  </si>
-  <si>
-    <t>2 DAYS STUDENTS LEADERS' TRAINING PROGRAMME</t>
-  </si>
-  <si>
-    <t>MS LIAW HSIAO-MEIN</t>
-  </si>
-  <si>
-    <t>liaw_hsiao_mein@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>3 Yishun Ring Road
-S(768675)</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001441</t>
-  </si>
-  <si>
-    <t>ST ANDREWS JUNIOR SCHOOL: LANGUAGE FACILITATOR FOR DYSLEXIA INTERVENTION 2022-2024</t>
-  </si>
-  <si>
-    <t>ONG POH HWEE</t>
-  </si>
-  <si>
-    <t>17,745.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001431 / MOESCHEAR22010448 (AOR2022107)</t>
-  </si>
-  <si>
-    <t>Lifeskills Workshop 2022 for P1, P2 and P3 Students, Yangzheng Pri School</t>
-  </si>
-  <si>
-    <t>EKA TRAINING GROUP PTE. LTD.</t>
-  </si>
-  <si>
-    <t>14,222.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001375 / 2022-CCAVB--1</t>
-  </si>
-  <si>
-    <t>Supply of Instructor for Volleyball CCA Training Programme in Cantonment Primary School</t>
-  </si>
-  <si>
-    <t>MINTONETTE SPORTS MANAGEMENT</t>
-  </si>
-  <si>
-    <t>9,100.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001386</t>
-  </si>
-  <si>
-    <t>Rulang Primary School is looking for a vendor to supply, deliver, assemble and install one unit of Active Floor System - 2022</t>
-  </si>
-  <si>
-    <t>EDN LEARNING DISCOVERIES PTE. LTD.</t>
-  </si>
-  <si>
-    <t>12,980.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001362</t>
-  </si>
-  <si>
-    <t>Supply of Instructor for Student Leader Workshop for Primary 4 Prefects in South View Primary School.</t>
-  </si>
-  <si>
-    <t>ADAM KHOO LIFE SKILLS COMPANY PTE. LTD.</t>
-  </si>
-  <si>
-    <t>3,750.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001335</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for provision of 3-Day non-residential Primary 5 Outdoor and Leadership Adventure Camp for Pei Chun Public School (2022)</t>
-  </si>
-  <si>
-    <t>TOUCH COMMUNITY SERVICES LIMITED</t>
-  </si>
-  <si>
-    <t>23,162.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001322 / JYSS0102022</t>
-  </si>
-  <si>
-    <t>ITQ FOR SUPPLY AND DELIVERY OF SCHOOL OPERATION SERVICE ROBOTS (2 UNITS) FOR JUYING SECONDARY SCHOOL.</t>
-  </si>
-  <si>
-    <t>ROBOSOLUTIONS PTE. LTD.</t>
-  </si>
-  <si>
-    <t>17,000.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001316</t>
-  </si>
-  <si>
-    <t>After School Programme in Kranji Secondary School</t>
-  </si>
-  <si>
-    <t>WOMEN'S INSTITUTE OF MANAGEMENT</t>
-  </si>
-  <si>
-    <t>6,185.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001306</t>
-  </si>
-  <si>
-    <t>Supply of Consultant/Trainer for Organisational Change Professional Developmental Programme in Poi Ching School</t>
-  </si>
-  <si>
-    <t>YI CONSULTANCY PTE. LTD.</t>
-  </si>
-  <si>
-    <t>45,200.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001299</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Coding Programme for P3 Students for Zhangde Primary School</t>
-  </si>
-  <si>
-    <t>DUCK LEARNING</t>
-  </si>
-  <si>
-    <t>5,125.00 (SGD)</t>
-  </si>
-  <si>
-    <t>Download Link</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001771</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001765</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001767</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\NYP000ETQ22000080</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001758</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\YRS000ETT22000001</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOE000ETQ22000102</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\FOR000ETQ22000019</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001729</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001745</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001740</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1577,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="450"/>
-          <c:min val="50"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2622,7 +2622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A7BC6-4E87-4806-AC09-A14CCBAD7662}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2635,22 +2635,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2658,19 +2658,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2678,19 +2678,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2698,19 +2698,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2718,19 +2718,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2738,19 +2738,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2758,19 +2758,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -2778,19 +2778,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -2798,19 +2798,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -2818,19 +2818,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -2838,19 +2838,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2863,7 +2863,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2871,61 +2871,63 @@
     <col min="1" max="2" width="8.7265625" style="1"/>
     <col min="3" max="3" width="8.90625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.7265625" style="1"/>
-    <col min="14" max="16" width="14.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" customWidth="1"/>
     <col min="17" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -2933,34 +2935,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="L2" s="1">
         <v>65633067</v>
@@ -2969,16 +2971,16 @@
         <v>65634379</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="1">
         <v>365</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -2986,34 +2988,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="L3" s="1">
         <v>62655980</v>
@@ -3022,16 +3024,16 @@
         <v>62686414</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3" s="1">
         <v>69</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -3039,34 +3041,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="L4" s="1">
         <v>67486746</v>
@@ -3075,16 +3077,16 @@
         <v>67488980</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O4" s="1">
         <v>55</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -3092,49 +3094,49 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="O5" s="1">
         <v>382</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -3142,34 +3144,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="L6" s="1">
         <v>64423482</v>
@@ -3178,16 +3180,16 @@
         <v>64494405</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O6" s="1">
         <v>286</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -3195,34 +3197,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="L7" s="1">
         <v>62142839</v>
@@ -3231,16 +3233,16 @@
         <v>65467441</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O7" s="1">
         <v>189</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -3248,34 +3250,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="L8" s="1">
         <v>62587794</v>
@@ -3284,16 +3286,16 @@
         <v>62583913</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O8" s="1">
         <v>250</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -3301,34 +3303,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="L9" s="1">
         <v>63797788</v>
@@ -3337,16 +3339,16 @@
         <v>63797997</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O9" s="1">
         <v>77</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -3354,34 +3356,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="L10" s="1">
         <v>68920369</v>
@@ -3390,16 +3392,16 @@
         <v>68929468</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O10" s="1">
         <v>240</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -3407,34 +3409,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="L11" s="1">
         <v>62846298</v>
@@ -3443,16 +3445,16 @@
         <v>62879778</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O11" s="1">
         <v>199</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -3460,34 +3462,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="L12" s="1">
         <v>62579873</v>
@@ -3496,16 +3498,16 @@
         <v>62574373</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O12" s="1">
         <v>265</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +3520,7 @@
   <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3530,55 +3532,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
       <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
       <c r="Q1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -3586,50 +3588,50 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>51</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>52</v>
-      </c>
-      <c r="L2" t="s">
-        <v>53</v>
       </c>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O2">
         <v>382</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -3637,34 +3639,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
       </c>
       <c r="L3">
         <v>65633067</v>
@@ -3673,16 +3675,16 @@
         <v>65634379</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O3">
         <v>365</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -3690,34 +3692,34 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>58</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
         <v>59</v>
       </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
       </c>
       <c r="L4">
         <v>64423482</v>
@@ -3726,16 +3728,16 @@
         <v>64494405</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O4">
         <v>286</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -3743,34 +3745,34 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>101</v>
       </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
         <v>102</v>
       </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
       </c>
       <c r="L5">
         <v>62579873</v>
@@ -3779,16 +3781,16 @@
         <v>62574373</v>
       </c>
       <c r="N5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O5">
         <v>265</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -3796,34 +3798,34 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>76</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
       </c>
       <c r="L6">
         <v>62587794</v>
@@ -3832,16 +3834,16 @@
         <v>62583913</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O6">
         <v>250</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -3849,34 +3851,34 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" t="s">
         <v>90</v>
       </c>
-      <c r="F7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
         <v>91</v>
       </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>92</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
       </c>
       <c r="L7">
         <v>68920369</v>
@@ -3885,16 +3887,16 @@
         <v>68929468</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O7">
         <v>240</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -3902,34 +3904,34 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
         <v>96</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
         <v>97</v>
       </c>
-      <c r="F8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
       </c>
       <c r="L8">
         <v>62846298</v>
@@ -3938,16 +3940,16 @@
         <v>62879778</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O8">
         <v>199</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -3955,34 +3957,34 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>65</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>68</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
         <v>69</v>
       </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>70</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
       </c>
       <c r="L9">
         <v>62142839</v>
@@ -3991,16 +3993,16 @@
         <v>65467441</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O9">
         <v>189</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -4008,34 +4010,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>82</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>83</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>84</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
         <v>85</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>86</v>
-      </c>
-      <c r="K10" t="s">
-        <v>87</v>
       </c>
       <c r="L10">
         <v>63797788</v>
@@ -4044,16 +4046,16 @@
         <v>63797997</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O10">
         <v>77</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -4061,34 +4063,34 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
         <v>36</v>
       </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>37</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
       </c>
       <c r="L11">
         <v>62655980</v>
@@ -4097,16 +4099,16 @@
         <v>62686414</v>
       </c>
       <c r="N11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O11">
         <v>69</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -4127,7 +4129,7 @@
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -6291,8 +6293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6302,7 +6304,7 @@
   <sheetData>
     <row r="2" spans="2:15" ht="46" x14ac:dyDescent="1">
       <c r="B2" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -6325,12 +6327,12 @@
       <c r="C4" s="44"/>
       <c r="D4" s="45"/>
       <c r="F4" s="43" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="G4" s="44"/>
       <c r="H4" s="45"/>
       <c r="J4" s="49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="50"/>
       <c r="L4" s="51"/>
@@ -6401,14 +6403,14 @@
     </row>
     <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="48"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>0</v>

--- a/output/Bids.xlsx
+++ b/output/Bids.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e6431dddeb4959f/Documents/UiPath/Diamond/Project1/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\UiPath\SCT9_Diamond_Project1\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="109_{0D15760E-0516-437A-8A7A-22C9E57F39AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A79C7E22-4BB5-4B74-B801-CE1F2F2C07CB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Awarded" sheetId="3" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OpenBids!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Top5'!$A$1:$P$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="108">
   <si>
     <t>Quote</t>
   </si>
@@ -128,419 +127,267 @@
     <t>UOM</t>
   </si>
   <si>
-    <t>MOESCHETQ22001771</t>
-  </si>
-  <si>
     <t>Quotation</t>
   </si>
   <si>
-    <t>FHSS - ECG Day 2022 Self Profiling for Secondary 4 and 5 students</t>
-  </si>
-  <si>
     <t>Ministry of Education - Schools</t>
   </si>
   <si>
-    <t>13 Apr 2022 01:49PM</t>
-  </si>
-  <si>
-    <t>22 Apr 2022 01:00PM</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>MISS SITI ROHANI HANIM BINTE SELAMAT</t>
-  </si>
-  <si>
-    <t>siti_rohani_hanim_selamat@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>5 Jurong West Street 41, Singapore 649410</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001765</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Provision of English Debate Programme in Jurong Secondary School.</t>
-  </si>
-  <si>
-    <t>13 Apr 2022 01:05PM</t>
-  </si>
-  <si>
-    <t>MS SUTHA RAJASEKARAN</t>
-  </si>
-  <si>
-    <t>sutha_rajasekaran@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>31 Yuan Ching Road
-Singapore 618652</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001767</t>
-  </si>
-  <si>
-    <t>SUPPLY OF INSTRUCTORS FOR SPEECH AND DRAMA PROGRAMME, GEYLANG METHODIST SCHOOL (PRIMARY)</t>
-  </si>
-  <si>
-    <t>13 Apr 2022 12:50PM</t>
-  </si>
-  <si>
-    <t>MRS TAN-LIM SIEW KUAN</t>
-  </si>
-  <si>
-    <t>lim_siew_kuan@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>4 GEYLANG EAST CENTRAL SINGAPORE 389706</t>
-  </si>
-  <si>
-    <t>NYP000ETQ22000080</t>
-  </si>
-  <si>
-    <t>NYP000ETQ22000080 / AOR2201281P</t>
-  </si>
-  <si>
-    <t>Invitation to Quote for the Provision of Virtual Innovation and Enterprise Booster-1 programme For NYP Learners</t>
-  </si>
-  <si>
     <t>Nanyang Polytechnic</t>
   </si>
   <si>
-    <t>13 Apr 2022 12:20PM</t>
-  </si>
-  <si>
-    <t>KEN LIM</t>
-  </si>
-  <si>
-    <t>ken_lim@nyp.edu.sg</t>
-  </si>
-  <si>
-    <t>6550 0516</t>
-  </si>
-  <si>
-    <t>Nanyang Polytechnic, 180 Ang Mo Kio Ave 8, Singapore 569830</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001758</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001758 / Level Camp/2022/02</t>
-  </si>
-  <si>
-    <t>Provision of instructors, equipment and venues (venues for water-based activities only) for 3 Days Non-Residential Secondary 2 Outdoor Adventure Camp</t>
-  </si>
-  <si>
-    <t>13 Apr 2022 10:20AM</t>
-  </si>
-  <si>
     <t>25 Apr 2022 01:00PM</t>
   </si>
   <si>
-    <t>TAN WEE HIAN</t>
-  </si>
-  <si>
-    <t>TAN_Wee_Hian@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>CHIJ Katong Convent
-346 Marine Terrace
-Singapore 449150</t>
-  </si>
-  <si>
-    <t>YRS000ETT22000001</t>
-  </si>
-  <si>
-    <t>YRS000ETT22000001 / YRSG/T02/2022</t>
-  </si>
-  <si>
-    <t>Tender</t>
-  </si>
-  <si>
-    <t>Provision of training in Employability Skills, Digital Literacy and Workplace Literacy</t>
-  </si>
-  <si>
-    <t>Yellow Ribbon Singapore</t>
-  </si>
-  <si>
-    <t>12 Apr 2022 06:35PM</t>
-  </si>
-  <si>
-    <t>06 May 2022 04:00PM</t>
-  </si>
-  <si>
-    <t>FAEZAH BINTE RADIMAN</t>
-  </si>
-  <si>
-    <t>Faezah_Radiman@yellowribbon.gov.sg</t>
-  </si>
-  <si>
-    <t>980 Upper Changi Road North, S507708</t>
-  </si>
-  <si>
-    <t>MOE000ETQ22000102</t>
-  </si>
-  <si>
-    <t>Provision of Facilitator/s to coach and train  MOE Language Centre Key Personnels(KPs) and Staff in a series Leadership and Professional Programmes</t>
-  </si>
-  <si>
-    <t>Ministry of Education</t>
-  </si>
-  <si>
-    <t>12 Apr 2022 06:05PM</t>
-  </si>
-  <si>
     <t>04 May 2022 01:00PM</t>
   </si>
   <si>
-    <t>TAN LAI ENG</t>
-  </si>
-  <si>
-    <t>tan_lai_eng@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>11, Bishan Street 14 Singapore 579782</t>
-  </si>
-  <si>
-    <t>FOR000ETQ22000019</t>
-  </si>
-  <si>
-    <t>Provision of Hebrew language training for 3 MFA officers in Tel Aviv</t>
-  </si>
-  <si>
-    <t>Ministry of Foreign Affairs</t>
-  </si>
-  <si>
-    <t>12 Apr 2022 04:35PM</t>
-  </si>
-  <si>
-    <t>26 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>NARELLE LEE SALIKIN</t>
-  </si>
-  <si>
-    <t>Narelle_Lee_Salikin@mfa.gov.sg</t>
-  </si>
-  <si>
-    <t>1 Sherwood Road, Tanglin</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001729</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Provision of 3-Day Secondary 1 Outdoor Adventure Camp (Non-Residential) for West Spring Secondary School</t>
-  </si>
-  <si>
-    <t>21 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>MR FAURONI SUKHAIMI</t>
-  </si>
-  <si>
-    <t>nai_wee_beng@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>West Spring Secondary School, 61 Senja Road, Singapore 677737</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001745</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001745 / AOR2022/161(DesignThinking_P4)</t>
-  </si>
-  <si>
-    <t>Instructors for Design Thinking Workshop for P4 Students in Yangzheng Pri School</t>
-  </si>
-  <si>
-    <t>MDM LASIME KUMARI</t>
-  </si>
-  <si>
-    <t>lasime_kumari@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>15 Serangoon Avenue 3, Singapore 556108</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001740</t>
-  </si>
-  <si>
-    <t>2 DAYS STUDENTS LEADERS' TRAINING PROGRAMME</t>
-  </si>
-  <si>
-    <t>MS LIAW HSIAO-MEIN</t>
-  </si>
-  <si>
-    <t>liaw_hsiao_mein@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>3 Yishun Ring Road
-S(768675)</t>
-  </si>
-  <si>
     <t>Person</t>
   </si>
   <si>
-    <t>MOESCHETQ22001441</t>
-  </si>
-  <si>
-    <t>ST ANDREWS JUNIOR SCHOOL: LANGUAGE FACILITATOR FOR DYSLEXIA INTERVENTION 2022-2024</t>
-  </si>
-  <si>
-    <t>ONG POH HWEE</t>
-  </si>
-  <si>
-    <t>17,745.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001431 / MOESCHEAR22010448 (AOR2022107)</t>
-  </si>
-  <si>
-    <t>Lifeskills Workshop 2022 for P1, P2 and P3 Students, Yangzheng Pri School</t>
-  </si>
-  <si>
-    <t>EKA TRAINING GROUP PTE. LTD.</t>
-  </si>
-  <si>
-    <t>14,222.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001375 / 2022-CCAVB--1</t>
-  </si>
-  <si>
-    <t>Supply of Instructor for Volleyball CCA Training Programme in Cantonment Primary School</t>
-  </si>
-  <si>
-    <t>MINTONETTE SPORTS MANAGEMENT</t>
-  </si>
-  <si>
-    <t>9,100.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001386</t>
-  </si>
-  <si>
-    <t>Rulang Primary School is looking for a vendor to supply, deliver, assemble and install one unit of Active Floor System - 2022</t>
-  </si>
-  <si>
-    <t>EDN LEARNING DISCOVERIES PTE. LTD.</t>
-  </si>
-  <si>
-    <t>12,980.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001362</t>
-  </si>
-  <si>
-    <t>Supply of Instructor for Student Leader Workshop for Primary 4 Prefects in South View Primary School.</t>
-  </si>
-  <si>
-    <t>ADAM KHOO LIFE SKILLS COMPANY PTE. LTD.</t>
-  </si>
-  <si>
-    <t>3,750.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001335</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for provision of 3-Day non-residential Primary 5 Outdoor and Leadership Adventure Camp for Pei Chun Public School (2022)</t>
-  </si>
-  <si>
-    <t>TOUCH COMMUNITY SERVICES LIMITED</t>
-  </si>
-  <si>
-    <t>23,162.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001322 / JYSS0102022</t>
-  </si>
-  <si>
-    <t>ITQ FOR SUPPLY AND DELIVERY OF SCHOOL OPERATION SERVICE ROBOTS (2 UNITS) FOR JUYING SECONDARY SCHOOL.</t>
-  </si>
-  <si>
-    <t>ROBOSOLUTIONS PTE. LTD.</t>
-  </si>
-  <si>
-    <t>17,000.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001316</t>
-  </si>
-  <si>
-    <t>After School Programme in Kranji Secondary School</t>
-  </si>
-  <si>
-    <t>WOMEN'S INSTITUTE OF MANAGEMENT</t>
-  </si>
-  <si>
-    <t>6,185.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001306</t>
-  </si>
-  <si>
-    <t>Supply of Consultant/Trainer for Organisational Change Professional Developmental Programme in Poi Ching School</t>
-  </si>
-  <si>
-    <t>YI CONSULTANCY PTE. LTD.</t>
-  </si>
-  <si>
-    <t>45,200.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001299</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Coding Programme for P3 Students for Zhangde Primary School</t>
-  </si>
-  <si>
-    <t>DUCK LEARNING</t>
-  </si>
-  <si>
-    <t>5,125.00 (SGD)</t>
-  </si>
-  <si>
     <t>Download Link</t>
   </si>
   <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001771</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001765</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001767</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\NYP000ETQ22000080</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001758</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\YRS000ETT22000001</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOE000ETQ22000102</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\FOR000ETQ22000019</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001729</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001745</t>
-  </si>
-  <si>
-    <t>C:\Users\ryant.DESKTOP-P30VL9L\OneDrive\Documents\UiPath\Diamond\Project1\output\OPEN\MOESCHETQ22001740</t>
+    <t>MOESCHETQ22001816</t>
+  </si>
+  <si>
+    <t>Instructors for Digital Literacy Programme in Queenstown Secondary School</t>
+  </si>
+  <si>
+    <t>14 Apr 2022 05:50PM</t>
+  </si>
+  <si>
+    <t>MR JOSEPH TEO</t>
+  </si>
+  <si>
+    <t>teo_chai_hong_joseph@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>1 Strathmore Road Singapore 148800</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001816</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001800</t>
+  </si>
+  <si>
+    <t>2022 English Bridging Support</t>
+  </si>
+  <si>
+    <t>14 Apr 2022 05:05PM</t>
+  </si>
+  <si>
+    <t>GOH PAI SHEN</t>
+  </si>
+  <si>
+    <t>goh_pai_shen@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>Catholic High School (Secondary), 9 Bishan Street 22 Singapore 579767</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001800</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001802</t>
+  </si>
+  <si>
+    <t>ITQ for Supply of Instructor for Mother Tongue Fortnight activities for Students in Beacon Primary School for our P1-P6 students</t>
+  </si>
+  <si>
+    <t>14 Apr 2022 04:05PM</t>
+  </si>
+  <si>
+    <t>MS LEE PEI PEI</t>
+  </si>
+  <si>
+    <t>lee_pei_pei@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>Ministry of Education,1, North Buona Vista Drive</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001802</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001811</t>
+  </si>
+  <si>
+    <t>Supply of Pianist for Choir CCA Programme in Clementi Primary School</t>
+  </si>
+  <si>
+    <t>14 Apr 2022 03:35PM</t>
+  </si>
+  <si>
+    <t>FIONA KWAN</t>
+  </si>
+  <si>
+    <t>fiona_kwan_lok_mun@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>8 Clementi Avenue 3 Singapore 129903</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001811</t>
+  </si>
+  <si>
+    <t>NYP000ETQ22000081</t>
+  </si>
+  <si>
+    <t>To appoint training service providers for the provision of services to develop and deliver Masterclass Programmes for a period of 2 years</t>
+  </si>
+  <si>
+    <t>14 Apr 2022 02:19PM</t>
+  </si>
+  <si>
+    <t>05 May 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>JENNY LING / PATRICK PNG</t>
+  </si>
+  <si>
+    <t>jenny_ling@sirs.edu.sg</t>
+  </si>
+  <si>
+    <t>64173650 / 65500717</t>
+  </si>
+  <si>
+    <t>Singapore Institute of Retail Studies, 11 Eunos Road 8, Lifelong Learning Institute, #08-02/03/04, Singapore 408601</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\NYP000ETQ22000081</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001805</t>
+  </si>
+  <si>
+    <t>Manpower service for Science Lab 1+1 year</t>
+  </si>
+  <si>
+    <t>14 Apr 2022 02:05PM</t>
+  </si>
+  <si>
+    <t>MRS EMILY WONG</t>
+  </si>
+  <si>
+    <t>fang_yoke_cheng_emily@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>90 Bukit Batok East Ave 6 S659762</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001805</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001795</t>
+  </si>
+  <si>
+    <t>Provision of 3 Days Non-Residential Primary 5 Cohort Outdoor Learning Camp 2022</t>
+  </si>
+  <si>
+    <t>14 Apr 2022 01:04PM</t>
+  </si>
+  <si>
+    <t>RYAN TAY EN HUANG</t>
+  </si>
+  <si>
+    <t>ryan_tay_en_huang@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>Holy Innocents' Primary School
+5 Lorong Low Koon
+Singapore 536451</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001795</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001769</t>
+  </si>
+  <si>
+    <t>Primary 1 and Primary 2 Chinese Weiqi Enrichment Programme in Holy Innocents' Primary School</t>
+  </si>
+  <si>
+    <t>14 Apr 2022 09:50AM</t>
+  </si>
+  <si>
+    <t>LEE SIEW KIAN JOYCE</t>
+  </si>
+  <si>
+    <t>lee_siew_kian_joyce@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>Holy Innocents' Primary School
+5 Lorong Low Koon</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001769</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001791</t>
+  </si>
+  <si>
+    <t>Supply of Instructor for Student Leadership Programme for CHIJ (Katong) Primary: - P4 to P6 Prefects (Trainee &amp; Senior) and P3 to P6 Class Monitors</t>
+  </si>
+  <si>
+    <t>MR EDWARD TOH</t>
+  </si>
+  <si>
+    <t>toh_boon_how@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>CHIJ (KATONG) PRIMARY
+17 MARTIA ROAD
+SINGAPORE 424821</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001791</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001788</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Student Leadership Training Programme in Pioneer Primary School</t>
+  </si>
+  <si>
+    <t>MOHAMED ASHIQ S/O AMEERDEEN M</t>
+  </si>
+  <si>
+    <t>mohamed_ashiq_ameerdeen_m@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>Pioneer primary school, 31 Jurong West St 91, S649037</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001788</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001730</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Primary 1 Programme for Active Learning (PAL) - Dance Module in Peiying Primary School</t>
+  </si>
+  <si>
+    <t>MR MOHAMAD IKHWAN BIN MOHAMAD HARON</t>
+  </si>
+  <si>
+    <t>mohamad_ikhwan_mohamad_haron@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>Peiying Primary School, 651 Yishun Ring Road, S768687</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001730</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -772,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -889,6 +736,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,6 +850,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1025,34 +876,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1064,34 +918,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>382</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>365</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>286</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>265</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>240</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>199</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>189</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69</c:v>
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,6 +1528,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1678,7 +1536,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -2619,21 +2476,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A7BC6-4E87-4806-AC09-A14CCBAD7662}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="35.7265625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="35.77734375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2651,206 +2508,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2859,28 +2516,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39582A0F-F993-4278-A272-EAB12E1434D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="8.90625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.7265625" style="1"/>
-    <col min="9" max="9" width="6.08984375" style="1" customWidth="1"/>
-    <col min="10" max="13" width="8.7265625" style="1"/>
-    <col min="14" max="14" width="14.81640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.77734375" style="1"/>
+    <col min="9" max="9" width="6.109375" style="1" customWidth="1"/>
+    <col min="10" max="13" width="8.77734375" style="1"/>
+    <col min="14" max="16" width="14.77734375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2930,404 +2585,401 @@
         <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1">
+        <v>64741055</v>
+      </c>
+      <c r="M2" s="1">
+        <v>64741295</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="1">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="1">
-        <v>65633067</v>
-      </c>
-      <c r="M2" s="1">
-        <v>65634379</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="1">
-        <v>365</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="1">
+        <v>64582177</v>
+      </c>
+      <c r="M3" s="1">
+        <v>64561322</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="1">
+        <v>345</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="1">
-        <v>62655980</v>
-      </c>
-      <c r="M3" s="1">
-        <v>62686414</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="1">
-        <v>69</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="1">
+        <v>67697255</v>
+      </c>
+      <c r="M4" s="1">
+        <v>67697244</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="1">
+        <v>395</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="1">
-        <v>67486746</v>
-      </c>
-      <c r="M4" s="1">
-        <v>67488980</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="1">
-        <v>55</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="1">
+        <v>67797449</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="1">
+        <v>255</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="1">
-        <v>382</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="Q5" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="1">
+        <v>358</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="1">
-        <v>64423482</v>
-      </c>
-      <c r="M6" s="1">
-        <v>64494405</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="1">
-        <v>286</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="1">
+        <v>68962054</v>
+      </c>
+      <c r="M7" s="1">
+        <v>65632356</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="1">
+        <v>154</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="1">
-        <v>62142839</v>
-      </c>
-      <c r="M7" s="1">
-        <v>65467441</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" s="1">
-        <v>189</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="Q7" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="1">
+        <v>62886516</v>
+      </c>
+      <c r="M8" s="1">
+        <v>62876393</v>
+      </c>
+      <c r="N8" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="52">
+        <v>335</v>
+      </c>
+      <c r="P8" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="1">
-        <v>62587794</v>
-      </c>
-      <c r="M8" s="1">
-        <v>62583913</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="1">
-        <v>250</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="Q8" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>86</v>
@@ -3336,51 +2988,51 @@
         <v>87</v>
       </c>
       <c r="L9" s="1">
-        <v>63797788</v>
+        <v>62886516</v>
       </c>
       <c r="M9" s="1">
-        <v>63797997</v>
-      </c>
-      <c r="N9" s="1" t="s">
+        <v>62876393</v>
+      </c>
+      <c r="N9" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="1">
-        <v>77</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>106</v>
+      <c r="O9" s="52">
+        <v>371</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>30</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>92</v>
@@ -3389,51 +3041,51 @@
         <v>93</v>
       </c>
       <c r="L10" s="1">
-        <v>68920369</v>
+        <v>63443072</v>
       </c>
       <c r="M10" s="1">
-        <v>68929468</v>
-      </c>
-      <c r="N10" s="1" t="s">
+        <v>63459007</v>
+      </c>
+      <c r="N10" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="O10" s="1">
-        <v>240</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>106</v>
+      <c r="O10" s="52">
+        <v>83</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>30</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>98</v>
@@ -3442,75 +3094,72 @@
         <v>99</v>
       </c>
       <c r="L11" s="1">
-        <v>62846298</v>
-      </c>
-      <c r="M11" s="1">
-        <v>62879778</v>
+        <v>67932039</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>100</v>
       </c>
       <c r="O11" s="1">
-        <v>199</v>
+        <v>399</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="1">
+        <v>62575684</v>
+      </c>
+      <c r="M12" s="1">
+        <v>67558802</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" s="1">
+        <v>227</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" s="1">
-        <v>62579873</v>
-      </c>
-      <c r="M12" s="1">
-        <v>62574373</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O12" s="1">
-        <v>265</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="Q12" s="1" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3519,21 +3168,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5E9977-255A-404F-9037-914CC69CEAF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="8.7265625" style="1"/>
-    <col min="14" max="14" width="14.81640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="13" width="8.77734375" style="1"/>
+    <col min="14" max="14" width="14.77734375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3583,559 +3232,587 @@
         <v>23</v>
       </c>
       <c r="Q1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <v>64741055</v>
+      </c>
+      <c r="M2">
+        <v>64741295</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3">
+        <v>64582177</v>
+      </c>
+      <c r="M3">
+        <v>64561322</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3">
+        <v>345</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>67697255</v>
+      </c>
+      <c r="M4">
+        <v>67697244</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4">
+        <v>395</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5">
+        <v>67797449</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5">
+        <v>255</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6">
+        <v>358</v>
+      </c>
+      <c r="P6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7">
+        <v>68962054</v>
+      </c>
+      <c r="M7">
+        <v>65632356</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7">
+        <v>154</v>
+      </c>
+      <c r="P7" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2"/>
-      <c r="N2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2">
-        <v>382</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8">
+        <v>62886516</v>
+      </c>
+      <c r="M8">
+        <v>62876393</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8">
+        <v>335</v>
+      </c>
+      <c r="P8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9">
+        <v>62886516</v>
+      </c>
+      <c r="M9">
+        <v>62876393</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9">
+        <v>371</v>
+      </c>
+      <c r="P9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10">
+        <v>63443072</v>
+      </c>
+      <c r="M10">
+        <v>63459007</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10">
+        <v>83</v>
+      </c>
+      <c r="P10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11">
+        <v>67932039</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11">
+        <v>399</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12">
+        <v>62575684</v>
+      </c>
+      <c r="M12">
+        <v>67558802</v>
+      </c>
+      <c r="N12" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="O12">
+        <v>227</v>
+      </c>
+      <c r="P12" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3">
-        <v>65633067</v>
-      </c>
-      <c r="M3">
-        <v>65634379</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3">
-        <v>365</v>
-      </c>
-      <c r="P3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4">
-        <v>64423482</v>
-      </c>
-      <c r="M4">
-        <v>64494405</v>
-      </c>
-      <c r="N4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4">
-        <v>286</v>
-      </c>
-      <c r="P4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5">
-        <v>62579873</v>
-      </c>
-      <c r="M5">
-        <v>62574373</v>
-      </c>
-      <c r="N5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O5">
-        <v>265</v>
-      </c>
-      <c r="P5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6">
-        <v>62587794</v>
-      </c>
-      <c r="M6">
-        <v>62583913</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6">
-        <v>250</v>
-      </c>
-      <c r="P6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7">
-        <v>68920369</v>
-      </c>
-      <c r="M7">
-        <v>68929468</v>
-      </c>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7">
-        <v>240</v>
-      </c>
-      <c r="P7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8">
-        <v>62846298</v>
-      </c>
-      <c r="M8">
-        <v>62879778</v>
-      </c>
-      <c r="N8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8">
-        <v>199</v>
-      </c>
-      <c r="P8" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9">
-        <v>62142839</v>
-      </c>
-      <c r="M9">
-        <v>65467441</v>
-      </c>
-      <c r="N9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9">
-        <v>189</v>
-      </c>
-      <c r="P9" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10">
-        <v>63797788</v>
-      </c>
-      <c r="M10">
-        <v>63797997</v>
-      </c>
-      <c r="N10" t="s">
-        <v>88</v>
-      </c>
-      <c r="O10">
-        <v>77</v>
-      </c>
-      <c r="P10" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11">
-        <v>62655980</v>
-      </c>
-      <c r="M11">
-        <v>62686414</v>
-      </c>
-      <c r="N11" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11">
-        <v>69</v>
-      </c>
-      <c r="P11" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
       <c r="Q12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -4153,7 +3830,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -4171,7 +3848,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -4189,7 +3866,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -4207,7 +3884,7 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -4225,7 +3902,7 @@
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -4243,7 +3920,7 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -4261,7 +3938,7 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -4279,7 +3956,7 @@
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -4297,7 +3974,7 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -4315,7 +3992,7 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -4333,7 +4010,7 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -4351,7 +4028,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -4369,7 +4046,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -4387,7 +4064,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -4405,7 +4082,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -4423,7 +4100,7 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -4441,7 +4118,7 @@
       <c r="O29"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -4459,7 +4136,7 @@
       <c r="O30"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -4477,7 +4154,7 @@
       <c r="O31"/>
       <c r="P31"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -4495,7 +4172,7 @@
       <c r="O32"/>
       <c r="P32"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -4513,7 +4190,7 @@
       <c r="O33"/>
       <c r="P33"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -4531,7 +4208,7 @@
       <c r="O34"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -4549,7 +4226,7 @@
       <c r="O35"/>
       <c r="P35"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -4567,7 +4244,7 @@
       <c r="O36"/>
       <c r="P36"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -4585,7 +4262,7 @@
       <c r="O37"/>
       <c r="P37"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -4603,7 +4280,7 @@
       <c r="O38"/>
       <c r="P38"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -4621,7 +4298,7 @@
       <c r="O39"/>
       <c r="P39"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -4639,7 +4316,7 @@
       <c r="O40"/>
       <c r="P40"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -4657,7 +4334,7 @@
       <c r="O41"/>
       <c r="P41"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -4675,7 +4352,7 @@
       <c r="O42"/>
       <c r="P42"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -4693,7 +4370,7 @@
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -4711,7 +4388,7 @@
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -4729,7 +4406,7 @@
       <c r="O45"/>
       <c r="P45"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -4747,7 +4424,7 @@
       <c r="O46"/>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -4765,7 +4442,7 @@
       <c r="O47"/>
       <c r="P47"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -4783,7 +4460,7 @@
       <c r="O48"/>
       <c r="P48"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -4801,7 +4478,7 @@
       <c r="O49"/>
       <c r="P49"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -4819,7 +4496,7 @@
       <c r="O50"/>
       <c r="P50"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -4837,7 +4514,7 @@
       <c r="O51"/>
       <c r="P51"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -4855,7 +4532,7 @@
       <c r="O52"/>
       <c r="P52"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -4873,7 +4550,7 @@
       <c r="O53"/>
       <c r="P53"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -4891,7 +4568,7 @@
       <c r="O54"/>
       <c r="P54"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -4909,7 +4586,7 @@
       <c r="O55"/>
       <c r="P55"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -4927,7 +4604,7 @@
       <c r="O56"/>
       <c r="P56"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -4945,7 +4622,7 @@
       <c r="O57"/>
       <c r="P57"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -4963,7 +4640,7 @@
       <c r="O58"/>
       <c r="P58"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -4981,7 +4658,7 @@
       <c r="O59"/>
       <c r="P59"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -4999,7 +4676,7 @@
       <c r="O60"/>
       <c r="P60"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -5017,7 +4694,7 @@
       <c r="O61"/>
       <c r="P61"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -5035,7 +4712,7 @@
       <c r="O62"/>
       <c r="P62"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -5053,7 +4730,7 @@
       <c r="O63"/>
       <c r="P63"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -5071,7 +4748,7 @@
       <c r="O64"/>
       <c r="P64"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -5089,7 +4766,7 @@
       <c r="O65"/>
       <c r="P65"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -5107,7 +4784,7 @@
       <c r="O66"/>
       <c r="P66"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -5125,7 +4802,7 @@
       <c r="O67"/>
       <c r="P67"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -5143,7 +4820,7 @@
       <c r="O68"/>
       <c r="P68"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -5161,7 +4838,7 @@
       <c r="O69"/>
       <c r="P69"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -5179,7 +4856,7 @@
       <c r="O70"/>
       <c r="P70"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -5197,7 +4874,7 @@
       <c r="O71"/>
       <c r="P71"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -5215,7 +4892,7 @@
       <c r="O72"/>
       <c r="P72"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -5233,7 +4910,7 @@
       <c r="O73"/>
       <c r="P73"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -5251,7 +4928,7 @@
       <c r="O74"/>
       <c r="P74"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -5269,7 +4946,7 @@
       <c r="O75"/>
       <c r="P75"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -5287,7 +4964,7 @@
       <c r="O76"/>
       <c r="P76"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -5305,7 +4982,7 @@
       <c r="O77"/>
       <c r="P77"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -5323,7 +5000,7 @@
       <c r="O78"/>
       <c r="P78"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -5341,7 +5018,7 @@
       <c r="O79"/>
       <c r="P79"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -5359,7 +5036,7 @@
       <c r="O80"/>
       <c r="P80"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -5377,7 +5054,7 @@
       <c r="O81"/>
       <c r="P81"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -5395,7 +5072,7 @@
       <c r="O82"/>
       <c r="P82"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -5413,7 +5090,7 @@
       <c r="O83"/>
       <c r="P83"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -5431,7 +5108,7 @@
       <c r="O84"/>
       <c r="P84"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -5449,7 +5126,7 @@
       <c r="O85"/>
       <c r="P85"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -5467,7 +5144,7 @@
       <c r="O86"/>
       <c r="P86"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -5485,7 +5162,7 @@
       <c r="O87"/>
       <c r="P87"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -5503,7 +5180,7 @@
       <c r="O88"/>
       <c r="P88"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -5521,7 +5198,7 @@
       <c r="O89"/>
       <c r="P89"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -5539,7 +5216,7 @@
       <c r="O90"/>
       <c r="P90"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -5557,7 +5234,7 @@
       <c r="O91"/>
       <c r="P91"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -5575,7 +5252,7 @@
       <c r="O92"/>
       <c r="P92"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -5593,7 +5270,7 @@
       <c r="O93"/>
       <c r="P93"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -5611,7 +5288,7 @@
       <c r="O94"/>
       <c r="P94"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -5629,7 +5306,7 @@
       <c r="O95"/>
       <c r="P95"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -5647,7 +5324,7 @@
       <c r="O96"/>
       <c r="P96"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -5665,7 +5342,7 @@
       <c r="O97"/>
       <c r="P97"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -5683,7 +5360,7 @@
       <c r="O98"/>
       <c r="P98"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -5701,7 +5378,7 @@
       <c r="O99"/>
       <c r="P99"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -5719,7 +5396,7 @@
       <c r="O100"/>
       <c r="P100"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -5737,7 +5414,7 @@
       <c r="O101"/>
       <c r="P101"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -5755,7 +5432,7 @@
       <c r="O102"/>
       <c r="P102"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -5773,7 +5450,7 @@
       <c r="O103"/>
       <c r="P103"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -5791,7 +5468,7 @@
       <c r="O104"/>
       <c r="P104"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -5809,7 +5486,7 @@
       <c r="O105"/>
       <c r="P105"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -5827,7 +5504,7 @@
       <c r="O106"/>
       <c r="P106"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -5845,7 +5522,7 @@
       <c r="O107"/>
       <c r="P107"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -5863,7 +5540,7 @@
       <c r="O108"/>
       <c r="P108"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -5881,7 +5558,7 @@
       <c r="O109"/>
       <c r="P109"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -5899,7 +5576,7 @@
       <c r="O110"/>
       <c r="P110"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -5917,7 +5594,7 @@
       <c r="O111"/>
       <c r="P111"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -5935,7 +5612,7 @@
       <c r="O112"/>
       <c r="P112"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -5953,7 +5630,7 @@
       <c r="O113"/>
       <c r="P113"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -5971,7 +5648,7 @@
       <c r="O114"/>
       <c r="P114"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -5989,7 +5666,7 @@
       <c r="O115"/>
       <c r="P115"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -6007,7 +5684,7 @@
       <c r="O116"/>
       <c r="P116"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -6025,7 +5702,7 @@
       <c r="O117"/>
       <c r="P117"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -6043,7 +5720,7 @@
       <c r="O118"/>
       <c r="P118"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -6061,7 +5738,7 @@
       <c r="O119"/>
       <c r="P119"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -6079,7 +5756,7 @@
       <c r="O120"/>
       <c r="P120"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -6097,7 +5774,7 @@
       <c r="O121"/>
       <c r="P121"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -6115,7 +5792,7 @@
       <c r="O122"/>
       <c r="P122"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -6133,7 +5810,7 @@
       <c r="O123"/>
       <c r="P123"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -6151,7 +5828,7 @@
       <c r="O124"/>
       <c r="P124"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -6169,7 +5846,7 @@
       <c r="O125"/>
       <c r="P125"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -6187,7 +5864,7 @@
       <c r="O126"/>
       <c r="P126"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -6205,7 +5882,7 @@
       <c r="O127"/>
       <c r="P127"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -6223,7 +5900,7 @@
       <c r="O128"/>
       <c r="P128"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -6241,7 +5918,7 @@
       <c r="O129"/>
       <c r="P129"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -6259,7 +5936,7 @@
       <c r="O130"/>
       <c r="P130"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -6277,7 +5954,7 @@
       <c r="O131"/>
       <c r="P131"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -6285,7 +5962,7 @@
       <c r="E132"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q132">
+  <sortState ref="A2:Q132">
     <sortCondition descending="1" ref="O1:O132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6293,19 +5970,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.08984375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="46" x14ac:dyDescent="1">
+    <row r="2" spans="2:15" ht="46.2" x14ac:dyDescent="0.85">
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
@@ -6323,7 +6000,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="4" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="43" t="s">
         <v>2</v>
       </c>
@@ -6340,7 +6017,7 @@
       <c r="K4" s="50"/>
       <c r="L4" s="51"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -6351,7 +6028,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
@@ -6362,7 +6039,7 @@
       <c r="K7" s="20"/>
       <c r="L7" s="21"/>
     </row>
-    <row r="8" spans="2:15" ht="46" x14ac:dyDescent="1">
+    <row r="8" spans="2:15" ht="46.2" x14ac:dyDescent="0.85">
       <c r="B8" s="6"/>
       <c r="C8" s="9">
         <f>COUNT(OpenBids!A:A)</f>
@@ -6378,11 +6055,11 @@
       <c r="J8" s="19"/>
       <c r="K8" s="22">
         <f>COUNT(Awarded!A:A)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L8" s="21"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -6393,7 +6070,7 @@
       <c r="K9" s="20"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
@@ -6404,14 +6081,14 @@
       <c r="K10" s="24"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B12" s="46" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="48"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>5</v>
       </c>
@@ -6432,19 +6109,19 @@
       </c>
       <c r="L13" s="41"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="27">
         <f>'Top5'!A2</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="28" t="str">
         <f>'Top5'!B2</f>
-        <v>NYP000ETQ22000080</v>
+        <v>MOESCHETQ22001816</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="35" t="str">
         <f>'Top5'!E2</f>
-        <v>Invitation to Quote for the Provision of Virtual Innovation and Enterprise Booster-1 programme For NYP Learners</v>
+        <v>Instructors for Digital Literacy Programme in Queenstown Secondary School</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
@@ -6453,23 +6130,23 @@
       <c r="J14" s="37"/>
       <c r="K14" s="31" t="str">
         <f>'Top5'!H2</f>
-        <v>22 Apr 2022 01:00PM</v>
+        <v>25 Apr 2022 01:00PM</v>
       </c>
       <c r="L14" s="29"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="27">
         <f>'Top5'!A3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="28" t="str">
         <f>'Top5'!B3</f>
-        <v>MOESCHETQ22001771</v>
+        <v>MOESCHETQ22001800</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="35" t="str">
         <f>'Top5'!E3</f>
-        <v>FHSS - ECG Day 2022 Self Profiling for Secondary 4 and 5 students</v>
+        <v>2022 English Bridging Support</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
@@ -6478,23 +6155,23 @@
       <c r="J15" s="37"/>
       <c r="K15" s="31" t="str">
         <f>'Top5'!H3</f>
-        <v>22 Apr 2022 01:00PM</v>
+        <v>25 Apr 2022 01:00PM</v>
       </c>
       <c r="L15" s="29"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="27">
         <f>'Top5'!A4</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="28" t="str">
         <f>'Top5'!B4</f>
-        <v>MOESCHETQ22001758</v>
+        <v>MOESCHETQ22001802</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="35" t="str">
         <f>'Top5'!E4</f>
-        <v>Provision of instructors, equipment and venues (venues for water-based activities only) for 3 Days Non-Residential Secondary 2 Outdoor Adventure Camp</v>
+        <v>ITQ for Supply of Instructor for Mother Tongue Fortnight activities for Students in Beacon Primary School for our P1-P6 students</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
@@ -6507,19 +6184,19 @@
       </c>
       <c r="L16" s="29"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="27">
         <f>'Top5'!A5</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C17" s="28" t="str">
         <f>'Top5'!B5</f>
-        <v>MOESCHETQ22001740</v>
+        <v>MOESCHETQ22001811</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="35" t="str">
         <f>'Top5'!E5</f>
-        <v>2 DAYS STUDENTS LEADERS' TRAINING PROGRAMME</v>
+        <v>Supply of Pianist for Choir CCA Programme in Clementi Primary School</v>
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
@@ -6528,23 +6205,23 @@
       <c r="J17" s="37"/>
       <c r="K17" s="31" t="str">
         <f>'Top5'!H5</f>
-        <v>21 Apr 2022 01:00PM</v>
+        <v>25 Apr 2022 01:00PM</v>
       </c>
       <c r="L17" s="29"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="27">
         <f>'Top5'!A6</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="28" t="str">
         <f>'Top5'!B6</f>
-        <v>MOE000ETQ22000102</v>
+        <v>NYP000ETQ22000081</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="32" t="str">
         <f>'Top5'!E6</f>
-        <v>Provision of Facilitator/s to coach and train  MOE Language Centre Key Personnels(KPs) and Staff in a series Leadership and Professional Programmes</v>
+        <v>To appoint training service providers for the provision of services to develop and deliver Masterclass Programmes for a period of 2 years</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -6553,11 +6230,11 @@
       <c r="J18" s="34"/>
       <c r="K18" s="31" t="str">
         <f>'Top5'!H6</f>
-        <v>04 May 2022 01:00PM</v>
+        <v>05 May 2022 01:00PM</v>
       </c>
       <c r="L18" s="29"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>

--- a/output/Bids.xlsx
+++ b/output/Bids.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\UiPath\SCT9_Diamond_Project1\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e6431dddeb4959f/Documents/UiPath/Diamond/Project1/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9243" documentId="11_F9B9EC266AEF9A6C55FAC822FA75B080F77F927C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D808B5D7-F96B-4000-AF29-6FDC8BD4BEE6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Awarded" sheetId="3" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OpenBids!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Top5'!$A$1:$P$49</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,148 +128,145 @@
     <t>UOM</t>
   </si>
   <si>
+    <t>Download Link</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001816</t>
+  </si>
+  <si>
     <t>Quotation</t>
   </si>
   <si>
+    <t>Instructors for Digital Literacy Programme in Queenstown Secondary School</t>
+  </si>
+  <si>
     <t>Ministry of Education - Schools</t>
   </si>
   <si>
+    <t>14 Apr 2022 05:50PM</t>
+  </si>
+  <si>
+    <t>25 Apr 2022 01:00PM</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>MR JOSEPH TEO</t>
+  </si>
+  <si>
+    <t>teo_chai_hong_joseph@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>1 Strathmore Road Singapore 148800</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001816</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001800</t>
+  </si>
+  <si>
+    <t>2022 English Bridging Support</t>
+  </si>
+  <si>
+    <t>14 Apr 2022 05:05PM</t>
+  </si>
+  <si>
+    <t>GOH PAI SHEN</t>
+  </si>
+  <si>
+    <t>goh_pai_shen@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>Catholic High School (Secondary), 9 Bishan Street 22 Singapore 579767</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001800</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001802</t>
+  </si>
+  <si>
+    <t>ITQ for Supply of Instructor for Mother Tongue Fortnight activities for Students in Beacon Primary School for our P1-P6 students</t>
+  </si>
+  <si>
+    <t>14 Apr 2022 04:05PM</t>
+  </si>
+  <si>
+    <t>MS LEE PEI PEI</t>
+  </si>
+  <si>
+    <t>lee_pei_pei@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>Ministry of Education,1, North Buona Vista Drive</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001802</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001811</t>
+  </si>
+  <si>
+    <t>Supply of Pianist for Choir CCA Programme in Clementi Primary School</t>
+  </si>
+  <si>
+    <t>14 Apr 2022 03:35PM</t>
+  </si>
+  <si>
+    <t>FIONA KWAN</t>
+  </si>
+  <si>
+    <t>fiona_kwan_lok_mun@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>8 Clementi Avenue 3 Singapore 129903</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001811</t>
+  </si>
+  <si>
+    <t>NYP000ETQ22000081</t>
+  </si>
+  <si>
+    <t>To appoint training service providers for the provision of services to develop and deliver Masterclass Programmes for a period of 2 years</t>
+  </si>
+  <si>
     <t>Nanyang Polytechnic</t>
   </si>
   <si>
-    <t>25 Apr 2022 01:00PM</t>
+    <t>14 Apr 2022 02:19PM</t>
+  </si>
+  <si>
+    <t>05 May 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>JENNY LING / PATRICK PNG</t>
+  </si>
+  <si>
+    <t>jenny_ling@sirs.edu.sg</t>
+  </si>
+  <si>
+    <t>64173650 / 65500717</t>
+  </si>
+  <si>
+    <t>Singapore Institute of Retail Studies, 11 Eunos Road 8, Lifelong Learning Institute, #08-02/03/04, Singapore 408601</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\NYP000ETQ22000081</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001805</t>
+  </si>
+  <si>
+    <t>Manpower service for Science Lab 1+1 year</t>
+  </si>
+  <si>
+    <t>14 Apr 2022 02:05PM</t>
   </si>
   <si>
     <t>04 May 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Download Link</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001816</t>
-  </si>
-  <si>
-    <t>Instructors for Digital Literacy Programme in Queenstown Secondary School</t>
-  </si>
-  <si>
-    <t>14 Apr 2022 05:50PM</t>
-  </si>
-  <si>
-    <t>MR JOSEPH TEO</t>
-  </si>
-  <si>
-    <t>teo_chai_hong_joseph@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>1 Strathmore Road Singapore 148800</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001816</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001800</t>
-  </si>
-  <si>
-    <t>2022 English Bridging Support</t>
-  </si>
-  <si>
-    <t>14 Apr 2022 05:05PM</t>
-  </si>
-  <si>
-    <t>GOH PAI SHEN</t>
-  </si>
-  <si>
-    <t>goh_pai_shen@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>Catholic High School (Secondary), 9 Bishan Street 22 Singapore 579767</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001800</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001802</t>
-  </si>
-  <si>
-    <t>ITQ for Supply of Instructor for Mother Tongue Fortnight activities for Students in Beacon Primary School for our P1-P6 students</t>
-  </si>
-  <si>
-    <t>14 Apr 2022 04:05PM</t>
-  </si>
-  <si>
-    <t>MS LEE PEI PEI</t>
-  </si>
-  <si>
-    <t>lee_pei_pei@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>Ministry of Education,1, North Buona Vista Drive</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001802</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001811</t>
-  </si>
-  <si>
-    <t>Supply of Pianist for Choir CCA Programme in Clementi Primary School</t>
-  </si>
-  <si>
-    <t>14 Apr 2022 03:35PM</t>
-  </si>
-  <si>
-    <t>FIONA KWAN</t>
-  </si>
-  <si>
-    <t>fiona_kwan_lok_mun@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>8 Clementi Avenue 3 Singapore 129903</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001811</t>
-  </si>
-  <si>
-    <t>NYP000ETQ22000081</t>
-  </si>
-  <si>
-    <t>To appoint training service providers for the provision of services to develop and deliver Masterclass Programmes for a period of 2 years</t>
-  </si>
-  <si>
-    <t>14 Apr 2022 02:19PM</t>
-  </si>
-  <si>
-    <t>05 May 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>JENNY LING / PATRICK PNG</t>
-  </si>
-  <si>
-    <t>jenny_ling@sirs.edu.sg</t>
-  </si>
-  <si>
-    <t>64173650 / 65500717</t>
-  </si>
-  <si>
-    <t>Singapore Institute of Retail Studies, 11 Eunos Road 8, Lifelong Learning Institute, #08-02/03/04, Singapore 408601</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\NYP000ETQ22000081</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001805</t>
-  </si>
-  <si>
-    <t>Manpower service for Science Lab 1+1 year</t>
-  </si>
-  <si>
-    <t>14 Apr 2022 02:05PM</t>
   </si>
   <si>
     <t>MRS EMILY WONG</t>
@@ -382,6 +380,9 @@
   </si>
   <si>
     <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001730</t>
+  </si>
+  <si>
+    <t>Person</t>
   </si>
   <si>
     <t>MOESCHETQ22001462</t>
@@ -507,7 +508,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -967,7 +968,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -993,34 +993,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,34 +1032,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>398</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>323</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>305</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>267</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>194</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,7 +1639,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1647,6 +1646,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -2587,21 +2587,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A2" sqref="A2:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="8.77734375" style="1"/>
-    <col min="5" max="5" width="35.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="4" width="8.81640625" style="1"/>
+    <col min="5" max="5" width="35.81640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>109</v>
@@ -2641,7 +2641,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>113</v>
@@ -2661,7 +2661,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>117</v>
@@ -2681,7 +2681,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>121</v>
@@ -2701,7 +2701,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>125</v>
@@ -2721,7 +2721,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>129</v>
@@ -2741,7 +2741,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>133</v>
@@ -2761,7 +2761,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>136</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>137</v>
@@ -2781,7 +2781,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>140</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>141</v>
@@ -2801,7 +2801,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>144</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>145</v>
@@ -2827,26 +2827,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.77734375" style="1"/>
-    <col min="9" max="9" width="6.109375" style="1" customWidth="1"/>
-    <col min="10" max="13" width="8.77734375" style="1"/>
-    <col min="14" max="16" width="14.77734375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="1"/>
+    <col min="3" max="3" width="8.90625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.81640625" style="1"/>
+    <col min="9" max="9" width="6.08984375" style="1" customWidth="1"/>
+    <col min="10" max="13" width="8.81640625" style="1"/>
+    <col min="14" max="16" width="14.81640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2896,42 +2896,42 @@
         <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="L2" s="1">
         <v>64741055</v>
@@ -2940,51 +2940,51 @@
         <v>64741295</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O2" s="1">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="L3" s="1">
         <v>64582177</v>
@@ -2993,51 +2993,51 @@
         <v>64561322</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O3" s="1">
-        <v>398</v>
+        <v>114</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="L4" s="1">
         <v>67697255</v>
@@ -3046,151 +3046,151 @@
         <v>67697244</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O4" s="1">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="L5" s="1">
         <v>67797449</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O5" s="1">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="O6" s="1">
+        <v>112</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="1">
-        <v>323</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="L7" s="1">
         <v>68962054</v>
@@ -3199,51 +3199,51 @@
         <v>65632356</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="1">
+        <v>244</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O7" s="1">
-        <v>75</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="L8" s="1">
         <v>62886516</v>
@@ -3252,51 +3252,51 @@
         <v>62876393</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="1">
+        <v>290</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="1">
-        <v>88</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="L9" s="1">
         <v>62886516</v>
@@ -3305,51 +3305,51 @@
         <v>62876393</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="1">
+        <v>104</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="1">
-        <v>82</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="L10" s="1">
         <v>63443072</v>
@@ -3358,101 +3358,101 @@
         <v>63459007</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="1">
+        <v>284</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O10" s="1">
-        <v>194</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="L11" s="1">
         <v>67932039</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" s="1">
+        <v>158</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O11" s="1">
-        <v>61</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="L12" s="1">
         <v>62575684</v>
@@ -3461,16 +3461,16 @@
         <v>67558802</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" s="1">
+        <v>376</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="O12" s="1">
-        <v>305</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3479,21 +3479,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="8.77734375" style="1"/>
-    <col min="14" max="14" width="14.77734375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="13" width="8.81640625" style="1"/>
+    <col min="14" max="14" width="14.81640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3543,536 +3543,534 @@
         <v>23</v>
       </c>
       <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2">
+        <v>62575684</v>
+      </c>
+      <c r="M2">
+        <v>67558802</v>
+      </c>
+      <c r="N2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2">
+        <v>376</v>
+      </c>
+      <c r="P2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3">
+        <v>64741055</v>
+      </c>
+      <c r="M3">
+        <v>64741295</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3">
+        <v>341</v>
+      </c>
+      <c r="P3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2">
-        <v>64582177</v>
-      </c>
-      <c r="M2">
-        <v>64561322</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2">
-        <v>398</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4">
+        <v>62886516</v>
+      </c>
+      <c r="M4">
+        <v>62876393</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4">
+        <v>290</v>
+      </c>
+      <c r="P4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3"/>
-      <c r="N3" t="s">
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5">
+        <v>63443072</v>
+      </c>
+      <c r="M5">
+        <v>63459007</v>
+      </c>
+      <c r="N5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5">
+        <v>284</v>
+      </c>
+      <c r="P5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="O3">
-        <v>323</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6">
+        <v>68962054</v>
+      </c>
+      <c r="M6">
+        <v>65632356</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6">
+        <v>244</v>
+      </c>
+      <c r="P6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7">
+        <v>67797449</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7">
+        <v>206</v>
+      </c>
+      <c r="P7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4">
-        <v>62575684</v>
-      </c>
-      <c r="M4">
-        <v>67558802</v>
-      </c>
-      <c r="N4" t="s">
-        <v>106</v>
-      </c>
-      <c r="O4">
-        <v>305</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5">
-        <v>67697255</v>
-      </c>
-      <c r="M5">
-        <v>67697244</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5">
-        <v>275</v>
-      </c>
-      <c r="P5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6">
-        <v>64741055</v>
-      </c>
-      <c r="M6">
-        <v>64741295</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6">
-        <v>267</v>
-      </c>
-      <c r="P6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7">
-        <v>63443072</v>
-      </c>
-      <c r="M7">
-        <v>63459007</v>
-      </c>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7">
-        <v>194</v>
-      </c>
-      <c r="P7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="L8">
-        <v>67797449</v>
+        <v>67932039</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8">
+        <v>158</v>
+      </c>
+      <c r="P8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <v>64582177</v>
+      </c>
+      <c r="M9">
+        <v>64561322</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9">
+        <v>114</v>
+      </c>
+      <c r="P9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="O8">
-        <v>94</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10">
+        <v>112</v>
+      </c>
+      <c r="P10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9">
-        <v>62886516</v>
-      </c>
-      <c r="M9">
-        <v>62876393</v>
-      </c>
-      <c r="N9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9">
-        <v>88</v>
-      </c>
-      <c r="P9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10">
-        <v>62886516</v>
-      </c>
-      <c r="M10">
-        <v>62876393</v>
-      </c>
-      <c r="N10" t="s">
-        <v>88</v>
-      </c>
-      <c r="O10">
-        <v>82</v>
-      </c>
-      <c r="P10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="L11">
-        <v>68962054</v>
+        <v>67697255</v>
       </c>
       <c r="M11">
-        <v>65632356</v>
+        <v>67697244</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="O11">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="P11" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="Q11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -4091,7 +4089,7 @@
       <c r="P12"/>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -4108,8 +4106,9 @@
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -4126,8 +4125,9 @@
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -4144,8 +4144,9 @@
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -4162,8 +4163,9 @@
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -4180,8 +4182,9 @@
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -4198,8 +4201,9 @@
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -4216,8 +4220,9 @@
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -4234,8 +4239,9 @@
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -4252,8 +4258,9 @@
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -4270,8 +4277,9 @@
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -4288,8 +4296,9 @@
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -4306,8 +4315,9 @@
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -4324,8 +4334,9 @@
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -4342,8 +4353,9 @@
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q26"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -4360,8 +4372,9 @@
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q27"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -4378,8 +4391,9 @@
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q28"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -4396,8 +4410,9 @@
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q29"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -4414,8 +4429,9 @@
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q30"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -4433,7 +4449,7 @@
       <c r="O31"/>
       <c r="P31"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -4451,7 +4467,7 @@
       <c r="O32"/>
       <c r="P32"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -4469,7 +4485,7 @@
       <c r="O33"/>
       <c r="P33"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -4487,7 +4503,7 @@
       <c r="O34"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -4505,7 +4521,7 @@
       <c r="O35"/>
       <c r="P35"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -4523,7 +4539,7 @@
       <c r="O36"/>
       <c r="P36"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -4541,7 +4557,7 @@
       <c r="O37"/>
       <c r="P37"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -4559,7 +4575,7 @@
       <c r="O38"/>
       <c r="P38"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -4577,7 +4593,7 @@
       <c r="O39"/>
       <c r="P39"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -4595,7 +4611,7 @@
       <c r="O40"/>
       <c r="P40"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -4613,7 +4629,7 @@
       <c r="O41"/>
       <c r="P41"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -4631,7 +4647,7 @@
       <c r="O42"/>
       <c r="P42"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -4649,7 +4665,7 @@
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -4667,7 +4683,7 @@
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -4685,7 +4701,7 @@
       <c r="O45"/>
       <c r="P45"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -4703,7 +4719,7 @@
       <c r="O46"/>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -4721,7 +4737,7 @@
       <c r="O47"/>
       <c r="P47"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -4739,7 +4755,7 @@
       <c r="O48"/>
       <c r="P48"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -4757,7 +4773,7 @@
       <c r="O49"/>
       <c r="P49"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -4775,7 +4791,7 @@
       <c r="O50"/>
       <c r="P50"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -4793,7 +4809,7 @@
       <c r="O51"/>
       <c r="P51"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -4811,7 +4827,7 @@
       <c r="O52"/>
       <c r="P52"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -4829,7 +4845,7 @@
       <c r="O53"/>
       <c r="P53"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -4847,7 +4863,7 @@
       <c r="O54"/>
       <c r="P54"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -4865,7 +4881,7 @@
       <c r="O55"/>
       <c r="P55"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -4883,7 +4899,7 @@
       <c r="O56"/>
       <c r="P56"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -4901,7 +4917,7 @@
       <c r="O57"/>
       <c r="P57"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -4919,7 +4935,7 @@
       <c r="O58"/>
       <c r="P58"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -4937,7 +4953,7 @@
       <c r="O59"/>
       <c r="P59"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -4955,7 +4971,7 @@
       <c r="O60"/>
       <c r="P60"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -4973,7 +4989,7 @@
       <c r="O61"/>
       <c r="P61"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -4991,7 +5007,7 @@
       <c r="O62"/>
       <c r="P62"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -5009,7 +5025,7 @@
       <c r="O63"/>
       <c r="P63"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -5027,7 +5043,7 @@
       <c r="O64"/>
       <c r="P64"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -5045,7 +5061,7 @@
       <c r="O65"/>
       <c r="P65"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -5063,7 +5079,7 @@
       <c r="O66"/>
       <c r="P66"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -5081,7 +5097,7 @@
       <c r="O67"/>
       <c r="P67"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -5099,7 +5115,7 @@
       <c r="O68"/>
       <c r="P68"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -5117,7 +5133,7 @@
       <c r="O69"/>
       <c r="P69"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -5135,7 +5151,7 @@
       <c r="O70"/>
       <c r="P70"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -5153,7 +5169,7 @@
       <c r="O71"/>
       <c r="P71"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -5171,7 +5187,7 @@
       <c r="O72"/>
       <c r="P72"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -5189,7 +5205,7 @@
       <c r="O73"/>
       <c r="P73"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -5207,7 +5223,7 @@
       <c r="O74"/>
       <c r="P74"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -5225,7 +5241,7 @@
       <c r="O75"/>
       <c r="P75"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -5243,7 +5259,7 @@
       <c r="O76"/>
       <c r="P76"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -5261,7 +5277,7 @@
       <c r="O77"/>
       <c r="P77"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -5279,7 +5295,7 @@
       <c r="O78"/>
       <c r="P78"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -5297,7 +5313,7 @@
       <c r="O79"/>
       <c r="P79"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -5315,7 +5331,7 @@
       <c r="O80"/>
       <c r="P80"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -5333,7 +5349,7 @@
       <c r="O81"/>
       <c r="P81"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -5351,7 +5367,7 @@
       <c r="O82"/>
       <c r="P82"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -5369,7 +5385,7 @@
       <c r="O83"/>
       <c r="P83"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -5387,7 +5403,7 @@
       <c r="O84"/>
       <c r="P84"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -5405,7 +5421,7 @@
       <c r="O85"/>
       <c r="P85"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -5423,7 +5439,7 @@
       <c r="O86"/>
       <c r="P86"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -5441,7 +5457,7 @@
       <c r="O87"/>
       <c r="P87"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -5459,7 +5475,7 @@
       <c r="O88"/>
       <c r="P88"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -5477,7 +5493,7 @@
       <c r="O89"/>
       <c r="P89"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -5495,7 +5511,7 @@
       <c r="O90"/>
       <c r="P90"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -5513,7 +5529,7 @@
       <c r="O91"/>
       <c r="P91"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -5531,7 +5547,7 @@
       <c r="O92"/>
       <c r="P92"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -5549,7 +5565,7 @@
       <c r="O93"/>
       <c r="P93"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -5567,7 +5583,7 @@
       <c r="O94"/>
       <c r="P94"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -5585,7 +5601,7 @@
       <c r="O95"/>
       <c r="P95"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -5603,7 +5619,7 @@
       <c r="O96"/>
       <c r="P96"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -5621,7 +5637,7 @@
       <c r="O97"/>
       <c r="P97"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -5639,7 +5655,7 @@
       <c r="O98"/>
       <c r="P98"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -5657,7 +5673,7 @@
       <c r="O99"/>
       <c r="P99"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -5675,7 +5691,7 @@
       <c r="O100"/>
       <c r="P100"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -5693,7 +5709,7 @@
       <c r="O101"/>
       <c r="P101"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -5711,7 +5727,7 @@
       <c r="O102"/>
       <c r="P102"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -5729,7 +5745,7 @@
       <c r="O103"/>
       <c r="P103"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -5747,7 +5763,7 @@
       <c r="O104"/>
       <c r="P104"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -5765,7 +5781,7 @@
       <c r="O105"/>
       <c r="P105"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -5783,7 +5799,7 @@
       <c r="O106"/>
       <c r="P106"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -5801,7 +5817,7 @@
       <c r="O107"/>
       <c r="P107"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -5819,7 +5835,7 @@
       <c r="O108"/>
       <c r="P108"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -5837,7 +5853,7 @@
       <c r="O109"/>
       <c r="P109"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -5855,7 +5871,7 @@
       <c r="O110"/>
       <c r="P110"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -5873,7 +5889,7 @@
       <c r="O111"/>
       <c r="P111"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -5891,7 +5907,7 @@
       <c r="O112"/>
       <c r="P112"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -5909,7 +5925,7 @@
       <c r="O113"/>
       <c r="P113"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -5927,7 +5943,7 @@
       <c r="O114"/>
       <c r="P114"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -5945,7 +5961,7 @@
       <c r="O115"/>
       <c r="P115"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -5963,7 +5979,7 @@
       <c r="O116"/>
       <c r="P116"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -5981,7 +5997,7 @@
       <c r="O117"/>
       <c r="P117"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -5999,7 +6015,7 @@
       <c r="O118"/>
       <c r="P118"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -6017,7 +6033,7 @@
       <c r="O119"/>
       <c r="P119"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -6035,7 +6051,7 @@
       <c r="O120"/>
       <c r="P120"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -6053,7 +6069,7 @@
       <c r="O121"/>
       <c r="P121"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -6071,7 +6087,7 @@
       <c r="O122"/>
       <c r="P122"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -6089,7 +6105,7 @@
       <c r="O123"/>
       <c r="P123"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -6107,7 +6123,7 @@
       <c r="O124"/>
       <c r="P124"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -6125,7 +6141,7 @@
       <c r="O125"/>
       <c r="P125"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -6143,7 +6159,7 @@
       <c r="O126"/>
       <c r="P126"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -6161,7 +6177,7 @@
       <c r="O127"/>
       <c r="P127"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -6179,7 +6195,7 @@
       <c r="O128"/>
       <c r="P128"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -6197,7 +6213,7 @@
       <c r="O129"/>
       <c r="P129"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -6215,7 +6231,7 @@
       <c r="O130"/>
       <c r="P130"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -6233,7 +6249,7 @@
       <c r="O131"/>
       <c r="P131"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -6241,27 +6257,27 @@
       <c r="E132"/>
     </row>
   </sheetData>
-  <sortState ref="A2:Q132">
-    <sortCondition descending="1" ref="O1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q132">
+    <sortCondition descending="1" ref="O1:O132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:O20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="46.2" x14ac:dyDescent="0.85">
+    <row r="2" spans="2:15" ht="46" x14ac:dyDescent="1">
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
@@ -6279,7 +6295,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="43" t="s">
         <v>2</v>
       </c>
@@ -6296,7 +6312,7 @@
       <c r="K4" s="50"/>
       <c r="L4" s="51"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -6307,7 +6323,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
@@ -6318,7 +6334,7 @@
       <c r="K7" s="20"/>
       <c r="L7" s="21"/>
     </row>
-    <row r="8" spans="2:15" ht="46.2" x14ac:dyDescent="0.85">
+    <row r="8" spans="2:15" ht="46" x14ac:dyDescent="1">
       <c r="B8" s="6"/>
       <c r="C8" s="9">
         <f>COUNT(OpenBids!A:A)</f>
@@ -6338,7 +6354,7 @@
       </c>
       <c r="L8" s="21"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -6349,7 +6365,7 @@
       <c r="K9" s="20"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
@@ -6360,14 +6376,14 @@
       <c r="K10" s="24"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="46" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="48"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="26" t="s">
         <v>5</v>
       </c>
@@ -6388,19 +6404,19 @@
       </c>
       <c r="L13" s="41"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="27">
         <f>'Top5'!A2</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C14" s="28" t="str">
         <f>'Top5'!B2</f>
-        <v>MOESCHETQ22001800</v>
+        <v>MOESCHETQ22001730</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="35" t="str">
         <f>'Top5'!E2</f>
-        <v>2022 English Bridging Support</v>
+        <v>Supply of Instructors for Primary 1 Programme for Active Learning (PAL) - Dance Module in Peiying Primary School</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
@@ -6413,19 +6429,19 @@
       </c>
       <c r="L14" s="29"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="27">
         <f>'Top5'!A3</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" s="28" t="str">
         <f>'Top5'!B3</f>
-        <v>NYP000ETQ22000081</v>
+        <v>MOESCHETQ22001816</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="35" t="str">
         <f>'Top5'!E3</f>
-        <v>To appoint training service providers for the provision of services to develop and deliver Masterclass Programmes for a period of 2 years</v>
+        <v>Instructors for Digital Literacy Programme in Queenstown Secondary School</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
@@ -6434,23 +6450,23 @@
       <c r="J15" s="37"/>
       <c r="K15" s="31" t="str">
         <f>'Top5'!H3</f>
-        <v>05 May 2022 01:00PM</v>
+        <v>25 Apr 2022 01:00PM</v>
       </c>
       <c r="L15" s="29"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="27">
         <f>'Top5'!A4</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" s="28" t="str">
         <f>'Top5'!B4</f>
-        <v>MOESCHETQ22001730</v>
+        <v>MOESCHETQ22001795</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="35" t="str">
         <f>'Top5'!E4</f>
-        <v>Supply of Instructors for Primary 1 Programme for Active Learning (PAL) - Dance Module in Peiying Primary School</v>
+        <v>Provision of 3 Days Non-Residential Primary 5 Cohort Outdoor Learning Camp 2022</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
@@ -6463,19 +6479,19 @@
       </c>
       <c r="L16" s="29"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="27">
         <f>'Top5'!A5</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C17" s="28" t="str">
         <f>'Top5'!B5</f>
-        <v>MOESCHETQ22001802</v>
+        <v>MOESCHETQ22001791</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="35" t="str">
         <f>'Top5'!E5</f>
-        <v>ITQ for Supply of Instructor for Mother Tongue Fortnight activities for Students in Beacon Primary School for our P1-P6 students</v>
+        <v>Supply of Instructor for Student Leadership Programme for CHIJ (Katong) Primary: - P4 to P6 Prefects (Trainee &amp; Senior) and P3 to P6 Class Monitors</v>
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
@@ -6488,19 +6504,19 @@
       </c>
       <c r="L17" s="29"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="27">
         <f>'Top5'!A6</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" s="28" t="str">
         <f>'Top5'!B6</f>
-        <v>MOESCHETQ22001816</v>
+        <v>MOESCHETQ22001805</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="32" t="str">
         <f>'Top5'!E6</f>
-        <v>Instructors for Digital Literacy Programme in Queenstown Secondary School</v>
+        <v>Manpower service for Science Lab 1+1 year</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -6509,11 +6525,11 @@
       <c r="J18" s="34"/>
       <c r="K18" s="31" t="str">
         <f>'Top5'!H6</f>
-        <v>25 Apr 2022 01:00PM</v>
+        <v>04 May 2022 01:00PM</v>
       </c>
       <c r="L18" s="29"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>

--- a/output/Bids.xlsx
+++ b/output/Bids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e6431dddeb4959f/Documents/UiPath/Diamond/Project1/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9243" documentId="11_F9B9EC266AEF9A6C55FAC822FA75B080F77F927C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D808B5D7-F96B-4000-AF29-6FDC8BD4BEE6}"/>
+  <xr:revisionPtr revIDLastSave="18896" documentId="11_F9B9EC266AEF9A6C55FAC822FA75B080F77F927C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7EB9933-EC0B-43A8-8457-8CD59360FEAD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,34 +993,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,34 +1032,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>376</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>341</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>290</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>284</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>244</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>206</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>158</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,7 +2591,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2943,7 +2943,7 @@
         <v>34</v>
       </c>
       <c r="O2" s="1">
-        <v>341</v>
+        <v>155</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>107</v>
@@ -2996,7 +2996,7 @@
         <v>41</v>
       </c>
       <c r="O3" s="1">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>107</v>
@@ -3049,7 +3049,7 @@
         <v>48</v>
       </c>
       <c r="O4" s="1">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>107</v>
@@ -3099,7 +3099,7 @@
         <v>55</v>
       </c>
       <c r="O5" s="1">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>107</v>
@@ -3149,7 +3149,7 @@
         <v>65</v>
       </c>
       <c r="O6" s="1">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>107</v>
@@ -3202,7 +3202,7 @@
         <v>73</v>
       </c>
       <c r="O7" s="1">
-        <v>244</v>
+        <v>381</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>107</v>
@@ -3255,7 +3255,7 @@
         <v>80</v>
       </c>
       <c r="O8" s="1">
-        <v>290</v>
+        <v>35</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>107</v>
@@ -3308,7 +3308,7 @@
         <v>87</v>
       </c>
       <c r="O9" s="1">
-        <v>104</v>
+        <v>292</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>107</v>
@@ -3361,7 +3361,7 @@
         <v>93</v>
       </c>
       <c r="O10" s="1">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>107</v>
@@ -3411,7 +3411,7 @@
         <v>99</v>
       </c>
       <c r="O11" s="1">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>107</v>
@@ -3464,7 +3464,7 @@
         <v>105</v>
       </c>
       <c r="O12" s="1">
-        <v>376</v>
+        <v>112</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>107</v>
@@ -3548,78 +3548,78 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="L2">
-        <v>62575684</v>
+        <v>68962054</v>
       </c>
       <c r="M2">
-        <v>67558802</v>
+        <v>65632356</v>
       </c>
       <c r="N2" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="O2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P2" t="s">
         <v>107</v>
       </c>
       <c r="Q2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
         <v>30</v>
@@ -3628,51 +3628,49 @@
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="L3">
-        <v>64741055</v>
-      </c>
-      <c r="M3">
-        <v>64741295</v>
-      </c>
+        <v>67797449</v>
+      </c>
+      <c r="M3"/>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="O3">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="P3" t="s">
         <v>107</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
         <v>30</v>
@@ -3681,10 +3679,10 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L4">
         <v>62886516</v>
@@ -3693,33 +3691,33 @@
         <v>62876393</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O4">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P4" t="s">
         <v>107</v>
       </c>
       <c r="Q4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -3734,104 +3732,102 @@
         <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L5">
-        <v>63443072</v>
-      </c>
-      <c r="M5">
-        <v>63459007</v>
-      </c>
+        <v>67932039</v>
+      </c>
+      <c r="M5"/>
       <c r="N5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O5">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="P5" t="s">
         <v>107</v>
       </c>
       <c r="Q5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="L6">
-        <v>68962054</v>
+        <v>63443072</v>
       </c>
       <c r="M6">
-        <v>65632356</v>
+        <v>63459007</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="O6">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="P6" t="s">
         <v>107</v>
       </c>
       <c r="Q6" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
         <v>30</v>
@@ -3840,100 +3836,102 @@
         <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L7">
-        <v>67797449</v>
-      </c>
-      <c r="M7"/>
+        <v>67697255</v>
+      </c>
+      <c r="M7">
+        <v>67697244</v>
+      </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O7">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="P7" t="s">
         <v>107</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8">
-        <v>67932039</v>
+        <v>63</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="O8">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="P8" t="s">
         <v>107</v>
       </c>
       <c r="Q8" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
         <v>30</v>
@@ -3942,102 +3940,104 @@
         <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L9">
-        <v>64582177</v>
+        <v>64741055</v>
       </c>
       <c r="M9">
-        <v>64561322</v>
+        <v>64741295</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="O9">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="P9" t="s">
         <v>107</v>
       </c>
       <c r="Q9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
         <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10"/>
+        <v>40</v>
+      </c>
+      <c r="L10">
+        <v>64582177</v>
+      </c>
+      <c r="M10">
+        <v>64561322</v>
+      </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="O10">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s">
         <v>107</v>
       </c>
       <c r="Q10" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
@@ -4046,28 +4046,28 @@
         <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="L11">
-        <v>67697255</v>
+        <v>62575684</v>
       </c>
       <c r="M11">
-        <v>67697244</v>
+        <v>67558802</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="O11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P11" t="s">
         <v>107</v>
       </c>
       <c r="Q11" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -6407,16 +6407,16 @@
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="27">
         <f>'Top5'!A2</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C14" s="28" t="str">
         <f>'Top5'!B2</f>
-        <v>MOESCHETQ22001730</v>
+        <v>MOESCHETQ22001805</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="35" t="str">
         <f>'Top5'!E2</f>
-        <v>Supply of Instructors for Primary 1 Programme for Active Learning (PAL) - Dance Module in Peiying Primary School</v>
+        <v>Manpower service for Science Lab 1+1 year</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
@@ -6425,23 +6425,23 @@
       <c r="J14" s="37"/>
       <c r="K14" s="31" t="str">
         <f>'Top5'!H2</f>
-        <v>25 Apr 2022 01:00PM</v>
+        <v>04 May 2022 01:00PM</v>
       </c>
       <c r="L14" s="29"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="27">
         <f>'Top5'!A3</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="28" t="str">
         <f>'Top5'!B3</f>
-        <v>MOESCHETQ22001816</v>
+        <v>MOESCHETQ22001811</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="35" t="str">
         <f>'Top5'!E3</f>
-        <v>Instructors for Digital Literacy Programme in Queenstown Secondary School</v>
+        <v>Supply of Pianist for Choir CCA Programme in Clementi Primary School</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
@@ -6457,16 +6457,16 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="27">
         <f>'Top5'!A4</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="28" t="str">
         <f>'Top5'!B4</f>
-        <v>MOESCHETQ22001795</v>
+        <v>MOESCHETQ22001769</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="35" t="str">
         <f>'Top5'!E4</f>
-        <v>Provision of 3 Days Non-Residential Primary 5 Cohort Outdoor Learning Camp 2022</v>
+        <v>Primary 1 and Primary 2 Chinese Weiqi Enrichment Programme in Holy Innocents' Primary School</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
@@ -6482,16 +6482,16 @@
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="27">
         <f>'Top5'!A5</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="28" t="str">
         <f>'Top5'!B5</f>
-        <v>MOESCHETQ22001791</v>
+        <v>MOESCHETQ22001788</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="35" t="str">
         <f>'Top5'!E5</f>
-        <v>Supply of Instructor for Student Leadership Programme for CHIJ (Katong) Primary: - P4 to P6 Prefects (Trainee &amp; Senior) and P3 to P6 Class Monitors</v>
+        <v>Supply of Instructors for Student Leadership Training Programme in Pioneer Primary School</v>
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
@@ -6507,16 +6507,16 @@
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="27">
         <f>'Top5'!A6</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18" s="28" t="str">
         <f>'Top5'!B6</f>
-        <v>MOESCHETQ22001805</v>
+        <v>MOESCHETQ22001791</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="32" t="str">
         <f>'Top5'!E6</f>
-        <v>Manpower service for Science Lab 1+1 year</v>
+        <v>Supply of Instructor for Student Leadership Programme for CHIJ (Katong) Primary: - P4 to P6 Prefects (Trainee &amp; Senior) and P3 to P6 Class Monitors</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -6525,7 +6525,7 @@
       <c r="J18" s="34"/>
       <c r="K18" s="31" t="str">
         <f>'Top5'!H6</f>
-        <v>04 May 2022 01:00PM</v>
+        <v>25 Apr 2022 01:00PM</v>
       </c>
       <c r="L18" s="29"/>
     </row>

--- a/output/Bids.xlsx
+++ b/output/Bids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\UiPath\sct9-diamond-proj1\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8157018D-0CB4-458A-B69D-D64D8B43C85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A9A2DA-6E18-4EDF-9948-2D6143D21D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,15 +40,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="273">
   <si>
     <t>Quote</t>
   </si>
   <si>
     <t>Closing Date</t>
-  </si>
-  <si>
-    <t>AA Quote</t>
   </si>
   <si>
     <t>Total Open Bids</t>
@@ -129,234 +126,16 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>13 Apr 2022 01:00PM</t>
-  </si>
-  <si>
     <t>05 Apr 2022 11:05AM</t>
   </si>
   <si>
-    <t>West Spring Secondary School, 61 Senja Road, Singapore 677737</t>
-  </si>
-  <si>
     <t>Tanglin, Singapore 248163</t>
   </si>
   <si>
-    <t>MOESCHETQ22001587</t>
-  </si>
-  <si>
-    <t>Swiss Cottage Sec Sch: Supply of Instructor for English Language programme for Sec 1 &amp; 3 students</t>
-  </si>
-  <si>
     <t>12 Apr 2022 01:00PM</t>
   </si>
   <si>
-    <t>R MAHALAKSHIMI</t>
-  </si>
-  <si>
-    <t>r_mahalakshimi@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Swiss Cottage Secondary School, No 3 Bukit Batok St 34, Singapore 659322</t>
-  </si>
-  <si>
-    <t>AGC000ETQ22000006</t>
-  </si>
-  <si>
-    <t>Provision of a Negotiations Workshop to Legal Service Officers</t>
-  </si>
-  <si>
-    <t>MS SHIRLYNN LOH</t>
-  </si>
-  <si>
-    <t>Shirlynn_Loh@agc.gov.sg</t>
-  </si>
-  <si>
-    <t>6908 9000</t>
-  </si>
-  <si>
-    <t>1 Upper Pickering Street Singapore 058288</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001571</t>
-  </si>
-  <si>
-    <t>ITQ for Supply of Instructor for Elective Module for NA and NT Students in Punggol Secondary School</t>
-  </si>
-  <si>
-    <t>NG FULIA</t>
-  </si>
-  <si>
-    <t>ng_fulia@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Punggol Secondary School
-51 Edgefield Plains
-Singapore 828870</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001570</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001570 / CPS-22/7419/04</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Student Leadership Training 2022 for Student Leaders (Online/Offline)  in Cedar Primary School.</t>
-  </si>
-  <si>
-    <t>MDM FARIDAH BINTE ABDUL HAMID</t>
-  </si>
-  <si>
-    <t>faridah_abdul_hamid@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>15 Cedar Avenue, Singapore 349700.</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001566</t>
-  </si>
-  <si>
-    <t>ITQ for instructors for Pri 5 Project Work workshop</t>
-  </si>
-  <si>
-    <t>ELAINE GOH YI LING</t>
-  </si>
-  <si>
-    <t>goh_yi_ling_elaine@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>1 Tampines St 21 (529392)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001563</t>
-  </si>
-  <si>
-    <t>Supply of Instructor for O-level Narrative Comprehension Skills Workshop in Hai Sing Catholic School</t>
-  </si>
-  <si>
-    <t>JUNE NG</t>
-  </si>
-  <si>
-    <t>9 Pasir Ris Drive 6, Singapore 519421</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001561</t>
-  </si>
-  <si>
-    <t>Supply of Instructor(s) for a 3 Day Sec 3 Adventure-Based Level Programmed (non-residential) for Yishun Secondary School</t>
-  </si>
-  <si>
     <t>11 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>MR AIDIL BIN IDRIS</t>
-  </si>
-  <si>
-    <t>aidil_idris@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Yishun Secondary School
-4 Yishun Street 71
-Singapore 768516</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001562</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001562 / SPS/2022/009</t>
-  </si>
-  <si>
-    <t>Provision of coaching programme for Lead Teachers of E7 Cluster Schools</t>
-  </si>
-  <si>
-    <t>MS GRACE LEE YUN YUN</t>
-  </si>
-  <si>
-    <t>lee_yun_yun_grace@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>St Patrick's School
-490 East Coast Road
-Singapore 429058</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001560</t>
-  </si>
-  <si>
-    <t>Supply of instructors for P6 hands-on workshop on adaptation in Fairfield Methodist School (Primary)</t>
-  </si>
-  <si>
-    <t>ROZDIYAH BTE HARUN</t>
-  </si>
-  <si>
-    <t>rozdiyah_harun@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>100 Dover Road Singapore 139648</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001559</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Leadership and Design Thinking in Sembawang Secondary School</t>
-  </si>
-  <si>
-    <t>MR RAJAKUMAR</t>
-  </si>
-  <si>
-    <t>rajakumar_raghavan@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>30 Sembawang Crescent
-Singapore 757704</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001557</t>
-  </si>
-  <si>
-    <t>Dunman High School - Provision Of Strength Programme (Profiling And Workshop) For Year 3</t>
-  </si>
-  <si>
-    <t>MS ANGIE LIM ERN CHZE</t>
-  </si>
-  <si>
-    <t>lim.ernchze@dhs.sg</t>
-  </si>
-  <si>
-    <t>Dunman High School
-10 Tanjong Rhu Road, S(436895)</t>
-  </si>
-  <si>
-    <t>AGC000ETQ22000005</t>
-  </si>
-  <si>
-    <t>ITQ for Provision of a Plain English Writing Course to AGC Officers</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001551</t>
-  </si>
-  <si>
-    <t>Dunman High School - Provision Of Leadership Programme For Year 1 (Y1) And Year 2 (Y2)</t>
-  </si>
-  <si>
-    <t>MR LOW JIN HAO</t>
-  </si>
-  <si>
-    <t>low.jinhao@dhs.sg</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001548</t>
-  </si>
-  <si>
-    <t>Supply of Instructor for 3-Day Sec 1 Outdoor Adventure and Leadership Programme at MOE Labrador OALC/KCPSS in Kuo Chuan Presbyterian Secondary School</t>
-  </si>
-  <si>
-    <t>JOSEPH CHUNG</t>
-  </si>
-  <si>
-    <t>chung_wei_peng_joseph@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>10 Bishan Street 13 Singapore 579795</t>
   </si>
   <si>
     <t>MOESCHETQ22001556</t>
@@ -839,212 +618,7 @@
     <t>Person</t>
   </si>
   <si>
-    <t>june_ng_goh_suat_hong@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001729</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Provision of 3-Day Secondary 1 Outdoor Adventure Camp (Non-Residential) for West Spring Secondary School</t>
-  </si>
-  <si>
-    <t>12 Apr 2022 02:35PM</t>
-  </si>
-  <si>
-    <t>21 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>MR FAURONI SUKHAIMI</t>
-  </si>
-  <si>
-    <t>nai_wee_beng@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001745</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001745 / AOR2022/161(DesignThinking_P4)</t>
-  </si>
-  <si>
-    <t>Instructors for Design Thinking Workshop for P4 Students in Yangzheng Pri School</t>
-  </si>
-  <si>
-    <t>12 Apr 2022 02:19PM</t>
-  </si>
-  <si>
-    <t>MDM LASIME KUMARI</t>
-  </si>
-  <si>
-    <t>lasime_kumari@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>15 Serangoon Avenue 3, Singapore 556108</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001740</t>
-  </si>
-  <si>
-    <t>2 DAYS STUDENTS LEADERS' TRAINING PROGRAMME</t>
-  </si>
-  <si>
-    <t>12 Apr 2022 09:20AM</t>
-  </si>
-  <si>
-    <t>MS LIAW HSIAO-MEIN</t>
-  </si>
-  <si>
-    <t>liaw_hsiao_mein@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>3 Yishun Ring Road
-S(768675)</t>
-  </si>
-  <si>
-    <t>HPB000ETQ22000010</t>
-  </si>
-  <si>
-    <t>INVITATION TO QUOTE (ITQ) FOR THE PROVISION OF SERVICES TO PROPOSE, DEVELOP AND DELIVER MENTAL HEALTH EXPERIENTIAL CRAFT WORKSHOPS</t>
-  </si>
-  <si>
-    <t>Health Promotion Board</t>
-  </si>
-  <si>
-    <t>KANG LEE LIN</t>
-  </si>
-  <si>
-    <t>KANG_Lee_Lin@hpb.gov.sg</t>
-  </si>
-  <si>
-    <t>Health Promotion Board 3 Second Hospital Avenue Singapore 168937</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001735</t>
-  </si>
-  <si>
-    <t>SUPPLY OF INSTRUCTORS FOR BAND INSTRUMENTAL PROGRAMME IN CRESCENT GIRLS SCHOOL  2022</t>
-  </si>
-  <si>
-    <t>11 Apr 2022 05:04PM</t>
-  </si>
-  <si>
-    <t>20 Apr 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>NORZAIDAH BINTE SUPARMAN</t>
-  </si>
-  <si>
-    <t>NORZAIDAH_SUPARMAN@CRESCENT.EDU.SG</t>
-  </si>
-  <si>
-    <t>CRESCENT GIRLS' SCHOOL</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001734</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001734 / MOESCHEAR22015582</t>
-  </si>
-  <si>
-    <t>Stamford Pri Sch - Supply of instructors for Design Thinking Project Coaching for Student Teams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINCOLN SHEN </t>
-  </si>
-  <si>
-    <t>shen_pinhong@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>1 Victoria Lane
-Singapore 198423</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001722</t>
-  </si>
-  <si>
-    <t>Supply of Instructor for Student Leadership Challenge Programme for Student Leaders (2022)</t>
-  </si>
-  <si>
-    <t>11 Apr 2022 04:34PM</t>
-  </si>
-  <si>
-    <t>ALVIN LOH</t>
-  </si>
-  <si>
-    <t>loh_yongjie@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>St. Margaret's Secondary School
-111 Farrer Road
-Singapore 259240</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001716</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001716 / RIV_ITQ220024</t>
-  </si>
-  <si>
-    <t>RIVPS: SUPPLY OF INSTRUCTORS FOR P1AND P2 CHINESE SPEECH &amp; DRAMA ENRICHMENT PROGRAMME IN RIVERVALE PRIMARY SCHOOL</t>
-  </si>
-  <si>
-    <t>11 Apr 2022 04:04PM</t>
-  </si>
-  <si>
-    <t>RAN YIJUN</t>
-  </si>
-  <si>
-    <t>ran_yijun@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>80 RIVERVALE DRIVE
-SINGAPORE 545092</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001724</t>
-  </si>
-  <si>
-    <t>2 Days FALCONS Leadership Day Camp for Nan Chiau High School from 20-21 May 2022 (Non-residential)</t>
-  </si>
-  <si>
-    <t>MR AW SI KUAN</t>
-  </si>
-  <si>
-    <t>aw_si_kuan@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>20 Anchorvale Link, S(545079)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001720</t>
-  </si>
-  <si>
-    <t>The Provision of Blended/Face-To-Face Workshop on Standard First Aid (SFA) Course and Automated External Defibrillator (AED) Module</t>
-  </si>
-  <si>
-    <t>MR NEO ENG YEOW</t>
-  </si>
-  <si>
-    <t>neo_eng_yeow@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Nan Hua Primary School
-30 Jalan Lempeng
-Singapore 128806</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001703</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Career Design Simulation Programme for Secondary 3 Students in Presbyterian High School</t>
-  </si>
-  <si>
-    <t>MRS FAITH CHEN</t>
-  </si>
-  <si>
-    <t>mai_xueling@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>Presbyterian High School, 5209 Ang Mo Kio Ave 6 Singapore 569845</t>
+    <t>High Value Quote</t>
   </si>
   <si>
     <t>MOESCHETQ22001322 / JYSS0102022</t>
@@ -1069,6 +643,243 @@
   </si>
   <si>
     <t>15,480.00 (SGD)</t>
+  </si>
+  <si>
+    <t>Agency_1</t>
+  </si>
+  <si>
+    <t>Published Date_1</t>
+  </si>
+  <si>
+    <t>Closing Date_1</t>
+  </si>
+  <si>
+    <t>Briefing Date_1</t>
+  </si>
+  <si>
+    <t>Contact's Name_1</t>
+  </si>
+  <si>
+    <t>Contact's Email_1</t>
+  </si>
+  <si>
+    <t>Contact's Tel_1</t>
+  </si>
+  <si>
+    <t>Contact's Fax_1</t>
+  </si>
+  <si>
+    <t>Contact's Address_1</t>
+  </si>
+  <si>
+    <t>Download Link_1</t>
+  </si>
+  <si>
+    <t>NCS000ETQ22000010</t>
+  </si>
+  <si>
+    <t>INVITATION TO QUOTE FOR PROVISION OF CONSULTANCY AND CREATIVE SERVICES FOR A REFRESHED BRAND MARKETING DECK (Min Yan)|40169</t>
+  </si>
+  <si>
+    <t>National Council of Social Service</t>
+  </si>
+  <si>
+    <t>13 Apr 2022 09:04AM</t>
+  </si>
+  <si>
+    <t>22 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>TAN MIN YAN</t>
+  </si>
+  <si>
+    <t>tan_min_yan@ncss.gov.sg</t>
+  </si>
+  <si>
+    <t>NCSS Centre 170 Ghim Moh Road #01-02</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\NCS000ETQ22000010</t>
+  </si>
+  <si>
+    <t>PAS000ETT22000042</t>
+  </si>
+  <si>
+    <t>PAS000ETT22000042 / PA-ITT-2022-0014</t>
+  </si>
+  <si>
+    <t>PROVISION OF ORACLE RELATIONAL DATABASE MANAGEMENT SYSTEM (RDBMS) AND MIDDLEWARE SOFTWARE MAINTENANCE AND SUPPORT AND ORACLE SOLARIS SOFTWARE MAINTENA</t>
+  </si>
+  <si>
+    <t>People's Association</t>
+  </si>
+  <si>
+    <t>13 Apr 2022 12:04AM</t>
+  </si>
+  <si>
+    <t>27 Apr 2022 04:00PM</t>
+  </si>
+  <si>
+    <t>MAE FOONG</t>
+  </si>
+  <si>
+    <t>Mae_foong@tech.gov.sg</t>
+  </si>
+  <si>
+    <t>9 King George's Avenue</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\PAS000ETT22000042</t>
+  </si>
+  <si>
+    <t>DEFNGPP7122100092</t>
+  </si>
+  <si>
+    <t>Supply of Ship Spares</t>
+  </si>
+  <si>
+    <t>Ministry of Defence 6</t>
+  </si>
+  <si>
+    <t>09 May 2022 04:00PM</t>
+  </si>
+  <si>
+    <t>LOW KIM CHUAN IVAN</t>
+  </si>
+  <si>
+    <t>LKIMCHUA@dsta.gov.sg</t>
+  </si>
+  <si>
+    <t>6273 4823</t>
+  </si>
+  <si>
+    <t>1 Depot Road, Singapore 109679</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\DEFNGPP7122100092</t>
+  </si>
+  <si>
+    <t>DEFNGPP7121103928</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>26 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>YEO ZHAO YONG</t>
+  </si>
+  <si>
+    <t>YZHAOYON@dsta.gov.sg</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\DEFNGPP7121103928</t>
+  </si>
+  <si>
+    <t>DEFNGPP7122100143</t>
+  </si>
+  <si>
+    <t>Provision of Event Management Services</t>
+  </si>
+  <si>
+    <t>27 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>LIM YIJIE</t>
+  </si>
+  <si>
+    <t>LYIJIE@dsta.gov.sg</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\DEFNGPP7122100143</t>
+  </si>
+  <si>
+    <t>DEFNGPP7122100113</t>
+  </si>
+  <si>
+    <t>SHIP SPARES</t>
+  </si>
+  <si>
+    <t>JAYA KUMARI C</t>
+  </si>
+  <si>
+    <t>JKUMARI@DSTA.GOV.SG</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\DEFNGPP7122100113</t>
+  </si>
+  <si>
+    <t>DEFNGPP7122100088</t>
+  </si>
+  <si>
+    <t>29 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\DEFNGPP7122100088</t>
+  </si>
+  <si>
+    <t>YRS000ETT22000001</t>
+  </si>
+  <si>
+    <t>YRS000ETT22000001 / YRSG/T02/2022</t>
+  </si>
+  <si>
+    <t>Provision of training in Employability Skills, Digital Literacy and Workplace Literacy</t>
+  </si>
+  <si>
+    <t>Yellow Ribbon Singapore</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 06:35PM</t>
+  </si>
+  <si>
+    <t>06 May 2022 04:00PM</t>
+  </si>
+  <si>
+    <t>21 Apr 2022 03:00PM</t>
+  </si>
+  <si>
+    <t>FAEZAH BINTE RADIMAN</t>
+  </si>
+  <si>
+    <t>Faezah_Radiman@yellowribbon.gov.sg</t>
+  </si>
+  <si>
+    <t>980 Upper Changi Road North, S507708</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\YRS000ETT22000001</t>
+  </si>
+  <si>
+    <t>MOE000ETQ22000102</t>
+  </si>
+  <si>
+    <t>Provision of Facilitator/s to coach and train  MOE Language Centre Key Personnels(KPs) and Staff in a series Leadership and Professional Programmes</t>
+  </si>
+  <si>
+    <t>04 May 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>TAN LAI ENG</t>
+  </si>
+  <si>
+    <t>tan_lai_eng@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>11, Bishan Street 14 Singapore 579782</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOE000ETQ22000102</t>
+  </si>
+  <si>
+    <t>MOE000ETQ22000101</t>
+  </si>
+  <si>
+    <t>Conduct a half day Staff Bonding Programme for All Staff of Ministry of Education Language Centre</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOE000ETQ22000101</t>
   </si>
 </sst>
 </file>
@@ -1450,6 +1261,1400 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.1280204019977056E-2"/>
+          <c:y val="2.5986929604497968E-2"/>
+          <c:w val="0.93884882865869046"/>
+          <c:h val="0.83819666988794572"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Top5'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quantity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Top5'!$A$2:$A$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Top5'!$O$2:$O$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="131"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="61">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="62">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="63">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="64">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="65">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="66">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="67">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="68">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="69">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="70">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="71">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="72">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="73">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="74">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="75">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="76">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="77">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="78">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="79">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="80">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="81">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="82">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="83">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="84">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="85">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="86">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="87">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="88">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="89">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="90">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="91">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="92">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="93">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="94">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="95">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="96">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="97">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="98">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="99">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="100">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="101">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="102">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="103">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="104">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="105">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="106">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="107">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="108">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="109">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="110">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="111">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="112">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="113">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="114">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="115">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="116">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="117">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="118">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="119">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="120">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="121">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="122">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="123">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="124">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="125">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="126">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="127">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="128">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="129">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="130">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+          <c:bubble3D val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2282-45AA-B7FD-1018D923C7F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="709856608"/>
+        <c:axId val="709858904"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="709856608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="709858904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="709858904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
+          <c:min val="250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="709856608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="71000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="74000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>418167</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>578555</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76729</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A2A7EC-3A3B-4FB7-8FF0-374BB326F423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1728,22 +2933,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1751,19 +2956,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1771,19 +2976,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1791,19 +2996,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1811,19 +3016,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1831,19 +3036,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>238</v>
+        <v>167</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>240</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1851,19 +3056,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1871,19 +3076,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>323</v>
+        <v>186</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>324</v>
+        <v>187</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1891,19 +3096,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1911,19 +3116,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1931,19 +3136,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>327</v>
+        <v>190</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>328</v>
+        <v>191</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>329</v>
+        <v>192</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>330</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1953,10 +3158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39582A0F-F993-4278-A272-EAB12E1434D8}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1966,1315 +3171,2113 @@
     <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="O1" s="29" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="L2" s="1">
-        <v>68920369</v>
+        <v>62102606</v>
       </c>
       <c r="M2" s="1">
-        <v>68929468</v>
+        <v>64681012</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="O2" s="29">
-        <v>162</v>
+        <v>354</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="W2" s="1">
+        <v>62102606</v>
+      </c>
+      <c r="X2" s="1">
+        <v>64681012</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="L3" s="1">
-        <v>62846298</v>
-      </c>
-      <c r="M3" s="1">
-        <v>62879778</v>
+        <v>63977568</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="O3" s="29">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="W3" s="1">
+        <v>63977568</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L4" s="1">
-        <v>62579873</v>
-      </c>
-      <c r="M4" s="1">
-        <v>62574373</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>275</v>
+        <v>68194154</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="O4" s="29">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="W4" s="1">
+        <v>68194154</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="L5" s="1">
-        <v>64353273</v>
+        <v>68194149</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="O5" s="29">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="W5" s="1">
+        <v>68194149</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="L6" s="1">
-        <v>64758711</v>
-      </c>
-      <c r="M6" s="1">
-        <v>64741248</v>
+        <v>68194049</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="O6" s="29">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="W6" s="1">
+        <v>68194049</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="L7" s="1">
-        <v>62945074</v>
-      </c>
-      <c r="M7" s="1">
-        <v>62919262</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>294</v>
+        <v>68194025</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="O7" s="29">
-        <v>226</v>
+        <v>59</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W7" s="1">
+        <v>68194025</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L8" s="1">
+        <v>68194154</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O8" s="29">
         <v>299</v>
       </c>
-      <c r="L8" s="1">
-        <v>64664525</v>
-      </c>
-      <c r="M8" s="1">
-        <v>64666709</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="O8" s="29">
-        <v>105</v>
-      </c>
       <c r="P8" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="W8" s="1">
+        <v>68194154</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="L9" s="1">
-        <v>63887450</v>
+        <v>62142839</v>
       </c>
       <c r="M9" s="1">
-        <v>63887449</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>307</v>
+        <v>65467441</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="O9" s="29">
+        <v>182</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W9" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X9" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="L10" s="1">
-        <v>64897971</v>
+        <v>62142839</v>
+      </c>
+      <c r="M10" s="1">
+        <v>65467441</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="O10" s="29">
+        <v>276</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W10" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X10" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="L11" s="1">
-        <v>67788050</v>
+        <v>62142839</v>
       </c>
       <c r="M11" s="1">
-        <v>67784127</v>
-      </c>
-      <c r="N11" s="41" t="s">
-        <v>317</v>
+        <v>65467441</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="O11" s="29">
-        <v>332</v>
+        <v>230</v>
       </c>
       <c r="P11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W11" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X11" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="L12" s="1">
-        <v>64543722</v>
+        <v>62142839</v>
       </c>
       <c r="M12" s="1">
-        <v>64543430</v>
+        <v>65467441</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>322</v>
+        <v>261</v>
       </c>
       <c r="O12" s="29">
+        <v>255</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="W12" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X12" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="L13" s="1">
-        <v>65637173</v>
+        <v>62142839</v>
       </c>
       <c r="M13" s="1">
-        <v>65693028</v>
+        <v>65467441</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>34</v>
+        <v>261</v>
       </c>
       <c r="O13" s="29">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="P13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R13" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W13" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X13" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>254</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>39</v>
+        <v>260</v>
+      </c>
+      <c r="L14" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="M14" s="1">
+        <v>65467441</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="O14" s="29">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="P14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="R14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W14" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X14" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="L15" s="1">
-        <v>64897851</v>
+        <v>62142839</v>
       </c>
       <c r="M15" s="1">
-        <v>64897859</v>
-      </c>
-      <c r="N15" s="41" t="s">
-        <v>45</v>
+        <v>65467441</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="O15" s="29">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="P15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W15" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X15" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>254</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>259</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="L16" s="1">
-        <v>62885633</v>
+        <v>62142839</v>
       </c>
       <c r="M16" s="1">
-        <v>62830113</v>
+        <v>65467441</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="O16" s="29">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W16" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X16" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="L17" s="1">
-        <v>67819002</v>
+        <v>62587794</v>
       </c>
       <c r="M17" s="1">
-        <v>67845054</v>
+        <v>62583913</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="O17" s="29">
-        <v>118</v>
+        <v>337</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="W17" s="1">
+        <v>62587794</v>
+      </c>
+      <c r="X17" s="1">
+        <v>62583913</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>270</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>270</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>271</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="K18" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="L18" s="1">
+        <v>62587794</v>
+      </c>
+      <c r="M18" s="1">
+        <v>62583913</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O18" s="29">
+        <v>315</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="L18" s="1">
-        <v>65827864</v>
-      </c>
-      <c r="M18" s="1">
-        <v>65822543</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" s="29">
-        <v>299</v>
-      </c>
-      <c r="P18" s="1" t="s">
+      <c r="S18" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="W18" s="1">
+        <v>62587794</v>
+      </c>
+      <c r="X18" s="1">
+        <v>62583913</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="L19" s="1">
-        <v>68767129</v>
+        <v>62142839</v>
       </c>
       <c r="M19" s="1">
-        <v>67557748</v>
-      </c>
-      <c r="N19" s="41" t="s">
-        <v>66</v>
+        <v>65467441</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="O19" s="29">
-        <v>174</v>
+        <v>310</v>
       </c>
       <c r="P19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+      <c r="R19" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W19" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X19" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>252</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>253</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="L20" s="1">
-        <v>63440929</v>
+        <v>62142839</v>
       </c>
       <c r="M20" s="1">
-        <v>63445152</v>
-      </c>
-      <c r="N20" s="41" t="s">
-        <v>72</v>
+        <v>65467441</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="O20" s="29">
-        <v>239</v>
+        <v>369</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R20" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W20" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X20" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="L21" s="1">
-        <v>67788431</v>
+        <v>62142839</v>
+      </c>
+      <c r="M21" s="1">
+        <v>65467441</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="O21" s="29">
-        <v>92</v>
+        <v>396</v>
       </c>
       <c r="P21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="R21" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W21" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X21" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="L22" s="1">
-        <v>67566760</v>
+        <v>62142839</v>
       </c>
       <c r="M22" s="1">
-        <v>67585380</v>
-      </c>
-      <c r="N22" s="41" t="s">
-        <v>82</v>
+        <v>65467441</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="O22" s="29">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="R22" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W22" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X22" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>84</v>
+        <v>254</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="L23" s="1">
-        <v>65936851</v>
-      </c>
-      <c r="N23" s="41" t="s">
-        <v>87</v>
+        <v>62142839</v>
+      </c>
+      <c r="M23" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="O23" s="29">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="P23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R23" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W23" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X23" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>252</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="L24" s="1">
-        <v>69089136</v>
+        <v>62142839</v>
+      </c>
+      <c r="M24" s="1">
+        <v>65467441</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="O24" s="29">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="P24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="R24" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W24" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X24" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>252</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>93</v>
+        <v>260</v>
       </c>
       <c r="L25" s="1">
-        <v>63450533</v>
-      </c>
-      <c r="N25" s="41" t="s">
-        <v>87</v>
+        <v>62142839</v>
+      </c>
+      <c r="M25" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="O25" s="29">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="P25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R25" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W25" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X25" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="L26" s="1">
-        <v>62593811</v>
+        <v>62142839</v>
+      </c>
+      <c r="M26" s="1">
+        <v>65467441</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>98</v>
+        <v>261</v>
       </c>
       <c r="O26" s="29">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="P26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R26" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W26" s="1">
+        <v>62142839</v>
+      </c>
+      <c r="X26" s="1">
+        <v>65467441</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="L27" s="1">
         <v>62410417</v>
@@ -3283,95 +5286,95 @@
         <v>64493042</v>
       </c>
       <c r="N27" s="41" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="O27" s="29">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O28" s="29">
-        <v>293</v>
+        <v>68</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="L29" s="1">
         <v>65701588</v>
@@ -3380,48 +5383,48 @@
         <v>65703680</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="O29" s="29">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="L30" s="1">
         <v>64775777</v>
@@ -3430,48 +5433,48 @@
         <v>64775700</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="O30" s="29">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="L31" s="1">
         <v>65661980</v>
@@ -3480,60 +5483,60 @@
         <v>65635015</v>
       </c>
       <c r="N31" s="41" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="O31" s="29">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="L32" s="1">
         <v>64485011</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="O32" s="29">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -3541,46 +5544,46 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="L33" s="1">
         <v>67697176</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="O33" s="29">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="58" x14ac:dyDescent="0.35">
@@ -3588,46 +5591,46 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="L34" s="1">
         <v>63441393</v>
       </c>
       <c r="N34" s="41" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="O34" s="29">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
@@ -3635,34 +5638,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="L35" s="1">
         <v>67676750</v>
@@ -3671,13 +5674,13 @@
         <v>67676751</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="O35" s="29">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="58" x14ac:dyDescent="0.35">
@@ -3685,34 +5688,34 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="L36" s="1">
         <v>62816606</v>
@@ -3721,13 +5724,13 @@
         <v>63820558</v>
       </c>
       <c r="N36" s="41" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="O36" s="29">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
@@ -3735,34 +5738,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="L37" s="1">
         <v>65634568</v>
@@ -3771,13 +5774,13 @@
         <v>65634505</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="O37" s="29">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
@@ -3785,34 +5788,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="L38" s="1">
         <v>67639455</v>
@@ -3821,13 +5824,13 @@
         <v>67633577</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="O38" s="29">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="87" x14ac:dyDescent="0.35">
@@ -3835,34 +5838,34 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="L39" s="1">
         <v>62698832</v>
@@ -3871,13 +5874,13 @@
         <v>63575516</v>
       </c>
       <c r="N39" s="41" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="O39" s="29">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
@@ -3885,34 +5888,34 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="L40" s="1">
         <v>62889470</v>
@@ -3921,13 +5924,13 @@
         <v>62898615</v>
       </c>
       <c r="N40" s="41" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="O40" s="29">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
@@ -3935,46 +5938,46 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="L41" s="1">
         <v>67932039</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="O41" s="29">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
@@ -3982,34 +5985,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="L42" s="1">
         <v>65729100</v>
@@ -4018,13 +6021,13 @@
         <v>67636560</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="O42" s="29">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
@@ -4032,34 +6035,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="L43" s="1">
         <v>64741421</v>
@@ -4068,13 +6071,13 @@
         <v>64741302</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="O43" s="29">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
@@ -4082,34 +6085,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J44" s="28" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="L44" s="1">
         <v>64741421</v>
@@ -4118,13 +6121,13 @@
         <v>64741302</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="O44" s="29">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
@@ -4132,46 +6135,46 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="L45" s="1">
         <v>67697176</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="O45" s="29">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
@@ -4179,34 +6182,34 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="L46" s="1">
         <v>63683925</v>
@@ -4215,13 +6218,13 @@
         <v>63670117</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="O46" s="29">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
@@ -4229,34 +6232,34 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L47" s="1">
         <v>62835413</v>
@@ -4265,13 +6268,13 @@
         <v>62823882</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="O47" s="29">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
@@ -4279,46 +6282,46 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="L48" s="1">
         <v>68319636</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="O48" s="29">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
@@ -4326,34 +6329,34 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="L49" s="1">
         <v>64428307</v>
@@ -4362,13 +6365,13 @@
         <v>64435973</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="O49" s="29">
-        <v>65</v>
+        <v>288</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4378,7 +6381,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5E9977-255A-404F-9037-914CC69CEAF6}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O1048576"/>
@@ -4393,102 +6396,102 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
       <c r="O1" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="P1" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>254</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>259</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="L2">
-        <v>62885633</v>
+        <v>62142839</v>
       </c>
       <c r="M2">
-        <v>62830113</v>
+        <v>65467441</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="O2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="P2" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -4496,34 +6499,34 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="L3">
         <v>62698832</v>
@@ -4532,252 +6535,414 @@
         <v>63575516</v>
       </c>
       <c r="N3" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="O3">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P3" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G4" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="H4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K4" t="s">
         <v>260</v>
       </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>273</v>
-      </c>
-      <c r="K4" t="s">
-        <v>274</v>
-      </c>
       <c r="L4">
-        <v>62579873</v>
+        <v>62142839</v>
       </c>
       <c r="M4">
-        <v>62574373</v>
+        <v>65467441</v>
       </c>
       <c r="N4" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="O4">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="P4" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="K5" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="L5">
-        <v>65634568</v>
-      </c>
-      <c r="M5">
-        <v>65634505</v>
+        <v>68194154</v>
+      </c>
+      <c r="M5" t="s">
+        <v>229</v>
       </c>
       <c r="N5" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="O5">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="P5" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" t="s">
+        <v>210</v>
+      </c>
+      <c r="L6">
+        <v>62102606</v>
+      </c>
+      <c r="M6">
+        <v>64681012</v>
+      </c>
+      <c r="N6" t="s">
+        <v>211</v>
+      </c>
+      <c r="O6">
+        <v>354</v>
+      </c>
+      <c r="P6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="J6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6">
-        <v>62593811</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O6">
-        <v>344</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7">
+        <v>64775777</v>
+      </c>
+      <c r="M7">
+        <v>64775700</v>
+      </c>
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7">
+        <v>348</v>
+      </c>
+      <c r="P7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
+      <c r="G8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K8" t="s">
+        <v>267</v>
+      </c>
+      <c r="L8">
+        <v>62587794</v>
+      </c>
+      <c r="M8">
+        <v>62583913</v>
+      </c>
+      <c r="N8" t="s">
+        <v>268</v>
+      </c>
+      <c r="O8">
+        <v>337</v>
+      </c>
+      <c r="P8" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>266</v>
+      </c>
+      <c r="K9" t="s">
+        <v>267</v>
+      </c>
+      <c r="L9">
+        <v>62587794</v>
+      </c>
+      <c r="M9">
+        <v>62583913</v>
+      </c>
+      <c r="N9" t="s">
+        <v>268</v>
+      </c>
+      <c r="O9">
+        <v>315</v>
+      </c>
+      <c r="P9" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J10" t="s">
+        <v>259</v>
+      </c>
+      <c r="K10" t="s">
+        <v>260</v>
+      </c>
+      <c r="L10">
+        <v>62142839</v>
+      </c>
+      <c r="M10">
+        <v>65467441</v>
+      </c>
+      <c r="N10" t="s">
+        <v>261</v>
+      </c>
+      <c r="O10">
+        <v>310</v>
+      </c>
+      <c r="P10" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>227</v>
+      </c>
+      <c r="K11" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11">
+        <v>68194154</v>
+      </c>
+      <c r="M11" t="s">
+        <v>229</v>
+      </c>
+      <c r="N11" t="s">
+        <v>230</v>
+      </c>
+      <c r="O11">
+        <v>299</v>
+      </c>
+      <c r="P11" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12"/>
@@ -5463,9 +7628,1492 @@
       <c r="O49"/>
       <c r="P49"/>
     </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P49">
-    <sortCondition descending="1" ref="O1:O49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P132">
+    <sortCondition descending="1" ref="O1:O132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5473,10 +9121,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O21"/>
+  <dimension ref="B2:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView showGridLines="0" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5486,7 +9134,7 @@
   <sheetData>
     <row r="2" spans="2:15" ht="46" x14ac:dyDescent="1">
       <c r="B2" s="42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -5504,17 +9152,17 @@
     </row>
     <row r="4" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
       <c r="F4" s="47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="48"/>
       <c r="H4" s="49"/>
       <c r="J4" s="53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="54"/>
       <c r="L4" s="55"/>
@@ -5550,7 +9198,7 @@
       <c r="D8" s="8"/>
       <c r="F8" s="6"/>
       <c r="G8" s="13">
-        <f>COUNT(B15:B24)</f>
+        <f>COUNT(B14:B23)</f>
         <v>5</v>
       </c>
       <c r="H8" s="8"/>
@@ -5583,47 +9231,72 @@
       <c r="K10" s="24"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
+    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="45"/>
+      <c r="B14" s="30">
+        <f>'Top5'!A2</f>
+        <v>8</v>
+      </c>
+      <c r="C14" s="31" t="str">
+        <f>'Top5'!C2</f>
+        <v>YRS000ETT22000001 / YRSG/T02/2022</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="38" t="str">
+        <f>'Top5'!E2</f>
+        <v>Provision of training in Employability Skills, Digital Literacy and Workplace Literacy</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="34" t="str">
+        <f>'Top5'!H2</f>
+        <v>06 May 2022 04:00PM</v>
+      </c>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="30">
-        <f>'Top5'!A2</f>
-        <v>15</v>
+        <f>'Top5'!A3</f>
+        <v>38</v>
       </c>
       <c r="C15" s="31" t="str">
-        <f>'Top5'!C2</f>
-        <v>MOESCHETQ22001570 / CPS-22/7419/04</v>
+        <f>'Top5'!C3</f>
+        <v>MOESCHETQ22001511 / 1161/PE/22/003</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="38" t="str">
-        <f>'Top5'!E2</f>
-        <v>Supply of Instructors for Student Leadership Training 2022 for Student Leaders (Online/Offline)  in Cedar Primary School.</v>
+        <f>'Top5'!E3</f>
+        <v>Supply of Instructors for 1-day Primary 3 Friendship Camp 2022</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -5631,24 +9304,24 @@
       <c r="I15" s="39"/>
       <c r="J15" s="40"/>
       <c r="K15" s="34" t="str">
-        <f>'Top5'!H2</f>
+        <f>'Top5'!H3</f>
         <v>12 Apr 2022 01:00PM</v>
       </c>
       <c r="L15" s="32"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="30">
-        <f>'Top5'!A3</f>
-        <v>38</v>
+        <f>'Top5'!A4</f>
+        <v>11</v>
       </c>
       <c r="C16" s="31" t="str">
-        <f>'Top5'!C3</f>
-        <v>MOESCHETQ22001511 / 1161/PE/22/003</v>
+        <f>'Top5'!C4</f>
+        <v>YRS000ETT22000001 / YRSG/T02/2022</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="38" t="str">
-        <f>'Top5'!E3</f>
-        <v>Supply of Instructors for 1-day Primary 3 Friendship Camp 2022</v>
+        <f>'Top5'!E4</f>
+        <v>Provision of training in Employability Skills, Digital Literacy and Workplace Literacy</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -5656,24 +9329,24 @@
       <c r="I16" s="39"/>
       <c r="J16" s="40"/>
       <c r="K16" s="34" t="str">
-        <f>'Top5'!H3</f>
-        <v>12 Apr 2022 01:00PM</v>
+        <f>'Top5'!H4</f>
+        <v>06 May 2022 04:00PM</v>
       </c>
       <c r="L16" s="32"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="30">
-        <f>'Top5'!A4</f>
+        <f>'Top5'!A5</f>
         <v>3</v>
       </c>
       <c r="C17" s="31" t="str">
-        <f>'Top5'!C4</f>
-        <v>MOESCHETQ22001740</v>
+        <f>'Top5'!C5</f>
+        <v>DEFNGPP7122100092</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="38" t="str">
-        <f>'Top5'!E4</f>
-        <v>2 DAYS STUDENTS LEADERS' TRAINING PROGRAMME</v>
+        <f>'Top5'!E5</f>
+        <v>Supply of Ship Spares</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -5681,83 +9354,59 @@
       <c r="I17" s="39"/>
       <c r="J17" s="40"/>
       <c r="K17" s="34" t="str">
-        <f>'Top5'!H4</f>
-        <v>21 Apr 2022 01:00PM</v>
+        <f>'Top5'!H5</f>
+        <v>09 May 2022 04:00PM</v>
       </c>
       <c r="L17" s="32"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="30">
-        <f>'Top5'!A5</f>
-        <v>36</v>
+        <f>'Top5'!A6</f>
+        <v>1</v>
       </c>
       <c r="C18" s="31" t="str">
-        <f>'Top5'!C5</f>
-        <v>MOESCHETQ22001512</v>
+        <f>'Top5'!C6</f>
+        <v>NCS000ETQ22000010</v>
       </c>
       <c r="D18" s="33"/>
-      <c r="E18" s="38" t="str">
-        <f>'Top5'!E5</f>
-        <v>Sec 3 Outdoor Adventure Camp in Hua Yi Secondary School</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
+      <c r="E18" s="35" t="str">
+        <f>'Top5'!E6</f>
+        <v>INVITATION TO QUOTE FOR PROVISION OF CONSULTANCY AND CREATIVE SERVICES FOR A REFRESHED BRAND MARKETING DECK (Min Yan)|40169</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="34" t="str">
-        <f>'Top5'!H5</f>
-        <v>08 Apr 2022 01:00PM</v>
+        <f>'Top5'!H6</f>
+        <v>22 Apr 2022 01:00PM</v>
       </c>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="30">
-        <f>'Top5'!A6</f>
-        <v>25</v>
-      </c>
-      <c r="C19" s="31" t="str">
-        <f>'Top5'!C6</f>
-        <v>MOESCHETQ22001548</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="35" t="str">
-        <f>'Top5'!E6</f>
-        <v>Supply of Instructor for 3-Day Sec 1 Outdoor Adventure and Leadership Programme at MOE Labrador OALC/KCPSS in Kuo Chuan Presbyterian Secondary School</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="34" t="str">
-        <f>'Top5'!H6</f>
-        <v>11 Apr 2022 01:00PM</v>
-      </c>
-      <c r="L19" s="32"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="E13:J13"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="J4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/output/Bids.xlsx
+++ b/output/Bids.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
   <si>
     <t>Quote</t>
   </si>
@@ -164,242 +164,15 @@
     <t>Quote Title_1</t>
   </si>
   <si>
-    <t>MOESCHETQ22001936</t>
-  </si>
-  <si>
-    <t>Provision of Cooperative Learning Workshop for Teachers in Lianhua Primary School</t>
-  </si>
-  <si>
     <t>Ministry of Education - Schools</t>
   </si>
   <si>
-    <t>25 Apr 2022 09:19AM</t>
-  </si>
-  <si>
     <t>05 May 2022 01:00PM</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>MRS EMILY CHIA</t>
-  </si>
-  <si>
-    <t>chia_emily@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>2 Bukit Batok St 52 S659243</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001936</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001952</t>
-  </si>
-  <si>
-    <t>SUPPLY OF INSTRUCTORS FOR 2022 P3 &amp; P4 ANGKLUNG MUSIC LEARNING PROGRAMME FOR CHIJ OUR LADY OF GOOD COUNSEL.</t>
-  </si>
-  <si>
-    <t>22 Apr 2022 06:35PM</t>
-  </si>
-  <si>
-    <t>04 May 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>JUNIE ONG</t>
-  </si>
-  <si>
-    <t>ONG_JUNIE@MOE.EDU.SG</t>
-  </si>
-  <si>
-    <t>2C BURGHLEY DRIVE (558979)</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001952</t>
-  </si>
-  <si>
-    <t>SPO000ETQ22000123</t>
-  </si>
-  <si>
-    <t>SPO-REQ-2022-002416-SD-Provision of Coaching Service for Singapore Polytechnic (SP)  for Strength Athletics Club from Apr 2022 to 31 Mar 2023</t>
-  </si>
-  <si>
-    <t>Singapore Polytechnic</t>
-  </si>
-  <si>
-    <t>22 Apr 2022 05:49PM</t>
-  </si>
-  <si>
-    <t>CHRISTINA SHO</t>
-  </si>
-  <si>
-    <t>christina_sho@sp.edu.sg</t>
-  </si>
-  <si>
-    <t>Department of Student Development, Singapore Polytechnic, 500 Dover Road, Singapore 139651</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\SPO000ETQ22000123</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001909</t>
-  </si>
-  <si>
-    <t>Mee Toh Sch: Provision of P5 Outdoor Adventure Learning Programme (non-residential) with booking of campsite 2022.</t>
-  </si>
-  <si>
-    <t>22 Apr 2022 04:34PM</t>
-  </si>
-  <si>
-    <t>MR ROBIN ONG</t>
-  </si>
-  <si>
-    <t>ong_shuquan_robin@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>21 Edgedale Plains Singapore 828867</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001909</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001954</t>
-  </si>
-  <si>
-    <t>After-School Engagement Programme</t>
-  </si>
-  <si>
-    <t>22 Apr 2022 04:19PM</t>
-  </si>
-  <si>
-    <t>MDM WOON WEI LI</t>
-  </si>
-  <si>
-    <t>woon_wei_li_a@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>300 Tanglin Halt Road, Singapore 148812</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001954</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001955</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Primary 3 Art Enrichment Programme Marbling in Nan Hua Primary School</t>
-  </si>
-  <si>
-    <t>22 Apr 2022 03:49PM</t>
-  </si>
-  <si>
-    <t>MRS JENNY CHEW</t>
-  </si>
-  <si>
-    <t>chew_gek_cheng_a@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Nan Hua Primary School
-30 Jalan Lempeng
-Singapore 128806</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001955</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001875</t>
-  </si>
-  <si>
-    <t>Chinese Language Speech and Drama Programme for Primary 1 and Primary 2 Students 2022</t>
-  </si>
-  <si>
-    <t>MDM TAN SOH LENG</t>
-  </si>
-  <si>
-    <t>tan_soh_leng@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>210 Yishun Avenue 6 Singapore 768960</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001875</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001925</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Leadership Training for Prefects and CCA Leaders in Holy Innocents' Primary School</t>
-  </si>
-  <si>
-    <t>KWANG YU FUNG</t>
-  </si>
-  <si>
-    <t>kwang_yu_fung@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>Holy Innocents' Primary School
-5 Lorong Low Koon
-Singapore 536451</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001925</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001951</t>
-  </si>
-  <si>
-    <t>Provision of 3-Day Non-Residential P5 Outdoor Adventure Camp 2022 in CHIJ Our Lady Queen of Peace</t>
-  </si>
-  <si>
-    <t>MR LUKE GOH</t>
-  </si>
-  <si>
-    <t>luke_goh@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>4 Chestnut Drive , Singapore679287</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001951</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001948</t>
-  </si>
-  <si>
-    <t>To supply instructors for P3 English Language Oral Communication Programme in Clementi Primary School</t>
-  </si>
-  <si>
-    <t>TAN KIAN MUAR</t>
-  </si>
-  <si>
-    <t>tan_kian_muar@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>8 Clementi Avenue 3 Singapore 129903</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001948</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001947</t>
-  </si>
-  <si>
-    <t>Ceramics Course for Primary 3 and 4 students for the Year 2022 in Edgefield Primary School</t>
-  </si>
-  <si>
-    <t>KOH SEOK HUI</t>
-  </si>
-  <si>
-    <t>koh_seok_hui@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>41 Edgefield Plains
-Singapore 828869</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001947</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -524,6 +297,50 @@
   </si>
   <si>
     <t>23,900.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001978</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Drones with Artificial Intelligence (AI) Workshop for Secondary 1 Students at Yusof Ishak Secondary School.</t>
+  </si>
+  <si>
+    <t>25 Apr 2022 02:49PM</t>
+  </si>
+  <si>
+    <t>ANG KAH TIONG</t>
+  </si>
+  <si>
+    <t>ang_kah_tiong@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>8 Sumang Walk Singapore 828676</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001978</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001983</t>
+  </si>
+  <si>
+    <t>Provision of Standard First Aid Course for Adults</t>
+  </si>
+  <si>
+    <t>25 Apr 2022 02:19PM</t>
+  </si>
+  <si>
+    <t>RASIDAH BTE MOHD RASIT</t>
+  </si>
+  <si>
+    <t>rasidah_mohd_rasit@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>Frontier Primary School.
+20 Jurong West St 61.
+Singapore (648200).</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001983</t>
   </si>
 </sst>
 </file>
@@ -957,34 +774,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,34 +786,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>103</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2590,19 +2353,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2610,19 +2373,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2630,19 +2393,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2650,19 +2413,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2670,19 +2433,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2690,19 +2453,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2710,19 +2473,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2730,19 +2493,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2750,19 +2513,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2770,19 +2533,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2792,7 +2555,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
@@ -2849,10 +2612,10 @@
         <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>35</v>
@@ -2896,49 +2659,52 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1">
-        <v>65639502</v>
+        <v>65009800</v>
+      </c>
+      <c r="M2" s="1">
+        <v>65675502</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="O2" s="1">
-        <v>30</v>
+        <v>361</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -2946,520 +2712,52 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="L3" s="1">
-        <v>62886930</v>
+        <v>65789555</v>
       </c>
       <c r="M3" s="1">
-        <v>62814132</v>
+        <v>67908596</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="O3" s="1">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="1">
-        <v>68707944</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="1">
-        <v>178</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="1">
-        <v>64893326</v>
-      </c>
-      <c r="M5" s="1">
-        <v>64893243</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="1">
-        <v>262</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="1">
-        <v>64748805</v>
-      </c>
-      <c r="M6" s="1">
-        <v>64741249</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="1">
-        <v>103</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="1">
-        <v>67788050</v>
-      </c>
-      <c r="M7" s="1">
-        <v>67784127</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="1">
-        <v>348</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="1">
-        <v>67593235</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O8" s="1">
-        <v>295</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="1">
-        <v>62886516</v>
-      </c>
-      <c r="M9" s="1">
-        <v>62876393</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O9" s="1">
-        <v>138</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="1">
-        <v>67691529</v>
-      </c>
-      <c r="M10" s="1">
-        <v>67653551</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O10" s="1">
-        <v>283</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" s="1">
-        <v>67797449</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O11" s="1">
-        <v>330</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" s="1">
-        <v>63126091</v>
-      </c>
-      <c r="M12" s="1">
-        <v>63126093</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O12" s="1">
-        <v>400</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3526,10 +2824,10 @@
         <v>19</v>
       </c>
       <c r="O1" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="P1" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="Q1" t="s">
         <v>35</v>
@@ -3537,527 +2835,227 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="L2">
-        <v>63126091</v>
+        <v>65009800</v>
       </c>
       <c r="M2">
-        <v>63126093</v>
+        <v>65675502</v>
       </c>
       <c r="N2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="O2">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3">
-        <v>67788050</v>
-      </c>
-      <c r="M3">
-        <v>67784127</v>
-      </c>
-      <c r="N3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3">
-        <v>348</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4">
-        <v>67797449</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" t="s">
-        <v>106</v>
-      </c>
-      <c r="O4">
-        <v>330</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>107</v>
-      </c>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5">
-        <v>67593235</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5">
-        <v>295</v>
-      </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>89</v>
-      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6">
-        <v>67691529</v>
-      </c>
-      <c r="M6">
-        <v>67653551</v>
-      </c>
-      <c r="N6" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6">
-        <v>283</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>101</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7">
-        <v>64893326</v>
-      </c>
-      <c r="M7">
-        <v>64893243</v>
-      </c>
-      <c r="N7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7">
-        <v>262</v>
-      </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>69</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8">
-        <v>62886930</v>
-      </c>
-      <c r="M8">
-        <v>62814132</v>
-      </c>
-      <c r="N8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8">
-        <v>227</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>54</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9">
-        <v>68707944</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
       <c r="M9"/>
-      <c r="N9" t="s">
-        <v>61</v>
-      </c>
-      <c r="O9">
-        <v>178</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>62</v>
-      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10">
-        <v>62886516</v>
-      </c>
-      <c r="M10">
-        <v>62876393</v>
-      </c>
-      <c r="N10" t="s">
-        <v>94</v>
-      </c>
-      <c r="O10">
-        <v>138</v>
-      </c>
-      <c r="P10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>95</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11">
-        <v>64748805</v>
-      </c>
-      <c r="M11">
-        <v>64741249</v>
-      </c>
-      <c r="N11" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11">
-        <v>103</v>
-      </c>
-      <c r="P11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>76</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12"/>
@@ -6323,7 +5321,7 @@
       <c r="B8" s="6"/>
       <c r="C8" s="9">
         <f>COUNT(OpenBids!A:A)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D8" s="8"/>
       <c r="F8" s="6"/>
@@ -6392,16 +5390,16 @@
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="27">
         <f>'Top5'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C14" s="28" t="str">
         <f>'Top5'!C2</f>
-        <v>MOESCHETQ22001947</v>
+        <v>MOESCHETQ22001978</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="35" t="str">
         <f>'Top5'!E2</f>
-        <v>Ceramics Course for Primary 3 and 4 students for the Year 2022 in Edgefield Primary School</v>
+        <v>Supply of Instructors for Drones with Artificial Intelligence (AI) Workshop for Secondary 1 Students at Yusof Ishak Secondary School.</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
@@ -6410,107 +5408,107 @@
       <c r="J14" s="37"/>
       <c r="K14" s="31" t="str">
         <f>'Top5'!H2</f>
-        <v>04 May 2022 01:00PM</v>
+        <v>05 May 2022 01:00PM</v>
       </c>
       <c r="L14" s="29"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="27">
         <f>'Top5'!A3</f>
-        <v>6</v>
-      </c>
-      <c r="C15" s="28" t="str">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
         <f>'Top5'!C3</f>
-        <v>MOESCHETQ22001955</v>
+        <v>0</v>
       </c>
       <c r="D15" s="30"/>
-      <c r="E15" s="35" t="str">
+      <c r="E15" s="35">
         <f>'Top5'!E3</f>
-        <v>Supply of Instructors for Primary 3 Art Enrichment Programme Marbling in Nan Hua Primary School</v>
+        <v>0</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="37"/>
-      <c r="K15" s="31" t="str">
+      <c r="K15" s="31">
         <f>'Top5'!H3</f>
-        <v>04 May 2022 01:00PM</v>
+        <v>0</v>
       </c>
       <c r="L15" s="29"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="27">
         <f>'Top5'!A4</f>
-        <v>10</v>
-      </c>
-      <c r="C16" s="28" t="str">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28">
         <f>'Top5'!C4</f>
-        <v>MOESCHETQ22001948</v>
+        <v>0</v>
       </c>
       <c r="D16" s="30"/>
-      <c r="E16" s="35" t="str">
+      <c r="E16" s="35">
         <f>'Top5'!E4</f>
-        <v>To supply instructors for P3 English Language Oral Communication Programme in Clementi Primary School</v>
+        <v>0</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="37"/>
-      <c r="K16" s="31" t="str">
+      <c r="K16" s="31">
         <f>'Top5'!H4</f>
-        <v>05 May 2022 01:00PM</v>
+        <v>0</v>
       </c>
       <c r="L16" s="29"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="27">
         <f>'Top5'!A5</f>
-        <v>7</v>
-      </c>
-      <c r="C17" s="28" t="str">
+        <v>0</v>
+      </c>
+      <c r="C17" s="28">
         <f>'Top5'!C5</f>
-        <v>MOESCHETQ22001875</v>
+        <v>0</v>
       </c>
       <c r="D17" s="30"/>
-      <c r="E17" s="35" t="str">
+      <c r="E17" s="35">
         <f>'Top5'!E5</f>
-        <v>Chinese Language Speech and Drama Programme for Primary 1 and Primary 2 Students 2022</v>
+        <v>0</v>
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="37"/>
-      <c r="K17" s="31" t="str">
+      <c r="K17" s="31">
         <f>'Top5'!H5</f>
-        <v>04 May 2022 01:00PM</v>
+        <v>0</v>
       </c>
       <c r="L17" s="29"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="27">
         <f>'Top5'!A6</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="28" t="str">
+        <v>0</v>
+      </c>
+      <c r="C18" s="28">
         <f>'Top5'!C6</f>
-        <v>MOESCHETQ22001951</v>
+        <v>0</v>
       </c>
       <c r="D18" s="30"/>
-      <c r="E18" s="32" t="str">
+      <c r="E18" s="32">
         <f>'Top5'!E6</f>
-        <v>Provision of 3-Day Non-Residential P5 Outdoor Adventure Camp 2022 in CHIJ Our Lady Queen of Peace</v>
+        <v>0</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="34"/>
-      <c r="K18" s="31" t="str">
+      <c r="K18" s="31">
         <f>'Top5'!H6</f>
-        <v>04 May 2022 01:00PM</v>
+        <v>0</v>
       </c>
       <c r="L18" s="29"/>
     </row>
